--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9945" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="22905" windowHeight="9945" tabRatio="858" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="1618">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4926,10 +4926,13 @@
     <t>Device</t>
   </si>
   <si>
+    <t>略麻烦...</t>
+  </si>
+  <si>
+    <t>管线方面已提供创建接口</t>
+  </si>
+  <si>
     <t>Device_memory</t>
-  </si>
-  <si>
-    <t>管线方面已提供创建接口</t>
   </si>
   <si>
     <t>还可从VkDescriptorSetLayout创建</t>
@@ -5000,10 +5003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5022,16 +5025,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5060,37 +5109,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5099,44 +5125,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5153,6 +5141,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5227,7 +5230,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5239,13 +5320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5257,13 +5338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5275,49 +5368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5329,19 +5380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5353,43 +5392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5407,24 +5410,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5441,6 +5452,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5477,26 +5497,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5506,10 +5509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5518,7 +5521,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5527,124 +5530,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5676,10 +5679,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14885,8 +14888,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15268,7 +15271,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="10" t="s">
         <v>737</v>
       </c>
       <c r="B37" s="3"/>
@@ -15282,27 +15285,29 @@
         <v>739</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>935</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="B39" s="3"/>
+      <c r="A39" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1594</v>
+      </c>
       <c r="C39" s="5" t="s">
         <v>943</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10" t="s">
-        <v>746</v>
+      <c r="A40" s="6" t="s">
+        <v>939</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>951</v>
@@ -15310,20 +15315,18 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1594</v>
-      </c>
+      <c r="A41" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="5" t="s">
         <v>959</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>752</v>
+      <c r="A42" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="5" t="s">
@@ -15334,28 +15337,32 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="B43" s="3"/>
+      <c r="A43" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1593</v>
+      </c>
       <c r="C43" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="B44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1596</v>
+      </c>
       <c r="C44" s="5" t="s">
         <v>1013</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
-        <v>758</v>
+      <c r="A45" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5" t="s">
@@ -15364,8 +15371,8 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="10" t="s">
-        <v>759</v>
+      <c r="A46" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="5" t="s">
@@ -15374,28 +15381,28 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="10" t="s">
-        <v>761</v>
+      <c r="A47" s="11" t="s">
+        <v>756</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>1035</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>765</v>
+      <c r="A48" s="4" t="s">
+        <v>758</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>767</v>
+      <c r="A49" s="10" t="s">
+        <v>759</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -15403,15 +15410,15 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
-        <v>771</v>
+      <c r="A51" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -15419,23 +15426,23 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>776</v>
+      <c r="A53" s="10" t="s">
+        <v>769</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>780</v>
+      <c r="A54" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -15443,7 +15450,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -15451,7 +15458,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -15459,47 +15466,47 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="6" t="s">
-        <v>784</v>
+      <c r="A58" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
-        <v>786</v>
+      <c r="A59" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="10" t="s">
-        <v>787</v>
+      <c r="A60" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
-        <v>789</v>
+      <c r="A61" s="10" t="s">
+        <v>784</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="10" t="s">
-        <v>790</v>
+      <c r="A62" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -15507,7 +15514,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="10" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -15515,31 +15522,31 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>802</v>
+      <c r="A65" s="10" t="s">
+        <v>790</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>804</v>
+      <c r="A66" s="10" t="s">
+        <v>792</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>808</v>
+      <c r="A67" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -15547,7 +15554,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -15555,7 +15562,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -15563,39 +15570,39 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="10" t="s">
-        <v>818</v>
+      <c r="A71" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="10" t="s">
-        <v>820</v>
+      <c r="A72" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
-        <v>824</v>
+      <c r="A73" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>826</v>
+      <c r="A74" s="10" t="s">
+        <v>818</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -15603,47 +15610,47 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="10" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="6" t="s">
-        <v>830</v>
+      <c r="A76" s="11" t="s">
+        <v>824</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="10" t="s">
-        <v>834</v>
+      <c r="A77" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="6" t="s">
-        <v>836</v>
+      <c r="A78" s="10" t="s">
+        <v>828</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="10" t="s">
-        <v>838</v>
+      <c r="A79" s="6" t="s">
+        <v>830</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="6" t="s">
-        <v>840</v>
+      <c r="A80" s="10" t="s">
+        <v>834</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -15651,15 +15658,15 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="6" t="s">
-        <v>844</v>
+      <c r="A82" s="10" t="s">
+        <v>838</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -15667,7 +15674,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -15675,7 +15682,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="6" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -15683,7 +15690,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -15691,7 +15698,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -15699,7 +15706,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -15707,7 +15714,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -15715,7 +15722,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="6" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -15723,7 +15730,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="6" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -15731,7 +15738,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -15739,7 +15746,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="6" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -15747,7 +15754,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="6" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -15755,7 +15762,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="6" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -15763,7 +15770,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="6" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -15771,7 +15778,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="6" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -15779,7 +15786,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="6" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -15787,7 +15794,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="6" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -15795,7 +15802,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="6" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -15803,7 +15810,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -15811,15 +15818,15 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="6" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="9" t="s">
-        <v>884</v>
+      <c r="A102" s="6" t="s">
+        <v>878</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -15827,7 +15834,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="6" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -15835,15 +15842,15 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="6" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="6" t="s">
-        <v>890</v>
+      <c r="A105" s="9" t="s">
+        <v>884</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -15851,7 +15858,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -15859,7 +15866,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -15867,7 +15874,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="6" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -15875,7 +15882,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="6" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -15883,7 +15890,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -15891,7 +15898,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -15899,7 +15906,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -15907,7 +15914,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -15915,7 +15922,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -15923,7 +15930,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -15931,7 +15938,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -15939,7 +15946,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="6" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -15947,7 +15954,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="6" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -15955,7 +15962,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -15963,7 +15970,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -15971,7 +15978,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="6" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -15979,7 +15986,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -15987,23 +15994,23 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="6" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="2" t="s">
-        <v>929</v>
+      <c r="A124" s="6" t="s">
+        <v>921</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="2" t="s">
-        <v>931</v>
+      <c r="A125" s="6" t="s">
+        <v>923</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -16011,23 +16018,23 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="6" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="6" t="s">
-        <v>937</v>
+      <c r="A127" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="6" t="s">
-        <v>939</v>
+      <c r="A128" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -16035,7 +16042,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -16290,7 +16297,7 @@
         <v>1025</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -16300,7 +16307,7 @@
         <v>1027</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -16334,7 +16341,7 @@
         <v>1039</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -16348,7 +16355,7 @@
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="B167" s="3"/>
@@ -16386,87 +16393,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
   </sheetData>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22905" windowHeight="9945" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="1621">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4917,25 +4917,31 @@
     <t>Physical_device</t>
   </si>
   <si>
+    <t>管线方面已提供创建接口</t>
+  </si>
+  <si>
     <t xml:space="preserve">Physical_device </t>
   </si>
   <si>
+    <t>还可从VkDescriptorSetLayout创建</t>
+  </si>
+  <si>
     <t>Instance</t>
   </si>
   <si>
     <t>Device</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>略麻烦...</t>
   </si>
   <si>
-    <t>管线方面已提供创建接口</t>
-  </si>
-  <si>
     <t>Device_memory</t>
   </si>
   <si>
-    <t>还可从VkDescriptorSetLayout创建</t>
+    <t>略麻烦</t>
   </si>
   <si>
     <t>略麻烦 不明白正确用法</t>
@@ -4983,7 +4989,7 @@
     <t>const变量后边跟随"_c"</t>
   </si>
   <si>
-    <t>枚举类型前边加"E_"  目的是方便使用者依靠自动完成进行筛选.</t>
+    <t>枚举类型前边加"E_"  目的是方便使用者依靠IDE的自动完成进行筛选.</t>
   </si>
   <si>
     <t>使用规律</t>
@@ -4996,6 +5002,9 @@
   </si>
   <si>
     <t>依靠共享指针返回新建的对象 如果返回的指针是空的,则说明创建对象失败.</t>
+  </si>
+  <si>
+    <t>一个接口需要你放入shared_ptr,这种情况下是因为它需要这个来管理这个对象的生命周期.</t>
   </si>
 </sst>
 </file>
@@ -5003,8 +5012,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -5024,23 +5033,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5048,14 +5043,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5069,18 +5056,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5109,13 +5095,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5123,8 +5102,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5146,6 +5155,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -5153,15 +5169,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5194,6 +5203,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5206,7 +5221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="2" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5230,6 +5245,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5242,19 +5335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5266,31 +5389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5302,97 +5401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5406,25 +5421,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5432,10 +5438,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5480,16 +5484,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5509,10 +5524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5521,19 +5536,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5542,116 +5557,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5660,41 +5675,44 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6155,7 +6173,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6166,7 +6184,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6177,7 +6195,7 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6188,7 +6206,7 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -9473,14 +9491,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="328" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A328" s="17" t="s">
+    <row r="328" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A328" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="B328" s="17" t="s">
+      <c r="B328" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C328" s="17" t="s">
+      <c r="C328" s="18" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9561,14 +9579,14 @@
         <v>636</v>
       </c>
     </row>
-    <row r="337" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A337" s="18" t="s">
+    <row r="337" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A337" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="B337" s="17" t="s">
+      <c r="B337" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C337" s="17" t="s">
+      <c r="C337" s="18" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10111,14 +10129,14 @@
         <v>727</v>
       </c>
     </row>
-    <row r="388" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A388" s="18" t="s">
+    <row r="388" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A388" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="B388" s="17" t="s">
+      <c r="B388" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C388" s="17" t="s">
+      <c r="C388" s="18" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10211,7 +10229,7 @@
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="15" t="s">
+      <c r="A397" s="16" t="s">
         <v>744</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -10232,14 +10250,14 @@
         <v>747</v>
       </c>
     </row>
-    <row r="400" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A400" s="18" t="s">
+    <row r="400" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A400" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="B400" s="17" t="s">
+      <c r="B400" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C400" s="17" t="s">
+      <c r="C400" s="18" t="s">
         <v>749</v>
       </c>
     </row>
@@ -10266,18 +10284,18 @@
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="15" t="s">
+      <c r="A403" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="C403" s="15" t="s">
+      <c r="B403" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C403" s="16" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="15" t="s">
+      <c r="A404" s="16" t="s">
         <v>756</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -10321,18 +10339,18 @@
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="15"/>
-      <c r="B408" s="15"/>
-      <c r="C408" s="15"/>
-    </row>
-    <row r="409" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A409" s="17" t="s">
+      <c r="A408" s="16"/>
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+    </row>
+    <row r="409" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A409" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="B409" s="17" t="s">
+      <c r="B409" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C409" s="17" t="s">
+      <c r="C409" s="18" t="s">
         <v>764</v>
       </c>
     </row>
@@ -10380,14 +10398,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="415" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A415" s="17" t="s">
+    <row r="415" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A415" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="B415" s="17" t="s">
+      <c r="B415" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C415" s="17" t="s">
+      <c r="C415" s="18" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10413,14 +10431,14 @@
         <v>777</v>
       </c>
     </row>
-    <row r="419" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A419" s="17" t="s">
+    <row r="419" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A419" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="B419" s="17" t="s">
+      <c r="B419" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C419" s="17" t="s">
+      <c r="C419" s="18" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10523,14 +10541,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="430" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A430" s="17" t="s">
+    <row r="430" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A430" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="B430" s="17" t="s">
+      <c r="B430" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C430" s="17" t="s">
+      <c r="C430" s="18" t="s">
         <v>795</v>
       </c>
     </row>
@@ -10556,14 +10574,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="434" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A434" s="17" t="s">
+    <row r="434" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A434" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="B434" s="17" t="s">
+      <c r="B434" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C434" s="17" t="s">
+      <c r="C434" s="18" t="s">
         <v>801</v>
       </c>
     </row>
@@ -10589,14 +10607,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="438" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A438" s="17" t="s">
+    <row r="438" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A438" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="B438" s="17" t="s">
+      <c r="B438" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C438" s="17" t="s">
+      <c r="C438" s="18" t="s">
         <v>807</v>
       </c>
     </row>
@@ -10622,14 +10640,14 @@
         <v>811</v>
       </c>
     </row>
-    <row r="442" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A442" s="17" t="s">
+    <row r="442" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A442" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="B442" s="17" t="s">
+      <c r="B442" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C442" s="17" t="s">
+      <c r="C442" s="18" t="s">
         <v>813</v>
       </c>
     </row>
@@ -10677,19 +10695,19 @@
         <v>821</v>
       </c>
     </row>
-    <row r="448" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A448" s="18" t="s">
+    <row r="448" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A448" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="B448" s="17" t="s">
+      <c r="B448" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C448" s="17" t="s">
+      <c r="C448" s="18" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="15" t="s">
+      <c r="A449" s="16" t="s">
         <v>824</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -10860,7 +10878,7 @@
       <c r="B468" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C468" s="15" t="s">
+      <c r="C468" s="16" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10953,7 +10971,7 @@
       </c>
     </row>
     <row r="479" customHeight="1" spans="3:3">
-      <c r="C479" s="15"/>
+      <c r="C479" s="16"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
       <c r="A480" s="1" t="s">
@@ -11006,7 +11024,7 @@
       <c r="B485" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="15" t="s">
+      <c r="C485" s="16" t="s">
         <v>881</v>
       </c>
     </row>
@@ -11022,7 +11040,7 @@
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="15" t="s">
+      <c r="A487" s="16" t="s">
         <v>884</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -11263,14 +11281,14 @@
         <v>926</v>
       </c>
     </row>
-    <row r="515" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A515" s="17" t="s">
+    <row r="515" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A515" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="B515" s="17" t="s">
+      <c r="B515" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C515" s="17" t="s">
+      <c r="C515" s="18" t="s">
         <v>928</v>
       </c>
     </row>
@@ -11307,14 +11325,14 @@
         <v>934</v>
       </c>
     </row>
-    <row r="520" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A520" s="17" t="s">
+    <row r="520" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A520" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="B520" s="17" t="s">
+      <c r="B520" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C520" s="17" t="s">
+      <c r="C520" s="18" t="s">
         <v>936</v>
       </c>
     </row>
@@ -11351,14 +11369,14 @@
         <v>942</v>
       </c>
     </row>
-    <row r="525" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A525" s="17" t="s">
+    <row r="525" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A525" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="B525" s="17" t="s">
+      <c r="B525" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C525" s="17" t="s">
+      <c r="C525" s="18" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11395,14 +11413,14 @@
         <v>950</v>
       </c>
     </row>
-    <row r="530" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A530" s="17" t="s">
+    <row r="530" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A530" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="B530" s="17" t="s">
+      <c r="B530" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C530" s="17" t="s">
+      <c r="C530" s="18" t="s">
         <v>952</v>
       </c>
     </row>
@@ -11439,14 +11457,14 @@
         <v>958</v>
       </c>
     </row>
-    <row r="535" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A535" s="17" t="s">
+    <row r="535" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A535" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="B535" s="17" t="s">
+      <c r="B535" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C535" s="17" t="s">
+      <c r="C535" s="18" t="s">
         <v>960</v>
       </c>
     </row>
@@ -11494,14 +11512,14 @@
         <v>968</v>
       </c>
     </row>
-    <row r="541" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A541" s="17" t="s">
+    <row r="541" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A541" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="B541" s="17" t="s">
+      <c r="B541" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C541" s="17" t="s">
+      <c r="C541" s="18" t="s">
         <v>970</v>
       </c>
     </row>
@@ -11527,14 +11545,14 @@
         <v>974</v>
       </c>
     </row>
-    <row r="545" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A545" s="17" t="s">
+    <row r="545" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A545" s="18" t="s">
         <v>975</v>
       </c>
-      <c r="B545" s="17" t="s">
+      <c r="B545" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C545" s="17" t="s">
+      <c r="C545" s="18" t="s">
         <v>976</v>
       </c>
     </row>
@@ -11560,14 +11578,14 @@
         <v>980</v>
       </c>
     </row>
-    <row r="549" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A549" s="17" t="s">
+    <row r="549" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A549" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="B549" s="17" t="s">
+      <c r="B549" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C549" s="17" t="s">
+      <c r="C549" s="18" t="s">
         <v>982</v>
       </c>
     </row>
@@ -11626,14 +11644,14 @@
         <v>992</v>
       </c>
     </row>
-    <row r="556" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A556" s="17" t="s">
+    <row r="556" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A556" s="18" t="s">
         <v>993</v>
       </c>
-      <c r="B556" s="17" t="s">
+      <c r="B556" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C556" s="17" t="s">
+      <c r="C556" s="18" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11692,14 +11710,14 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="563" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A563" s="17" t="s">
+    <row r="563" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A563" s="18" t="s">
         <v>1005</v>
       </c>
-      <c r="B563" s="17" t="s">
+      <c r="B563" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C563" s="17" t="s">
+      <c r="C563" s="18" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11736,14 +11754,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="568" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A568" s="17" t="s">
+    <row r="568" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A568" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="B568" s="17" t="s">
+      <c r="B568" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C568" s="17" t="s">
+      <c r="C568" s="18" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -11769,14 +11787,14 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="572" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A572" s="17" t="s">
+    <row r="572" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A572" s="18" t="s">
         <v>1019</v>
       </c>
-      <c r="B572" s="17" t="s">
+      <c r="B572" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C572" s="17" t="s">
+      <c r="C572" s="18" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11824,14 +11842,14 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="578" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A578" s="17" t="s">
+    <row r="578" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A578" s="18" t="s">
         <v>1029</v>
       </c>
-      <c r="B578" s="17" t="s">
+      <c r="B578" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C578" s="17" t="s">
+      <c r="C578" s="18" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -11857,14 +11875,14 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="582" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A582" s="17" t="s">
+    <row r="582" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A582" s="18" t="s">
         <v>1035</v>
       </c>
-      <c r="B582" s="17" t="s">
+      <c r="B582" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C582" s="17" t="s">
+      <c r="C582" s="18" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -11912,25 +11930,25 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="588" s="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A588" s="17" t="s">
+    <row r="588" s="18" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A588" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="B588" s="18" t="s">
+      <c r="B588" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C588" s="18" t="s">
+      <c r="C588" s="19" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="15" t="s">
+      <c r="A589" s="16" t="s">
         <v>1047</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C589" s="15" t="s">
+      <c r="C589" s="16" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11941,7 +11959,7 @@
       <c r="B590" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C590" s="15" t="s">
+      <c r="C590" s="16" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -11963,2917 +11981,2917 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="58.125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="15" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="15" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="15" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="15" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="15" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="15" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="15" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="15" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="15" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="15" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="15" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="15" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="15" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="15" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="15" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="15" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="15" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="15" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="15" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="15" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="15" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="15" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="15" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="15" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="15" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="15" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="15" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="15" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="15" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="15" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="15" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="15" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="15" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="15" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="15" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="15" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="15" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="15" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="15" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="15" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="15" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="15" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="15" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="15" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="15" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="15" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="15" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="15" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="15" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="15" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="15" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="15" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="15" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="15" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="15" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="15" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="15" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="15" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="15" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="15" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="15" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="15" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="15" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="15" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="15" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="15" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="15" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="15" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="15" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="14" t="s">
+      <c r="A184" s="15" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="15" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="15" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="14" t="s">
+      <c r="A188" s="15" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="15" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="15" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="15" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="15" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="14" t="s">
+      <c r="A193" s="15" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="14" t="s">
+      <c r="A194" s="15" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="14" t="s">
+      <c r="A195" s="15" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="15" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="14" t="s">
+      <c r="A197" s="15" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="14" t="s">
+      <c r="A198" s="15" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="15" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="15" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="15" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="14" t="s">
+      <c r="A202" s="15" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="14" t="s">
+      <c r="A203" s="15" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="14" t="s">
+      <c r="A204" s="15" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="15" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="15" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="15" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="15" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="15" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="15" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="15" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="15" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="14" t="s">
+      <c r="A215" s="15" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="15" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="15" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="14" t="s">
+      <c r="A219" s="15" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="14" t="s">
+      <c r="A220" s="15" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="15" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="15" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="14" t="s">
+      <c r="A223" s="15" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="15" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="14" t="s">
+      <c r="A225" s="15" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="15" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="14" t="s">
+      <c r="A228" s="15" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="14" t="s">
+      <c r="A229" s="15" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="14" t="s">
+      <c r="A230" s="15" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="14" t="s">
+      <c r="A231" s="15" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="14" t="s">
+      <c r="A232" s="15" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="15" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="15" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="15" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="15" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="15" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="15" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="15" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="15" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="15" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="14" t="s">
+      <c r="A243" s="15" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="14" t="s">
+      <c r="A244" s="15" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="15" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="14" t="s">
+      <c r="A246" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="15" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="14" t="s">
+      <c r="A248" s="15" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="14" t="s">
+      <c r="A249" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="14" t="s">
+      <c r="A250" s="15" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="14" t="s">
+      <c r="A251" s="15" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="15" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="15" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="14" t="s">
+      <c r="A254" s="15" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="15" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="15" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="14" t="s">
+      <c r="A257" s="15" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="15" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="15" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="15" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="14" t="s">
+      <c r="A263" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="14" t="s">
+      <c r="A264" s="15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="15" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="15" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="14" t="s">
+      <c r="A267" s="15" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="15" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="14" t="s">
+      <c r="A269" s="15" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="14" t="s">
+      <c r="A270" s="15" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="15" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="14" t="s">
+      <c r="A272" s="15" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="14" t="s">
+      <c r="A273" s="15" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="15" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="14" t="s">
+      <c r="A275" s="15" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="14" t="s">
+      <c r="A276" s="15" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="14" t="s">
+      <c r="A277" s="15" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="14" t="s">
+      <c r="A278" s="15" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="14" t="s">
+      <c r="A279" s="15" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="14" t="s">
+      <c r="A280" s="15" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="14" t="s">
+      <c r="A281" s="15" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="14" t="s">
+      <c r="A282" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="14" t="s">
+      <c r="A283" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="15" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="14" t="s">
+      <c r="A285" s="15" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="14" t="s">
+      <c r="A286" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="14" t="s">
+      <c r="A287" s="15" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="14" t="s">
+      <c r="A288" s="15" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="15" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="14" t="s">
+      <c r="A290" s="15" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="14" t="s">
+      <c r="A291" s="15" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="14" t="s">
+      <c r="A292" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="14" t="s">
+      <c r="A293" s="15" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="14" t="s">
+      <c r="A294" s="15" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="15" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="15" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="15" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="15" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="15" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="15" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="15" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="14" t="s">
+      <c r="A302" s="15" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="14" t="s">
+      <c r="A303" s="15" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="15" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="15" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="15" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="15" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="15" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="14" t="s">
+      <c r="A310" s="15" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="14" t="s">
+      <c r="A311" s="15" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="14" t="s">
+      <c r="A312" s="15" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="14" t="s">
+      <c r="A313" s="15" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="15" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="14" t="s">
+      <c r="A315" s="15" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="14" t="s">
+      <c r="A316" s="15" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="14" t="s">
+      <c r="A317" s="15" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="15" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="15" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="14" t="s">
+      <c r="A320" s="15" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="14" t="s">
+      <c r="A321" s="15" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="14" t="s">
+      <c r="A322" s="15" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="14" t="s">
+      <c r="A323" s="15" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="14" t="s">
+      <c r="A324" s="15" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="14" t="s">
+      <c r="A325" s="15" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="14" t="s">
+      <c r="A326" s="15" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="14" t="s">
+      <c r="A327" s="15" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="14" t="s">
+      <c r="A328" s="15" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="14" t="s">
+      <c r="A329" s="15" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="14" t="s">
+      <c r="A330" s="15" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="14" t="s">
+      <c r="A331" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="14" t="s">
+      <c r="A332" s="15" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="14" t="s">
+      <c r="A333" s="15" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="14" t="s">
+      <c r="A334" s="15" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="14" t="s">
+      <c r="A335" s="15" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="14" t="s">
+      <c r="A336" s="15" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="15" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="14" t="s">
+      <c r="A338" s="15" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="14" t="s">
+      <c r="A339" s="15" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="14" t="s">
+      <c r="A340" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="15" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="14" t="s">
+      <c r="A342" s="15" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="15" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="15" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="15" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="15" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="14" t="s">
+      <c r="A348" s="15" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="14" t="s">
+      <c r="A349" s="15" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="14" t="s">
+      <c r="A350" s="15" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="14" t="s">
+      <c r="A351" s="15" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="15" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="15" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="15" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="15" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="15" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="15" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="15" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="15" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="14" t="s">
+      <c r="A360" s="15" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="14" t="s">
+      <c r="A361" s="15" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="15" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="15" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="15" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="15" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="14" t="s">
+      <c r="A366" s="15" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="14" t="s">
+      <c r="A367" s="15" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="14" t="s">
+      <c r="A368" s="15" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="15" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="15" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="15" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="15" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="15" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="15" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="15" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="14" t="s">
+      <c r="A376" s="15" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="15" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="15" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="14" t="s">
+      <c r="A379" s="15" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="14" t="s">
+      <c r="A380" s="15" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="14" t="s">
+      <c r="A381" s="15" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="15" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="15" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="14" t="s">
+      <c r="A384" s="15" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="15" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="14" t="s">
+      <c r="A386" s="15" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="14" t="s">
+      <c r="A387" s="15" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="14" t="s">
+      <c r="A388" s="15" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="15" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="14" t="s">
+      <c r="A390" s="15" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="14" t="s">
+      <c r="A391" s="15" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="14" t="s">
+      <c r="A392" s="15" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="14" t="s">
+      <c r="A393" s="15" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="14" t="s">
+      <c r="A394" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="15" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="15" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="14" t="s">
+      <c r="A397" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="14" t="s">
+      <c r="A398" s="15" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="14" t="s">
+      <c r="A399" s="15" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="14" t="s">
+      <c r="A400" s="15" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="14" t="s">
+      <c r="A401" s="15" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="14" t="s">
+      <c r="A402" s="15" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="14" t="s">
+      <c r="A403" s="15" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="14" t="s">
+      <c r="A404" s="15" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="15" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="14" t="s">
+      <c r="A406" s="15" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="15" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="14" t="s">
+      <c r="A408" s="15" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="14" t="s">
+      <c r="A409" s="15" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="14" t="s">
+      <c r="A410" s="15" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="14" t="s">
+      <c r="A411" s="15" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="14" t="s">
+      <c r="A412" s="15" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="14" t="s">
+      <c r="A413" s="15" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="14" t="s">
+      <c r="A414" s="15" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="14" t="s">
+      <c r="A415" s="15" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="14" t="s">
+      <c r="A416" s="15" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="14" t="s">
+      <c r="A417" s="15" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="14" t="s">
+      <c r="A418" s="15" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="14" t="s">
+      <c r="A419" s="15" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="14" t="s">
+      <c r="A420" s="15" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="14" t="s">
+      <c r="A421" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="14" t="s">
+      <c r="A422" s="15" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="14" t="s">
+      <c r="A423" s="15" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="14" t="s">
+      <c r="A424" s="15" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="14" t="s">
+      <c r="A425" s="15" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="14" t="s">
+      <c r="A426" s="15" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="14" t="s">
+      <c r="A427" s="15" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="14" t="s">
+      <c r="A428" s="15" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="14" t="s">
+      <c r="A429" s="15" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="15" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="15" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="14" t="s">
+      <c r="A432" s="15" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="14" t="s">
+      <c r="A433" s="15" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="15" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="15" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="15" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="14" t="s">
+      <c r="A437" s="15" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="14" t="s">
+      <c r="A438" s="15" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="14" t="s">
+      <c r="A439" s="15" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="14" t="s">
+      <c r="A440" s="15" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="14" t="s">
+      <c r="A441" s="15" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="15" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="15" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="14" t="s">
+      <c r="A444" s="15" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="14" t="s">
+      <c r="A445" s="15" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="15" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="14" t="s">
+      <c r="A447" s="15" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="14" t="s">
+      <c r="A448" s="15" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="14" t="s">
+      <c r="A449" s="15" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="14" t="s">
+      <c r="A450" s="15" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="14" t="s">
+      <c r="A451" s="15" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="14" t="s">
+      <c r="A452" s="15" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="14" t="s">
+      <c r="A453" s="15" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="14" t="s">
+      <c r="A454" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="15" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="15" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="14" t="s">
+      <c r="A457" s="15" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="14" t="s">
+      <c r="A458" s="15" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="14" t="s">
+      <c r="A459" s="15" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="15" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="15" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="14" t="s">
+      <c r="A462" s="15" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="14" t="s">
+      <c r="A463" s="15" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="14" t="s">
+      <c r="A464" s="15" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="14" t="s">
+      <c r="A465" s="15" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="14" t="s">
+      <c r="A466" s="15" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="14" t="s">
+      <c r="A467" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="14" t="s">
+      <c r="A468" s="15" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="14" t="s">
+      <c r="A469" s="15" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="14" t="s">
+      <c r="A470" s="15" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="14" t="s">
+      <c r="A471" s="15" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="14" t="s">
+      <c r="A472" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="14" t="s">
+      <c r="A473" s="15" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="14" t="s">
+      <c r="A474" s="15" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="14" t="s">
+      <c r="A475" s="15" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="14" t="s">
+      <c r="A476" s="15" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="14" t="s">
+      <c r="A477" s="15" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="14" t="s">
+      <c r="A478" s="15" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="14" t="s">
+      <c r="A479" s="15" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="14" t="s">
+      <c r="A480" s="15" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="14" t="s">
+      <c r="A481" s="15" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="15" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="15" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="14" t="s">
+      <c r="A484" s="15" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="14" t="s">
+      <c r="A485" s="15" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="14" t="s">
+      <c r="A486" s="15" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="15" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="14" t="s">
+      <c r="A488" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="14" t="s">
+      <c r="A489" s="15" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="14" t="s">
+      <c r="A490" s="15" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="14" t="s">
+      <c r="A491" s="15" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="14" t="s">
+      <c r="A492" s="15" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="14" t="s">
+      <c r="A493" s="15" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="14" t="s">
+      <c r="A494" s="15" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="14" t="s">
+      <c r="A495" s="15" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="14" t="s">
+      <c r="A496" s="15" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="14" t="s">
+      <c r="A497" s="15" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="14" t="s">
+      <c r="A498" s="15" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="14" t="s">
+      <c r="A499" s="15" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="14" t="s">
+      <c r="A500" s="15" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="14" t="s">
+      <c r="A501" s="15" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="15" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="14" t="s">
+      <c r="A503" s="15" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="14" t="s">
+      <c r="A504" s="15" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="14" t="s">
+      <c r="A505" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="14" t="s">
+      <c r="A506" s="15" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="14" t="s">
+      <c r="A507" s="15" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="14" t="s">
+      <c r="A508" s="15" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="14" t="s">
+      <c r="A509" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="14" t="s">
+      <c r="A510" s="15" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="14" t="s">
+      <c r="A511" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="14" t="s">
+      <c r="A512" s="15" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="14" t="s">
+      <c r="A513" s="15" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="14" t="s">
+      <c r="A514" s="15" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="14" t="s">
+      <c r="A515" s="15" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="14" t="s">
+      <c r="A516" s="15" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="14" t="s">
+      <c r="A517" s="15" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="14" t="s">
+      <c r="A518" s="15" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="14" t="s">
+      <c r="A519" s="15" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="14" t="s">
+      <c r="A520" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="14" t="s">
+      <c r="A521" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="14" t="s">
+      <c r="A522" s="15" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="14" t="s">
+      <c r="A523" s="15" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="14" t="s">
+      <c r="A524" s="15" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="14" t="s">
+      <c r="A525" s="15" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="14" t="s">
+      <c r="A526" s="15" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="14" t="s">
+      <c r="A527" s="15" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="14" t="s">
+      <c r="A528" s="15" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="14" t="s">
+      <c r="A529" s="15" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="14" t="s">
+      <c r="A530" s="15" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="14" t="s">
+      <c r="A531" s="15" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="14" t="s">
+      <c r="A532" s="15" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="14" t="s">
+      <c r="A533" s="15" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="14" t="s">
+      <c r="A534" s="15" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="14" t="s">
+      <c r="A535" s="15" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="14" t="s">
+      <c r="A536" s="15" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="14" t="s">
+      <c r="A537" s="15" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="15" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="14" t="s">
+      <c r="A539" s="15" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="14" t="s">
+      <c r="A540" s="15" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="14" t="s">
+      <c r="A541" s="15" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="14" t="s">
+      <c r="A542" s="15" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="14" t="s">
+      <c r="A543" s="15" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="14" t="s">
+      <c r="A544" s="15" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="14" t="s">
+      <c r="A545" s="15" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="14" t="s">
+      <c r="A546" s="15" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="14" t="s">
+      <c r="A547" s="15" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="14" t="s">
+      <c r="A548" s="15" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="14" t="s">
+      <c r="A549" s="15" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="14" t="s">
+      <c r="A550" s="15" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="14" t="s">
+      <c r="A551" s="15" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="14" t="s">
+      <c r="A552" s="15" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="14" t="s">
+      <c r="A553" s="15" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="14" t="s">
+      <c r="A554" s="15" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="14" t="s">
+      <c r="A555" s="15" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="14" t="s">
+      <c r="A556" s="15" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="14" t="s">
+      <c r="A557" s="15" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="14" t="s">
+      <c r="A558" s="15" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="14" t="s">
+      <c r="A559" s="15" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="14" t="s">
+      <c r="A560" s="15" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="14" t="s">
+      <c r="A561" s="15" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="14" t="s">
+      <c r="A562" s="15" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="14" t="s">
+      <c r="A563" s="15" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="15" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="14" t="s">
+      <c r="A565" s="15" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="14" t="s">
+      <c r="A566" s="15" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="14" t="s">
+      <c r="A567" s="15" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="14" t="s">
+      <c r="A568" s="15" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="14" t="s">
+      <c r="A569" s="15" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="14" t="s">
+      <c r="A570" s="15" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="14" t="s">
+      <c r="A571" s="15" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="14" t="s">
+      <c r="A572" s="15" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="14" t="s">
+      <c r="A573" s="15" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="14" t="s">
+      <c r="A574" s="15" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="14" t="s">
+      <c r="A575" s="15" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="14" t="s">
+      <c r="A576" s="15" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="14" t="s">
+      <c r="A577" s="15" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="14" t="s">
+      <c r="A578" s="15" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="14" t="s">
+      <c r="A579" s="15" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="14" t="s">
+      <c r="A580" s="15" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="14" t="s">
+      <c r="A581" s="15" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="14" t="s">
+      <c r="A582" s="15" t="s">
         <v>991</v>
       </c>
     </row>
@@ -14888,8 +14906,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -14907,7 +14925,9 @@
       <c r="B1" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
@@ -14917,7 +14937,9 @@
       <c r="B2" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>728</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
@@ -14927,7 +14949,9 @@
       <c r="B3" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>763</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
@@ -14937,7 +14961,9 @@
       <c r="B4" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>637</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
@@ -14947,7 +14973,9 @@
       <c r="B5" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
@@ -14957,7 +14985,9 @@
       <c r="B6" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
@@ -14967,7 +14997,9 @@
       <c r="B7" s="3" t="s">
         <v>1589</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>778</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
@@ -14977,7 +15009,9 @@
       <c r="B8" s="3" t="s">
         <v>1589</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
@@ -14987,7 +15021,9 @@
       <c r="B9" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>800</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
@@ -14997,7 +15033,9 @@
       <c r="B10" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>1045</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
@@ -15007,7 +15045,9 @@
       <c r="B11" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>975</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
@@ -15017,7 +15057,9 @@
       <c r="B12" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>981</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
@@ -15027,7 +15069,9 @@
       <c r="B13" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>993</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
@@ -15037,7 +15081,9 @@
       <c r="B14" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>806</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
@@ -15047,7 +15093,9 @@
       <c r="B15" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>822</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
@@ -15057,7 +15105,9 @@
       <c r="B16" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>812</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
@@ -15067,7 +15117,9 @@
       <c r="B17" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>927</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
@@ -15077,7 +15129,9 @@
       <c r="B18" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>935</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
@@ -15087,7 +15141,9 @@
       <c r="B19" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>943</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
@@ -15097,127 +15153,125 @@
       <c r="B20" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>951</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>655</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>619</v>
+      <c r="C21" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>658</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1591</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>661</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>763</v>
+      <c r="C23" s="4" t="s">
+        <v>1005</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>664</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>637</v>
+      <c r="C24" s="4" t="s">
+        <v>1013</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>667</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>748</v>
+      <c r="C25" s="4" t="s">
+        <v>1019</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>670</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>772</v>
+        <v>1592</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1029</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>673</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="D27" s="3"/>
+      <c r="C27" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="5" t="s">
-        <v>794</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>744</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="5" t="s">
-        <v>800</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>949</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="5" t="s">
-        <v>1045</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="5" t="s">
-        <v>975</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
@@ -15225,11 +15279,9 @@
         <v>732</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>981</v>
-      </c>
+        <v>1594</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4">
@@ -15237,11 +15289,9 @@
         <v>734</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>993</v>
-      </c>
+        <v>1595</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
@@ -15249,102 +15299,94 @@
         <v>736</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>806</v>
-      </c>
+        <v>1594</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3"/>
-      <c r="C35" s="5" t="s">
-        <v>822</v>
-      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3"/>
-      <c r="C36" s="5" t="s">
-        <v>812</v>
+      <c r="C36" s="3" t="s">
+        <v>1596</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>737</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="5" t="s">
-        <v>927</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>739</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="5" t="s">
-        <v>935</v>
+      <c r="C38" s="7" t="s">
+        <v>937</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>937</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>943</v>
+        <v>1597</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>939</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>939</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>951</v>
+        <v>1597</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>830</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>941</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="5" t="s">
-        <v>959</v>
+      <c r="C41" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>742</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1005</v>
+      <c r="C43" s="7" t="s">
+        <v>866</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -15353,10 +15395,10 @@
         <v>750</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1013</v>
+        <v>1598</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -15365,55 +15407,59 @@
         <v>752</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="5" t="s">
-        <v>1019</v>
+      <c r="C45" s="7" t="s">
+        <v>870</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>754</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="5" t="s">
-        <v>1029</v>
+      <c r="C46" s="10" t="s">
+        <v>884</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="13" t="s">
         <v>756</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>1597</v>
-      </c>
+      <c r="C47" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>758</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="7" t="s">
+        <v>886</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>759</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="7" t="s">
+        <v>919</v>
+      </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>761</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="7" t="s">
+        <v>925</v>
+      </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4">
@@ -15421,7 +15467,9 @@
         <v>765</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="7" t="s">
+        <v>933</v>
+      </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4">
@@ -15429,23 +15477,29 @@
         <v>767</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="7" t="s">
+        <v>965</v>
+      </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>769</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="7" t="s">
+        <v>967</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>771</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="7" t="s">
+        <v>1025</v>
+      </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4">
@@ -15453,7 +15507,9 @@
         <v>774</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="7" t="s">
+        <v>1027</v>
+      </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4">
@@ -15497,7 +15553,7 @@
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>784</v>
       </c>
       <c r="B61" s="3"/>
@@ -15505,7 +15561,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>786</v>
       </c>
       <c r="B62" s="3"/>
@@ -15513,7 +15569,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>787</v>
       </c>
       <c r="B63" s="3"/>
@@ -15521,7 +15577,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>789</v>
       </c>
       <c r="B64" s="3"/>
@@ -15529,7 +15585,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>790</v>
       </c>
       <c r="B65" s="3"/>
@@ -15537,7 +15593,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B66" s="3"/>
@@ -15545,7 +15601,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>793</v>
       </c>
       <c r="B67" s="3"/>
@@ -15601,7 +15657,7 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="11" t="s">
         <v>818</v>
       </c>
       <c r="B74" s="3"/>
@@ -15609,7 +15665,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="11" t="s">
         <v>820</v>
       </c>
       <c r="B75" s="3"/>
@@ -15617,7 +15673,7 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="13" t="s">
         <v>824</v>
       </c>
       <c r="B76" s="3"/>
@@ -15633,7 +15689,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>828</v>
       </c>
       <c r="B78" s="3"/>
@@ -15641,15 +15697,17 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>834</v>
       </c>
       <c r="B80" s="3"/>
@@ -15657,7 +15715,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="11" t="s">
         <v>836</v>
       </c>
       <c r="B81" s="3"/>
@@ -15665,15 +15723,17 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="11" t="s">
         <v>840</v>
       </c>
       <c r="B83" s="3"/>
@@ -15681,7 +15741,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="11" t="s">
         <v>842</v>
       </c>
       <c r="B84" s="3"/>
@@ -15689,7 +15749,7 @@
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="11" t="s">
         <v>844</v>
       </c>
       <c r="B85" s="3"/>
@@ -15697,7 +15757,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="11" t="s">
         <v>846</v>
       </c>
       <c r="B86" s="3"/>
@@ -15705,7 +15765,7 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="11" t="s">
         <v>848</v>
       </c>
       <c r="B87" s="3"/>
@@ -15713,7 +15773,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="11" t="s">
         <v>850</v>
       </c>
       <c r="B88" s="3"/>
@@ -15721,7 +15781,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="11" t="s">
         <v>852</v>
       </c>
       <c r="B89" s="3"/>
@@ -15729,7 +15789,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="11" t="s">
         <v>854</v>
       </c>
       <c r="B90" s="3"/>
@@ -15737,7 +15797,7 @@
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="11" t="s">
         <v>856</v>
       </c>
       <c r="B91" s="3"/>
@@ -15745,7 +15805,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="11" t="s">
         <v>858</v>
       </c>
       <c r="B92" s="3"/>
@@ -15753,7 +15813,7 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="11" t="s">
         <v>860</v>
       </c>
       <c r="B93" s="3"/>
@@ -15761,7 +15821,7 @@
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="11" t="s">
         <v>862</v>
       </c>
       <c r="B94" s="3"/>
@@ -15769,7 +15829,7 @@
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="7" t="s">
         <v>864</v>
       </c>
       <c r="B95" s="3"/>
@@ -15777,7 +15837,7 @@
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>866</v>
       </c>
       <c r="B96" s="3"/>
@@ -15785,7 +15845,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>868</v>
       </c>
       <c r="B97" s="3"/>
@@ -15793,7 +15853,7 @@
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>870</v>
       </c>
       <c r="B98" s="3"/>
@@ -15801,7 +15861,7 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="11" t="s">
         <v>872</v>
       </c>
       <c r="B99" s="3"/>
@@ -15809,7 +15869,7 @@
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="11" t="s">
         <v>874</v>
       </c>
       <c r="B100" s="3"/>
@@ -15817,7 +15877,7 @@
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="11" t="s">
         <v>876</v>
       </c>
       <c r="B101" s="3"/>
@@ -15825,7 +15885,7 @@
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="11" t="s">
         <v>878</v>
       </c>
       <c r="B102" s="3"/>
@@ -15833,7 +15893,7 @@
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="11" t="s">
         <v>880</v>
       </c>
       <c r="B103" s="3"/>
@@ -15841,31 +15901,37 @@
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="B104" s="3"/>
+      <c r="A104" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="B105" s="3"/>
+      <c r="A105" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="11" t="s">
         <v>888</v>
       </c>
       <c r="B107" s="3"/>
@@ -15873,7 +15939,7 @@
       <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="11" t="s">
         <v>890</v>
       </c>
       <c r="B108" s="3"/>
@@ -15881,7 +15947,7 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="11" t="s">
         <v>892</v>
       </c>
       <c r="B109" s="3"/>
@@ -15889,7 +15955,7 @@
       <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="11" t="s">
         <v>894</v>
       </c>
       <c r="B110" s="3"/>
@@ -15897,7 +15963,7 @@
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="11" t="s">
         <v>896</v>
       </c>
       <c r="B111" s="3"/>
@@ -15905,7 +15971,7 @@
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="11" t="s">
         <v>898</v>
       </c>
       <c r="B112" s="3"/>
@@ -15913,7 +15979,7 @@
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="11" t="s">
         <v>900</v>
       </c>
       <c r="B113" s="3"/>
@@ -15921,7 +15987,7 @@
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="11" t="s">
         <v>902</v>
       </c>
       <c r="B114" s="3"/>
@@ -15929,7 +15995,7 @@
       <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="11" t="s">
         <v>904</v>
       </c>
       <c r="B115" s="3"/>
@@ -15937,7 +16003,7 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="11" t="s">
         <v>906</v>
       </c>
       <c r="B116" s="3"/>
@@ -15945,7 +16011,7 @@
       <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="11" t="s">
         <v>908</v>
       </c>
       <c r="B117" s="3"/>
@@ -15953,7 +16019,7 @@
       <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="11" t="s">
         <v>910</v>
       </c>
       <c r="B118" s="3"/>
@@ -15961,7 +16027,7 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="11" t="s">
         <v>911</v>
       </c>
       <c r="B119" s="3"/>
@@ -15969,7 +16035,7 @@
       <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="11" t="s">
         <v>913</v>
       </c>
       <c r="B120" s="3"/>
@@ -15977,7 +16043,7 @@
       <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="11" t="s">
         <v>915</v>
       </c>
       <c r="B121" s="3"/>
@@ -15985,7 +16051,7 @@
       <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="11" t="s">
         <v>917</v>
       </c>
       <c r="B122" s="3"/>
@@ -15993,15 +16059,17 @@
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="B123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="11" t="s">
         <v>921</v>
       </c>
       <c r="B124" s="3"/>
@@ -16009,7 +16077,7 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="11" t="s">
         <v>923</v>
       </c>
       <c r="B125" s="3"/>
@@ -16017,10 +16085,12 @@
       <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="B126" s="3"/>
+      <c r="B126" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
@@ -16041,10 +16111,12 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="B129" s="3"/>
+      <c r="B129" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
@@ -16081,7 +16153,7 @@
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="11" t="s">
         <v>957</v>
       </c>
       <c r="B134" s="3"/>
@@ -16105,18 +16177,22 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="B138" s="3"/>
+      <c r="B138" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
@@ -16125,7 +16201,7 @@
         <v>971</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -16135,7 +16211,7 @@
         <v>973</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -16173,7 +16249,7 @@
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="11" t="s">
         <v>987</v>
       </c>
       <c r="B145" s="3"/>
@@ -16181,7 +16257,7 @@
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="11" t="s">
         <v>989</v>
       </c>
       <c r="B146" s="3"/>
@@ -16189,7 +16265,7 @@
       <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="11" t="s">
         <v>991</v>
       </c>
       <c r="B147" s="3"/>
@@ -16213,7 +16289,7 @@
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="11" t="s">
         <v>999</v>
       </c>
       <c r="B150" s="3"/>
@@ -16221,7 +16297,7 @@
       <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="11" t="s">
         <v>1001</v>
       </c>
       <c r="B151" s="3"/>
@@ -16229,7 +16305,7 @@
       <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="11" t="s">
         <v>1003</v>
       </c>
       <c r="B152" s="3"/>
@@ -16253,7 +16329,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="11" t="s">
         <v>1011</v>
       </c>
       <c r="B155" s="3"/>
@@ -16293,21 +16369,21 @@
       <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="7" t="s">
         <v>1025</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -16337,17 +16413,17 @@
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="14" t="s">
         <v>1039</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="14" t="s">
         <v>1041</v>
       </c>
       <c r="B166" s="3"/>
@@ -16355,7 +16431,7 @@
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="13" t="s">
         <v>1047</v>
       </c>
       <c r="B167" s="3"/>
@@ -16379,10 +16455,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16393,87 +16469,92 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1617</v>
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
@@ -16493,10 +16574,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="46.75" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="31" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="46.75" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -16511,7 +16592,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -16522,7 +16603,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>728</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -16533,7 +16614,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -16621,7 +16702,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>822</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16789,10 +16870,10 @@
       <c r="A27" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -16831,10 +16912,10 @@
       <c r="C1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -16896,7 +16977,7 @@
       <c r="C5" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -16913,7 +16994,7 @@
       <c r="C6" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -16930,7 +17011,7 @@
       <c r="C7" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>651</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -16947,7 +17028,7 @@
       <c r="C8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>655</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -16964,7 +17045,7 @@
       <c r="C9" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -16981,7 +17062,7 @@
       <c r="C10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>661</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -16998,7 +17079,7 @@
       <c r="C11" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>664</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -17015,7 +17096,7 @@
       <c r="C12" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>667</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -17032,7 +17113,7 @@
       <c r="C13" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>670</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -17049,7 +17130,7 @@
       <c r="C14" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>673</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -17080,7 +17161,7 @@
       <c r="C16" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>744</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -17097,7 +17178,7 @@
       <c r="C17" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -17114,7 +17195,7 @@
       <c r="C18" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17129,7 +17210,7 @@
       <c r="C19" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>971</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -17146,7 +17227,7 @@
       <c r="C20" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>967</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -17163,7 +17244,7 @@
       <c r="C21" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>973</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -17180,7 +17261,7 @@
       <c r="C22" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>1047</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -17197,7 +17278,7 @@
       <c r="C23" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>1049</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -17214,7 +17295,7 @@
       <c r="C24" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17229,7 +17310,7 @@
       <c r="C25" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>758</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -17246,7 +17327,7 @@
       <c r="C26" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>786</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -17263,7 +17344,7 @@
       <c r="C27" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>910</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -17280,7 +17361,7 @@
       <c r="C28" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>850</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -17297,7 +17378,7 @@
       <c r="C29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>771</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -17314,7 +17395,7 @@
       <c r="C30" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>949</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -17331,7 +17412,7 @@
       <c r="C31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>793</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -17348,7 +17429,7 @@
       <c r="C32" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -17365,7 +17446,7 @@
       <c r="C33" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>820</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -17387,7 +17468,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>744</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -17443,13 +17524,13 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>755</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -17457,7 +17538,7 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>756</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -17863,7 +17944,7 @@
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:5">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>824</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -18065,7 +18146,7 @@
       <c r="B83" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="16" t="s">
         <v>855</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -18247,7 +18328,7 @@
       <c r="B96" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="16" t="s">
         <v>881</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -18269,7 +18350,7 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:5">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>884</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -19118,13 +19199,13 @@
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:3">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="16" t="s">
         <v>1047</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="16" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -19135,7 +19216,7 @@
       <c r="B165" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="16" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -19160,622 +19241,622 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.75" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="58.75" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="15" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="15" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="15" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="15" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="15" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="15" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="15" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="15" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="15" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="15" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="15" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="15" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="15" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="15" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="15" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="15" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="15" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -19799,10 +19880,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="45.125" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="44.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="45.125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -20009,10 +20090,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="57" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="70.5" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="57" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="70.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -21953,1120 +22034,1120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="80.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="75.875" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="80.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="75.875" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1315</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>1319</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>1321</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>1323</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>1325</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>1327</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>1329</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>1331</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>1333</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>1335</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>1337</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>1339</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>1341</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>1343</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>1345</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>1347</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>1349</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>1351</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>1353</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>1355</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>1357</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>1359</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>1361</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>1363</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>1365</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>1367</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>1369</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>1371</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>1373</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>1375</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>1377</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>1379</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>1381</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>1383</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>1385</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>1387</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>1389</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>1391</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>1393</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>1395</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>1397</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>1399</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>1401</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>1403</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>1405</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>1407</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>1409</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>1411</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="51" s="16" customFormat="1" spans="1:2">
-      <c r="A51" s="16" t="s">
+    <row r="51" s="17" customFormat="1" spans="1:2">
+      <c r="A51" s="17" t="s">
         <v>1413</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>1415</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>1417</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>1419</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>1421</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>1423</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>1425</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="15" t="s">
         <v>1427</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="15" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>1429</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>1431</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>1435</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="15" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>1437</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="15" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>1439</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="15" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>1441</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="15" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>1443</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>1445</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>1447</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="15" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>1449</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="15" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>1451</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="15" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>1453</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>1455</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="15" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>1457</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>1459</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>1461</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="15" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>1463</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="15" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>1465</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="15" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>1467</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="15" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>1469</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="15" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>1471</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="15" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="81" s="16" customFormat="1" spans="1:2">
-      <c r="A81" s="16" t="s">
+    <row r="81" s="17" customFormat="1" spans="1:2">
+      <c r="A81" s="17" t="s">
         <v>1473</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="15" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>1475</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="15" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>1477</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="15" t="s">
         <v>1479</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="15" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>1481</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="15" t="s">
         <v>1483</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="15" t="s">
         <v>1485</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>1487</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>1489</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="15" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="15" t="s">
         <v>1491</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="15" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>1493</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>1495</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="15" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="15" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>1499</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="15" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>1501</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>1503</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="15" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>1505</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="98" s="16" customFormat="1" spans="1:2">
-      <c r="A98" s="16" t="s">
+    <row r="98" s="17" customFormat="1" spans="1:2">
+      <c r="A98" s="17" t="s">
         <v>1507</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="15" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="15" t="s">
         <v>1509</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="15" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="100" s="16" customFormat="1" spans="1:2">
-      <c r="A100" s="16" t="s">
+    <row r="100" s="17" customFormat="1" spans="1:2">
+      <c r="A100" s="17" t="s">
         <v>1511</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="15" t="s">
         <v>1513</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="15" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="102" s="16" customFormat="1" spans="1:2">
-      <c r="A102" s="16" t="s">
+    <row r="102" s="17" customFormat="1" spans="1:2">
+      <c r="A102" s="17" t="s">
         <v>1515</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="15" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="15" t="s">
         <v>1517</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="15" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>1519</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="15" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="105" s="16" customFormat="1" spans="1:2">
-      <c r="A105" s="16" t="s">
+    <row r="105" s="17" customFormat="1" spans="1:2">
+      <c r="A105" s="17" t="s">
         <v>1521</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="15" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="15" t="s">
         <v>1523</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="15" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="15" t="s">
         <v>1525</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="15" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="108" s="16" customFormat="1" spans="1:2">
-      <c r="A108" s="16" t="s">
+    <row r="108" s="17" customFormat="1" spans="1:2">
+      <c r="A108" s="17" t="s">
         <v>1527</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="15" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>1529</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="15" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="110" s="16" customFormat="1" spans="1:2">
-      <c r="A110" s="16" t="s">
+    <row r="110" s="17" customFormat="1" spans="1:2">
+      <c r="A110" s="17" t="s">
         <v>1531</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="15" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>1533</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="15" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="15" t="s">
         <v>1535</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="15" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>1537</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="15" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>1539</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="15" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>1541</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="15" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>1543</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="15" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>1545</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="15" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>1547</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="15" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>1549</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="15" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
         <v>1553</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="15" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="15" t="s">
         <v>1555</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="15" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>1557</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="15" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="15" t="s">
         <v>1559</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="15" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="15" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>1563</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="15" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="127" s="16" customFormat="1" spans="1:2">
-      <c r="A127" s="16" t="s">
+    <row r="127" s="17" customFormat="1" spans="1:2">
+      <c r="A127" s="17" t="s">
         <v>1565</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="15" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="15" t="s">
         <v>1567</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="15" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="15" t="s">
         <v>1569</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="15" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="15" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="15" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="15" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="15" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="15" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="15" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="15" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="15" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="15" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="15" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="15" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="15" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="15" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="15" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="15" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -23087,15 +23168,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="36.25" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -23106,7 +23187,7 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -23117,7 +23198,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23128,7 +23209,7 @@
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -24587,10 +24668,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="14" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="40.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="21600" windowHeight="10890" tabRatio="858" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -5012,10 +5012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5026,8 +5026,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5041,6 +5042,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5049,7 +5079,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5063,8 +5093,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5095,45 +5126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5155,16 +5148,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5245,61 +5245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5317,7 +5275,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5329,73 +5365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5407,7 +5389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5418,6 +5418,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5445,6 +5460,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5462,35 +5486,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5509,25 +5518,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5536,133 +5536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14906,8 +14906,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15417,7 +15417,7 @@
         <v>754</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D46" s="3"/>
@@ -15427,7 +15427,7 @@
         <v>756</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="11" t="s">
         <v>882</v>
       </c>
       <c r="D47" s="3"/>
@@ -15437,7 +15437,7 @@
         <v>758</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="11" t="s">
         <v>886</v>
       </c>
       <c r="D48" s="3"/>
@@ -15447,7 +15447,7 @@
         <v>759</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="11" t="s">
         <v>919</v>
       </c>
       <c r="D49" s="3"/>
@@ -15457,7 +15457,7 @@
         <v>761</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="11" t="s">
         <v>925</v>
       </c>
       <c r="D50" s="3"/>
@@ -15901,7 +15901,7 @@
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>884</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -15911,7 +15911,7 @@
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="11" t="s">
         <v>882</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -15921,7 +15921,7 @@
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="11" t="s">
         <v>886</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -16059,7 +16059,7 @@
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="11" t="s">
         <v>919</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -16085,7 +16085,7 @@
       <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="11" t="s">
         <v>925</v>
       </c>
       <c r="B126" s="3" t="s">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10890" tabRatio="858" activeTab="10"/>
+    <workbookView windowWidth="21600" windowHeight="10890" tabRatio="858" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="位标_掩码_枚举值" sheetId="5" r:id="rId8"/>
     <sheet name="其他" sheetId="7" r:id="rId9"/>
     <sheet name="All" sheetId="9" r:id="rId10"/>
-    <sheet name="完成度" sheetId="11" r:id="rId11"/>
-    <sheet name="规律" sheetId="12" r:id="rId12"/>
+    <sheet name="规律" sheetId="12" r:id="rId11"/>
+    <sheet name="完成度" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="1620">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4908,6 +4908,60 @@
     <t>VkBindBufferMemoryDeviceGroupInfo</t>
   </si>
   <si>
+    <t>代码书写规律</t>
+  </si>
+  <si>
+    <t>标识符对每个单词都以下划线相隔</t>
+  </si>
+  <si>
+    <t>类型名首字母大写</t>
+  </si>
+  <si>
+    <t>变量名全部小写</t>
+  </si>
+  <si>
+    <t>临时变量后面跟随 "_temp"</t>
+  </si>
+  <si>
+    <t>函数参数名后边跟随"_"</t>
+  </si>
+  <si>
+    <t>宏参数名后边跟随"__"</t>
+  </si>
+  <si>
+    <t>共享指针后边跟随"_sptr"</t>
+  </si>
+  <si>
+    <t>普通指针后边跟随"_ptr"</t>
+  </si>
+  <si>
+    <t>static变量后边跟随"_s"</t>
+  </si>
+  <si>
+    <t>全局变量后边跟随"_g"</t>
+  </si>
+  <si>
+    <t>const变量后边跟随"_c"</t>
+  </si>
+  <si>
+    <t>枚举类型前边加"E_"  目的是方便使用者依靠IDE的自动完成进行筛选.</t>
+  </si>
+  <si>
+    <t>使用规律</t>
+  </si>
+  <si>
+    <t>函数的参数中,如果要求放入vector的引用,那么vector中一定要有元素,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       如果是要去放入vector的指针,那么指针可以为空,但如果指针不为空,那么此vector里面就必须有元素.</t>
+  </si>
+  <si>
+    <t>依靠共享指针返回新建的对象 如果返回的指针是空的,则说明创建对象失败.</t>
+  </si>
+  <si>
+    <t>一个接口需要你放入shared_ptr,这种情况下是因为它需要这个来管理这个对象的生命周期.</t>
+  </si>
+  <si>
     <t>全局</t>
   </si>
   <si>
@@ -4944,67 +4998,10 @@
     <t>略麻烦</t>
   </si>
   <si>
-    <t>略麻烦 不明白正确用法</t>
-  </si>
-  <si>
     <t>不明白用法</t>
   </si>
   <si>
     <t>还需解决shared_module作为参数的问题</t>
-  </si>
-  <si>
-    <t>代码书写规律</t>
-  </si>
-  <si>
-    <t>标识符对每个单词都以下划线相隔</t>
-  </si>
-  <si>
-    <t>类型名首字母大写</t>
-  </si>
-  <si>
-    <t>变量名全部小写</t>
-  </si>
-  <si>
-    <t>临时变量后面跟随 "_temp"</t>
-  </si>
-  <si>
-    <t>函数参数名后边跟随"_"</t>
-  </si>
-  <si>
-    <t>宏参数名后边跟随"__"</t>
-  </si>
-  <si>
-    <t>共享指针后边跟随"_sptr"</t>
-  </si>
-  <si>
-    <t>普通指针后边跟随"_ptr"</t>
-  </si>
-  <si>
-    <t>static变量后边跟随"_s"</t>
-  </si>
-  <si>
-    <t>全局变量后边跟随"_g"</t>
-  </si>
-  <si>
-    <t>const变量后边跟随"_c"</t>
-  </si>
-  <si>
-    <t>枚举类型前边加"E_"  目的是方便使用者依靠IDE的自动完成进行筛选.</t>
-  </si>
-  <si>
-    <t>使用规律</t>
-  </si>
-  <si>
-    <t>函数的参数中,如果要求放入vector的引用,那么vector中一定要有元素,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       如果是要去放入vector的指针,那么指针可以为空,但如果指针不为空,那么此vector里面就必须有元素.</t>
-  </si>
-  <si>
-    <t>依靠共享指针返回新建的对象 如果返回的指针是空的,则说明创建对象失败.</t>
-  </si>
-  <si>
-    <t>一个接口需要你放入shared_ptr,这种情况下是因为它需要这个来管理这个对象的生命周期.</t>
   </si>
 </sst>
 </file>
@@ -5012,10 +5009,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5026,9 +5023,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5036,7 +5039,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5057,6 +5060,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -5071,6 +5082,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5078,6 +5090,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5093,19 +5106,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5120,13 +5124,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5148,14 +5145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -5163,8 +5152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5245,7 +5242,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5263,7 +5284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5275,19 +5308,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5305,19 +5368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5329,13 +5380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5347,67 +5392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5418,6 +5415,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5432,6 +5453,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5454,67 +5510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5524,10 +5521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5536,19 +5533,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5557,112 +5554,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6036,7 +6033,7 @@
   <sheetPr/>
   <dimension ref="A1:C590"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
+    <sheetView topLeftCell="A333" workbookViewId="0">
       <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
@@ -14904,1557 +14901,6 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D168"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="46.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="51.25" customWidth="1"/>
-    <col min="4" max="4" width="32.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>941</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="11" t="s">
-        <v>894</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="11" t="s">
-        <v>900</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="11" t="s">
-        <v>906</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="11" t="s">
-        <v>991</v>
-      </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="11" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="11" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="14" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16469,93 +14915,1642 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1620</v>
-      </c>
+        <v>1605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="46.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="51.25" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10890" tabRatio="858" activeTab="11"/>
+    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="1618">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4986,9 +4986,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>略麻烦...</t>
   </si>
   <si>
@@ -4996,9 +4993,6 @@
   </si>
   <si>
     <t>略麻烦</t>
-  </si>
-  <si>
-    <t>不明白用法</t>
   </si>
   <si>
     <t>还需解决shared_module作为参数的问题</t>
@@ -5009,10 +5003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5032,6 +5026,90 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5062,37 +5140,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5105,69 +5160,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5218,12 +5212,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5242,37 +5230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5290,7 +5266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5302,13 +5278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5320,7 +5290,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5332,25 +5314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5368,7 +5332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5380,13 +5350,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,13 +5392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5415,6 +5403,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5443,27 +5475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5482,49 +5503,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5533,137 +5521,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5692,24 +5680,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6170,7 +6155,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6181,7 +6166,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6192,7 +6177,7 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6203,7 +6188,7 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -9488,14 +9473,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="328" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A328" s="18" t="s">
+    <row r="328" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A328" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="B328" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="C328" s="17" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9576,14 +9561,14 @@
         <v>636</v>
       </c>
     </row>
-    <row r="337" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A337" s="19" t="s">
+    <row r="337" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A337" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="B337" s="18" t="s">
+      <c r="B337" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C337" s="18" t="s">
+      <c r="C337" s="17" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10126,14 +10111,14 @@
         <v>727</v>
       </c>
     </row>
-    <row r="388" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A388" s="19" t="s">
+    <row r="388" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A388" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="B388" s="18" t="s">
+      <c r="B388" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C388" s="18" t="s">
+      <c r="C388" s="17" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10226,7 +10211,7 @@
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="16" t="s">
+      <c r="A397" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -10247,14 +10232,14 @@
         <v>747</v>
       </c>
     </row>
-    <row r="400" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A400" s="19" t="s">
+    <row r="400" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A400" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="B400" s="18" t="s">
+      <c r="B400" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C400" s="18" t="s">
+      <c r="C400" s="17" t="s">
         <v>749</v>
       </c>
     </row>
@@ -10281,18 +10266,18 @@
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="16" t="s">
+      <c r="A403" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="C403" s="16" t="s">
+      <c r="B403" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C403" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="16" t="s">
+      <c r="A404" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -10336,18 +10321,18 @@
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="16"/>
-      <c r="B408" s="16"/>
-      <c r="C408" s="16"/>
-    </row>
-    <row r="409" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A409" s="18" t="s">
+      <c r="A408" s="15"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="15"/>
+    </row>
+    <row r="409" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A409" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="B409" s="18" t="s">
+      <c r="B409" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C409" s="18" t="s">
+      <c r="C409" s="17" t="s">
         <v>764</v>
       </c>
     </row>
@@ -10395,14 +10380,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="415" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A415" s="18" t="s">
+    <row r="415" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A415" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="B415" s="18" t="s">
+      <c r="B415" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C415" s="18" t="s">
+      <c r="C415" s="17" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10428,14 +10413,14 @@
         <v>777</v>
       </c>
     </row>
-    <row r="419" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A419" s="18" t="s">
+    <row r="419" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A419" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="B419" s="18" t="s">
+      <c r="B419" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C419" s="18" t="s">
+      <c r="C419" s="17" t="s">
         <v>779</v>
       </c>
     </row>
@@ -10538,14 +10523,14 @@
         <v>770</v>
       </c>
     </row>
-    <row r="430" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A430" s="18" t="s">
+    <row r="430" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A430" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="B430" s="18" t="s">
+      <c r="B430" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C430" s="18" t="s">
+      <c r="C430" s="17" t="s">
         <v>795</v>
       </c>
     </row>
@@ -10571,14 +10556,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="434" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A434" s="18" t="s">
+    <row r="434" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A434" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="B434" s="18" t="s">
+      <c r="B434" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C434" s="18" t="s">
+      <c r="C434" s="17" t="s">
         <v>801</v>
       </c>
     </row>
@@ -10604,14 +10589,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="438" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A438" s="18" t="s">
+    <row r="438" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A438" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="B438" s="18" t="s">
+      <c r="B438" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C438" s="18" t="s">
+      <c r="C438" s="17" t="s">
         <v>807</v>
       </c>
     </row>
@@ -10637,14 +10622,14 @@
         <v>811</v>
       </c>
     </row>
-    <row r="442" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A442" s="18" t="s">
+    <row r="442" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A442" s="17" t="s">
         <v>812</v>
       </c>
-      <c r="B442" s="18" t="s">
+      <c r="B442" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C442" s="18" t="s">
+      <c r="C442" s="17" t="s">
         <v>813</v>
       </c>
     </row>
@@ -10692,19 +10677,19 @@
         <v>821</v>
       </c>
     </row>
-    <row r="448" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A448" s="19" t="s">
+    <row r="448" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A448" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="B448" s="18" t="s">
+      <c r="B448" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C448" s="18" t="s">
+      <c r="C448" s="17" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="16" t="s">
+      <c r="A449" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -10875,7 +10860,7 @@
       <c r="B468" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C468" s="16" t="s">
+      <c r="C468" s="15" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10968,7 +10953,7 @@
       </c>
     </row>
     <row r="479" customHeight="1" spans="3:3">
-      <c r="C479" s="16"/>
+      <c r="C479" s="15"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
       <c r="A480" s="1" t="s">
@@ -11021,7 +11006,7 @@
       <c r="B485" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="16" t="s">
+      <c r="C485" s="15" t="s">
         <v>881</v>
       </c>
     </row>
@@ -11037,7 +11022,7 @@
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="16" t="s">
+      <c r="A487" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -11278,14 +11263,14 @@
         <v>926</v>
       </c>
     </row>
-    <row r="515" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A515" s="18" t="s">
+    <row r="515" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A515" s="17" t="s">
         <v>927</v>
       </c>
-      <c r="B515" s="18" t="s">
+      <c r="B515" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C515" s="18" t="s">
+      <c r="C515" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -11322,14 +11307,14 @@
         <v>934</v>
       </c>
     </row>
-    <row r="520" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A520" s="18" t="s">
+    <row r="520" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A520" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="B520" s="18" t="s">
+      <c r="B520" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C520" s="18" t="s">
+      <c r="C520" s="17" t="s">
         <v>936</v>
       </c>
     </row>
@@ -11366,14 +11351,14 @@
         <v>942</v>
       </c>
     </row>
-    <row r="525" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A525" s="18" t="s">
+    <row r="525" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A525" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="B525" s="18" t="s">
+      <c r="B525" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C525" s="18" t="s">
+      <c r="C525" s="17" t="s">
         <v>944</v>
       </c>
     </row>
@@ -11410,14 +11395,14 @@
         <v>950</v>
       </c>
     </row>
-    <row r="530" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A530" s="18" t="s">
+    <row r="530" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A530" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="B530" s="18" t="s">
+      <c r="B530" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C530" s="18" t="s">
+      <c r="C530" s="17" t="s">
         <v>952</v>
       </c>
     </row>
@@ -11454,14 +11439,14 @@
         <v>958</v>
       </c>
     </row>
-    <row r="535" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A535" s="18" t="s">
+    <row r="535" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A535" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="B535" s="18" t="s">
+      <c r="B535" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C535" s="18" t="s">
+      <c r="C535" s="17" t="s">
         <v>960</v>
       </c>
     </row>
@@ -11509,14 +11494,14 @@
         <v>968</v>
       </c>
     </row>
-    <row r="541" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A541" s="18" t="s">
+    <row r="541" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A541" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="B541" s="18" t="s">
+      <c r="B541" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C541" s="18" t="s">
+      <c r="C541" s="17" t="s">
         <v>970</v>
       </c>
     </row>
@@ -11542,14 +11527,14 @@
         <v>974</v>
       </c>
     </row>
-    <row r="545" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A545" s="18" t="s">
+    <row r="545" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A545" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="B545" s="18" t="s">
+      <c r="B545" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C545" s="18" t="s">
+      <c r="C545" s="17" t="s">
         <v>976</v>
       </c>
     </row>
@@ -11575,14 +11560,14 @@
         <v>980</v>
       </c>
     </row>
-    <row r="549" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A549" s="18" t="s">
+    <row r="549" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A549" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="B549" s="18" t="s">
+      <c r="B549" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C549" s="18" t="s">
+      <c r="C549" s="17" t="s">
         <v>982</v>
       </c>
     </row>
@@ -11641,14 +11626,14 @@
         <v>992</v>
       </c>
     </row>
-    <row r="556" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A556" s="18" t="s">
+    <row r="556" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A556" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="B556" s="18" t="s">
+      <c r="B556" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C556" s="18" t="s">
+      <c r="C556" s="17" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11707,14 +11692,14 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="563" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A563" s="18" t="s">
+    <row r="563" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A563" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="B563" s="18" t="s">
+      <c r="B563" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C563" s="18" t="s">
+      <c r="C563" s="17" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -11751,14 +11736,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="568" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A568" s="18" t="s">
+    <row r="568" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A568" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="B568" s="18" t="s">
+      <c r="B568" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C568" s="18" t="s">
+      <c r="C568" s="17" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -11784,14 +11769,14 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="572" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A572" s="18" t="s">
+    <row r="572" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A572" s="17" t="s">
         <v>1019</v>
       </c>
-      <c r="B572" s="18" t="s">
+      <c r="B572" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C572" s="18" t="s">
+      <c r="C572" s="17" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11839,14 +11824,14 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="578" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A578" s="18" t="s">
+    <row r="578" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A578" s="17" t="s">
         <v>1029</v>
       </c>
-      <c r="B578" s="18" t="s">
+      <c r="B578" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C578" s="18" t="s">
+      <c r="C578" s="17" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -11872,14 +11857,14 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="582" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A582" s="18" t="s">
+    <row r="582" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A582" s="17" t="s">
         <v>1035</v>
       </c>
-      <c r="B582" s="18" t="s">
+      <c r="B582" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="C582" s="18" t="s">
+      <c r="C582" s="17" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -11927,25 +11912,25 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="588" s="18" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A588" s="18" t="s">
+    <row r="588" s="17" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A588" s="17" t="s">
         <v>1045</v>
       </c>
-      <c r="B588" s="19" t="s">
+      <c r="B588" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C588" s="19" t="s">
+      <c r="C588" s="18" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="16" t="s">
+      <c r="A589" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C589" s="16" t="s">
+      <c r="C589" s="15" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11956,7 +11941,7 @@
       <c r="B590" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C590" s="16" t="s">
+      <c r="C590" s="15" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -11978,2917 +11963,2917 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="58.125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="14" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="14" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="14" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="14" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="14" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="14" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="14" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="14" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="14" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="14" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="14" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="14" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="14" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="14" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="14" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="14" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="14" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="14" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="14" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="14" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="14" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="14" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="14" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="14" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="14" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="14" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="14" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="14" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="14" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="14" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="14" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="14" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="14" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="14" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="14" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="14" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="14" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="14" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="14" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="14" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="14" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="14" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="14" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="14" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="14" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="14" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="14" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="14" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="15" t="s">
+      <c r="A193" s="14" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="14" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="14" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="14" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="14" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="14" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="14" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="14" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="14" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="14" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="14" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="15" t="s">
+      <c r="A204" s="14" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="14" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="14" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="15" t="s">
+      <c r="A207" s="14" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="14" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="14" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="14" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="14" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="14" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="14" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="14" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="14" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="14" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="14" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="15" t="s">
+      <c r="A219" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="14" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="14" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="14" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="14" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="14" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="14" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="14" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="14" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="14" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="14" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="14" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="15" t="s">
+      <c r="A233" s="14" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="14" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="14" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="15" t="s">
+      <c r="A236" s="14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="14" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="14" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="14" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="14" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="14" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="14" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="14" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="14" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="14" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="15" t="s">
+      <c r="A248" s="14" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="15" t="s">
+      <c r="A250" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="14" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="14" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="14" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="15" t="s">
+      <c r="A254" s="14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="14" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="14" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="14" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="15" t="s">
+      <c r="A264" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="14" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="14" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="14" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="14" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="14" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="15" t="s">
+      <c r="A270" s="14" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="15" t="s">
+      <c r="A272" s="14" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="14" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="15" t="s">
+      <c r="A274" s="14" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="15" t="s">
+      <c r="A275" s="14" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="15" t="s">
+      <c r="A276" s="14" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="15" t="s">
+      <c r="A277" s="14" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="14" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="14" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="15" t="s">
+      <c r="A280" s="14" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="15" t="s">
+      <c r="A281" s="14" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="14" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="14" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="14" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="14" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="15" t="s">
+      <c r="A286" s="14" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="14" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="14" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="14" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="14" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="14" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="15" t="s">
+      <c r="A293" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="14" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="15" t="s">
+      <c r="A295" s="14" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="15" t="s">
+      <c r="A296" s="14" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="15" t="s">
+      <c r="A297" s="14" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="15" t="s">
+      <c r="A298" s="14" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="14" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="15" t="s">
+      <c r="A300" s="14" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="14" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="15" t="s">
+      <c r="A302" s="14" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="14" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="14" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="15" t="s">
+      <c r="A305" s="14" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="14" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="15" t="s">
+      <c r="A307" s="14" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="15" t="s">
+      <c r="A308" s="14" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="14" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="15" t="s">
+      <c r="A311" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="14" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="14" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="14" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="14" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="15" t="s">
+      <c r="A317" s="14" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="14" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="15" t="s">
+      <c r="A319" s="14" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="14" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="15" t="s">
+      <c r="A321" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="15" t="s">
+      <c r="A322" s="14" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="15" t="s">
+      <c r="A323" s="14" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="15" t="s">
+      <c r="A324" s="14" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="15" t="s">
+      <c r="A325" s="14" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="15" t="s">
+      <c r="A326" s="14" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="15" t="s">
+      <c r="A327" s="14" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="14" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="15" t="s">
+      <c r="A329" s="14" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="14" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="15" t="s">
+      <c r="A331" s="14" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="15" t="s">
+      <c r="A333" s="14" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="15" t="s">
+      <c r="A334" s="14" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="15" t="s">
+      <c r="A335" s="14" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="15" t="s">
+      <c r="A336" s="14" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="15" t="s">
+      <c r="A337" s="14" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="15" t="s">
+      <c r="A338" s="14" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="15" t="s">
+      <c r="A339" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="15" t="s">
+      <c r="A340" s="14" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="15" t="s">
+      <c r="A341" s="14" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="15" t="s">
+      <c r="A342" s="14" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="15" t="s">
+      <c r="A343" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="14" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="15" t="s">
+      <c r="A345" s="14" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="15" t="s">
+      <c r="A346" s="14" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="15" t="s">
+      <c r="A347" s="14" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="15" t="s">
+      <c r="A349" s="14" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="15" t="s">
+      <c r="A350" s="14" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="15" t="s">
+      <c r="A351" s="14" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="15" t="s">
+      <c r="A352" s="14" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="15" t="s">
+      <c r="A353" s="14" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="15" t="s">
+      <c r="A354" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="15" t="s">
+      <c r="A355" s="14" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="15" t="s">
+      <c r="A356" s="14" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="15" t="s">
+      <c r="A357" s="14" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="15" t="s">
+      <c r="A358" s="14" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="15" t="s">
+      <c r="A359" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="15" t="s">
+      <c r="A360" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="15" t="s">
+      <c r="A361" s="14" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="15" t="s">
+      <c r="A362" s="14" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="15" t="s">
+      <c r="A363" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="15" t="s">
+      <c r="A364" s="14" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="15" t="s">
+      <c r="A365" s="14" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="15" t="s">
+      <c r="A366" s="14" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="15" t="s">
+      <c r="A367" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="15" t="s">
+      <c r="A368" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="14" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="15" t="s">
+      <c r="A370" s="14" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="15" t="s">
+      <c r="A371" s="14" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="15" t="s">
+      <c r="A372" s="14" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="15" t="s">
+      <c r="A373" s="14" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="15" t="s">
+      <c r="A374" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="15" t="s">
+      <c r="A375" s="14" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="15" t="s">
+      <c r="A376" s="14" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="15" t="s">
+      <c r="A377" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="15" t="s">
+      <c r="A378" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="15" t="s">
+      <c r="A379" s="14" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="15" t="s">
+      <c r="A380" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="15" t="s">
+      <c r="A381" s="14" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="15" t="s">
+      <c r="A382" s="14" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="15" t="s">
+      <c r="A383" s="14" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="15" t="s">
+      <c r="A384" s="14" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="15" t="s">
+      <c r="A385" s="14" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="15" t="s">
+      <c r="A386" s="14" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="15" t="s">
+      <c r="A387" s="14" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="15" t="s">
+      <c r="A388" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="15" t="s">
+      <c r="A389" s="14" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="15" t="s">
+      <c r="A390" s="14" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="15" t="s">
+      <c r="A391" s="14" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="15" t="s">
+      <c r="A392" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="15" t="s">
+      <c r="A393" s="14" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="15" t="s">
+      <c r="A394" s="14" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="15" t="s">
+      <c r="A395" s="14" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="15" t="s">
+      <c r="A396" s="14" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="15" t="s">
+      <c r="A397" s="14" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="15" t="s">
+      <c r="A398" s="14" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="15" t="s">
+      <c r="A399" s="14" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="15" t="s">
+      <c r="A400" s="14" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="15" t="s">
+      <c r="A401" s="14" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="15" t="s">
+      <c r="A403" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="15" t="s">
+      <c r="A404" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="15" t="s">
+      <c r="A405" s="14" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="15" t="s">
+      <c r="A406" s="14" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="15" t="s">
+      <c r="A407" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="15" t="s">
+      <c r="A408" s="14" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="15" t="s">
+      <c r="A409" s="14" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="15" t="s">
+      <c r="A410" s="14" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="15" t="s">
+      <c r="A411" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="15" t="s">
+      <c r="A412" s="14" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="15" t="s">
+      <c r="A413" s="14" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="15" t="s">
+      <c r="A414" s="14" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="15" t="s">
+      <c r="A415" s="14" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="15" t="s">
+      <c r="A416" s="14" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="15" t="s">
+      <c r="A417" s="14" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="15" t="s">
+      <c r="A418" s="14" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="15" t="s">
+      <c r="A419" s="14" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="15" t="s">
+      <c r="A420" s="14" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="15" t="s">
+      <c r="A421" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="15" t="s">
+      <c r="A422" s="14" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="15" t="s">
+      <c r="A423" s="14" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="15" t="s">
+      <c r="A424" s="14" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="15" t="s">
+      <c r="A425" s="14" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="15" t="s">
+      <c r="A426" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="15" t="s">
+      <c r="A427" s="14" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="15" t="s">
+      <c r="A428" s="14" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="15" t="s">
+      <c r="A429" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="15" t="s">
+      <c r="A430" s="14" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="15" t="s">
+      <c r="A431" s="14" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="15" t="s">
+      <c r="A432" s="14" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="15" t="s">
+      <c r="A433" s="14" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="15" t="s">
+      <c r="A434" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="15" t="s">
+      <c r="A435" s="14" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="15" t="s">
+      <c r="A436" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="15" t="s">
+      <c r="A437" s="14" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="15" t="s">
+      <c r="A438" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="15" t="s">
+      <c r="A439" s="14" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="15" t="s">
+      <c r="A440" s="14" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="15" t="s">
+      <c r="A441" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="15" t="s">
+      <c r="A442" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="15" t="s">
+      <c r="A443" s="14" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="15" t="s">
+      <c r="A444" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="15" t="s">
+      <c r="A445" s="14" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="15" t="s">
+      <c r="A446" s="14" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="15" t="s">
+      <c r="A447" s="14" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="15" t="s">
+      <c r="A448" s="14" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="15" t="s">
+      <c r="A449" s="14" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="15" t="s">
+      <c r="A450" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="15" t="s">
+      <c r="A451" s="14" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="15" t="s">
+      <c r="A452" s="14" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="15" t="s">
+      <c r="A453" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="15" t="s">
+      <c r="A454" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="15" t="s">
+      <c r="A455" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="15" t="s">
+      <c r="A456" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="15" t="s">
+      <c r="A457" s="14" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="15" t="s">
+      <c r="A458" s="14" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="15" t="s">
+      <c r="A459" s="14" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="15" t="s">
+      <c r="A460" s="14" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="15" t="s">
+      <c r="A461" s="14" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="15" t="s">
+      <c r="A462" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="15" t="s">
+      <c r="A463" s="14" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="15" t="s">
+      <c r="A464" s="14" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="15" t="s">
+      <c r="A465" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="15" t="s">
+      <c r="A466" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="15" t="s">
+      <c r="A467" s="14" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="15" t="s">
+      <c r="A468" s="14" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="15" t="s">
+      <c r="A469" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="15" t="s">
+      <c r="A470" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="15" t="s">
+      <c r="A471" s="14" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="15" t="s">
+      <c r="A472" s="14" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="15" t="s">
+      <c r="A473" s="14" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="15" t="s">
+      <c r="A474" s="14" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="15" t="s">
+      <c r="A475" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="15" t="s">
+      <c r="A476" s="14" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="15" t="s">
+      <c r="A477" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="15" t="s">
+      <c r="A478" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="15" t="s">
+      <c r="A479" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="15" t="s">
+      <c r="A480" s="14" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="15" t="s">
+      <c r="A481" s="14" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="15" t="s">
+      <c r="A482" s="14" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="15" t="s">
+      <c r="A483" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="15" t="s">
+      <c r="A484" s="14" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="15" t="s">
+      <c r="A485" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="15" t="s">
+      <c r="A486" s="14" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="15" t="s">
+      <c r="A487" s="14" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="15" t="s">
+      <c r="A488" s="14" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="15" t="s">
+      <c r="A489" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="15" t="s">
+      <c r="A490" s="14" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="15" t="s">
+      <c r="A491" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="15" t="s">
+      <c r="A492" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="15" t="s">
+      <c r="A493" s="14" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="15" t="s">
+      <c r="A494" s="14" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="15" t="s">
+      <c r="A495" s="14" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="15" t="s">
+      <c r="A496" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="15" t="s">
+      <c r="A497" s="14" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="15" t="s">
+      <c r="A498" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="15" t="s">
+      <c r="A499" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="15" t="s">
+      <c r="A500" s="14" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="15" t="s">
+      <c r="A501" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="15" t="s">
+      <c r="A502" s="14" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="15" t="s">
+      <c r="A503" s="14" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="15" t="s">
+      <c r="A504" s="14" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="15" t="s">
+      <c r="A505" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="15" t="s">
+      <c r="A506" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="15" t="s">
+      <c r="A507" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="15" t="s">
+      <c r="A508" s="14" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="15" t="s">
+      <c r="A509" s="14" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="15" t="s">
+      <c r="A510" s="14" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="15" t="s">
+      <c r="A511" s="14" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="15" t="s">
+      <c r="A512" s="14" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="15" t="s">
+      <c r="A513" s="14" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="15" t="s">
+      <c r="A514" s="14" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="15" t="s">
+      <c r="A515" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="15" t="s">
+      <c r="A516" s="14" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="15" t="s">
+      <c r="A517" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="15" t="s">
+      <c r="A518" s="14" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="15" t="s">
+      <c r="A519" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="15" t="s">
+      <c r="A520" s="14" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="15" t="s">
+      <c r="A521" s="14" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="15" t="s">
+      <c r="A522" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="15" t="s">
+      <c r="A523" s="14" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="15" t="s">
+      <c r="A524" s="14" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="15" t="s">
+      <c r="A525" s="14" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="15" t="s">
+      <c r="A526" s="14" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="15" t="s">
+      <c r="A527" s="14" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="15" t="s">
+      <c r="A528" s="14" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="15" t="s">
+      <c r="A529" s="14" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="15" t="s">
+      <c r="A530" s="14" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="15" t="s">
+      <c r="A531" s="14" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="15" t="s">
+      <c r="A532" s="14" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="15" t="s">
+      <c r="A533" s="14" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="15" t="s">
+      <c r="A534" s="14" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="15" t="s">
+      <c r="A535" s="14" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="15" t="s">
+      <c r="A536" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="15" t="s">
+      <c r="A537" s="14" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="15" t="s">
+      <c r="A538" s="14" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="15" t="s">
+      <c r="A539" s="14" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="15" t="s">
+      <c r="A540" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="15" t="s">
+      <c r="A541" s="14" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="15" t="s">
+      <c r="A542" s="14" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="15" t="s">
+      <c r="A543" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="15" t="s">
+      <c r="A544" s="14" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="15" t="s">
+      <c r="A545" s="14" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="15" t="s">
+      <c r="A546" s="14" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="15" t="s">
+      <c r="A547" s="14" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="15" t="s">
+      <c r="A548" s="14" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="15" t="s">
+      <c r="A549" s="14" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="15" t="s">
+      <c r="A550" s="14" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="15" t="s">
+      <c r="A551" s="14" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="15" t="s">
+      <c r="A552" s="14" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="15" t="s">
+      <c r="A553" s="14" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="15" t="s">
+      <c r="A554" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="15" t="s">
+      <c r="A555" s="14" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="15" t="s">
+      <c r="A556" s="14" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="15" t="s">
+      <c r="A557" s="14" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="15" t="s">
+      <c r="A558" s="14" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="15" t="s">
+      <c r="A559" s="14" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="15" t="s">
+      <c r="A560" s="14" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="15" t="s">
+      <c r="A561" s="14" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="15" t="s">
+      <c r="A562" s="14" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="15" t="s">
+      <c r="A563" s="14" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="15" t="s">
+      <c r="A564" s="14" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="15" t="s">
+      <c r="A565" s="14" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="15" t="s">
+      <c r="A566" s="14" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="15" t="s">
+      <c r="A567" s="14" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="15" t="s">
+      <c r="A568" s="14" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="15" t="s">
+      <c r="A569" s="14" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="15" t="s">
+      <c r="A570" s="14" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="15" t="s">
+      <c r="A571" s="14" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="15" t="s">
+      <c r="A572" s="14" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="15" t="s">
+      <c r="A573" s="14" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="15" t="s">
+      <c r="A574" s="14" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="15" t="s">
+      <c r="A575" s="14" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="15" t="s">
+      <c r="A576" s="14" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="15" t="s">
+      <c r="A577" s="14" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="15" t="s">
+      <c r="A578" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="15" t="s">
+      <c r="A579" s="14" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="15" t="s">
+      <c r="A580" s="14" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="15" t="s">
+      <c r="A581" s="14" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="15" t="s">
+      <c r="A582" s="14" t="s">
         <v>991</v>
       </c>
     </row>
@@ -15012,10 +14997,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="$A36:$XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15417,212 +15402,213 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
+      <c r="A36" s="11" t="s">
+        <v>737</v>
+      </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7" t="s">
-        <v>937</v>
+      <c r="C38" s="11" t="s">
+        <v>939</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>937</v>
+      <c r="A39" s="11" t="s">
+        <v>939</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>939</v>
+        <v>1614</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>830</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>830</v>
+      <c r="A40" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="11" t="s">
+        <v>838</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
-        <v>941</v>
+        <v>742</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="12" t="s">
-        <v>838</v>
+      <c r="C41" s="11" t="s">
+        <v>864</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>746</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1613</v>
+      </c>
       <c r="C42" s="11" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
-        <v>746</v>
+      <c r="A43" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1616</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="11" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>752</v>
+      <c r="A45" s="8" t="s">
+        <v>754</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="11" t="s">
-        <v>870</v>
+      <c r="C45" s="8" t="s">
+        <v>884</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
-        <v>754</v>
+      <c r="A46" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="8" t="s">
-        <v>884</v>
+      <c r="C46" s="11" t="s">
+        <v>882</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="13" t="s">
-        <v>756</v>
+      <c r="A47" s="5" t="s">
+        <v>758</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="11" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>758</v>
+      <c r="A48" s="11" t="s">
+        <v>759</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="11" t="s">
-        <v>886</v>
+        <v>919</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="11" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
-        <v>761</v>
+      <c r="A50" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="11" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="11" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>767</v>
+      <c r="A52" s="11" t="s">
+        <v>769</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="7" t="s">
-        <v>965</v>
+      <c r="C52" s="11" t="s">
+        <v>967</v>
       </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
-        <v>769</v>
+      <c r="A53" s="5" t="s">
+        <v>771</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="7" t="s">
-        <v>967</v>
+      <c r="C53" s="11" t="s">
+        <v>1025</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>771</v>
+      <c r="A54" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="11" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="7" t="s">
-        <v>1027</v>
-      </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -15630,7 +15616,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -15638,7 +15624,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -15646,47 +15632,47 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>798</v>
+      <c r="A60" s="11" t="s">
+        <v>784</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="11" t="s">
-        <v>784</v>
+      <c r="A61" s="5" t="s">
+        <v>786</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
-        <v>786</v>
+      <c r="A62" s="11" t="s">
+        <v>787</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="11" t="s">
-        <v>787</v>
+      <c r="A63" s="5" t="s">
+        <v>789</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
-        <v>789</v>
+      <c r="A64" s="11" t="s">
+        <v>790</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -15694,23 +15680,23 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11" t="s">
-        <v>792</v>
+      <c r="A66" s="5" t="s">
+        <v>793</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>793</v>
+      <c r="A67" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -15718,7 +15704,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -15726,7 +15712,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -15734,7 +15720,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -15742,7 +15728,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -15750,15 +15736,15 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>816</v>
+      <c r="A73" s="11" t="s">
+        <v>818</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -15766,31 +15752,31 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11" t="s">
-        <v>820</v>
+      <c r="A75" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="13" t="s">
-        <v>824</v>
+      <c r="A76" s="2" t="s">
+        <v>826</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>826</v>
+      <c r="A77" s="11" t="s">
+        <v>828</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -15798,25 +15784,25 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="B78" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>1617</v>
-      </c>
+      <c r="A79" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -15824,25 +15810,25 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>1617</v>
-      </c>
+      <c r="A82" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="11" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -15850,7 +15836,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="11" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -15858,7 +15844,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="11" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -15866,7 +15852,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="11" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -15874,7 +15860,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -15882,7 +15868,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="11" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -15890,7 +15876,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="11" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -15898,7 +15884,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="11" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -15906,7 +15892,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="11" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -15914,7 +15900,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="11" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -15922,7 +15908,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="11" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -15930,7 +15916,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="11" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -15938,7 +15924,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="11" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -15946,7 +15932,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="11" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -15954,7 +15940,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="11" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -15962,7 +15948,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="11" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -15970,7 +15956,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="11" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -15978,7 +15964,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -15986,7 +15972,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="11" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -15994,53 +15980,53 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="11" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="B103" s="3"/>
+      <c r="A103" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="8" t="s">
-        <v>884</v>
+      <c r="A104" s="11" t="s">
+        <v>882</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="11" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1617</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="11" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -16048,7 +16034,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="11" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -16056,7 +16042,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="11" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -16064,7 +16050,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="11" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -16072,7 +16058,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="11" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -16080,7 +16066,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="11" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -16088,7 +16074,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="11" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -16096,7 +16082,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="11" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -16104,7 +16090,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -16112,7 +16098,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="11" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -16120,7 +16106,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="11" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -16128,7 +16114,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -16136,7 +16122,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -16144,7 +16130,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="11" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -16152,7 +16138,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="11" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -16160,25 +16146,25 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B122" s="3"/>
+        <v>919</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>1617</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="11" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -16186,51 +16172,51 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="B125" s="3"/>
+        <v>925</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>1617</v>
-      </c>
+      <c r="A126" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B128" s="3"/>
+      <c r="A128" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="11" t="s">
-        <v>933</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>1617</v>
-      </c>
+      <c r="A129" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -16238,7 +16224,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -16246,23 +16232,23 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="2" t="s">
-        <v>955</v>
+      <c r="A133" s="11" t="s">
+        <v>957</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="11" t="s">
-        <v>957</v>
+      <c r="A134" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -16270,43 +16256,45 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B136" s="3"/>
+      <c r="A136" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1616</v>
+      </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="7" t="s">
-        <v>965</v>
+      <c r="A137" s="11" t="s">
+        <v>967</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="7" t="s">
-        <v>967</v>
+      <c r="A138" s="2" t="s">
+        <v>971</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1609</v>
@@ -16316,17 +16304,15 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>1609</v>
-      </c>
+        <v>977</v>
+      </c>
+      <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -16334,7 +16320,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -16342,15 +16328,15 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="2" t="s">
-        <v>985</v>
+      <c r="A144" s="11" t="s">
+        <v>987</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -16358,7 +16344,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -16366,15 +16352,15 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="11" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="11" t="s">
-        <v>991</v>
+      <c r="A147" s="2" t="s">
+        <v>995</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -16382,15 +16368,15 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2" t="s">
-        <v>997</v>
+      <c r="A149" s="11" t="s">
+        <v>999</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -16398,7 +16384,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="11" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -16406,15 +16392,15 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="11" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="11" t="s">
-        <v>1003</v>
+      <c r="A152" s="2" t="s">
+        <v>1007</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -16422,23 +16408,23 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="2" t="s">
-        <v>1009</v>
+      <c r="A154" s="11" t="s">
+        <v>1011</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="11" t="s">
-        <v>1011</v>
+      <c r="A155" s="2" t="s">
+        <v>1015</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -16446,7 +16432,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -16454,7 +16440,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -16462,15 +16448,15 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>1023</v>
+      <c r="A159" s="11" t="s">
+        <v>1025</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16478,25 +16464,23 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1618</v>
-      </c>
+      <c r="A161" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -16504,53 +16488,45 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B164" s="3"/>
+      <c r="A164" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1617</v>
+      </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="14" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>1619</v>
-      </c>
+      <c r="A165" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="14" t="s">
-        <v>1041</v>
+      <c r="A166" s="12" t="s">
+        <v>1047</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="13" t="s">
-        <v>1047</v>
+      <c r="A167" s="2" t="s">
+        <v>1049</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16569,10 +16545,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="46.75" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="31" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="46.75" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -16587,7 +16563,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -16598,7 +16574,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>728</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -16609,7 +16585,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -16697,7 +16673,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>822</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16865,10 +16841,10 @@
       <c r="A27" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -16907,10 +16883,10 @@
       <c r="C1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -16972,7 +16948,7 @@
       <c r="C5" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -16989,7 +16965,7 @@
       <c r="C6" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -17006,7 +16982,7 @@
       <c r="C7" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>651</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -17023,7 +16999,7 @@
       <c r="C8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>655</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -17040,7 +17016,7 @@
       <c r="C9" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -17057,7 +17033,7 @@
       <c r="C10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>661</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -17074,7 +17050,7 @@
       <c r="C11" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>664</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -17091,7 +17067,7 @@
       <c r="C12" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>667</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -17108,7 +17084,7 @@
       <c r="C13" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>670</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -17125,7 +17101,7 @@
       <c r="C14" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>673</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -17156,7 +17132,7 @@
       <c r="C16" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>744</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -17173,7 +17149,7 @@
       <c r="C17" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -17190,7 +17166,7 @@
       <c r="C18" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17205,7 +17181,7 @@
       <c r="C19" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>971</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -17222,7 +17198,7 @@
       <c r="C20" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>967</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -17239,7 +17215,7 @@
       <c r="C21" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>973</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -17256,7 +17232,7 @@
       <c r="C22" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -17273,7 +17249,7 @@
       <c r="C23" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>1049</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -17290,7 +17266,7 @@
       <c r="C24" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17305,7 +17281,7 @@
       <c r="C25" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>758</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -17322,7 +17298,7 @@
       <c r="C26" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>786</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -17339,7 +17315,7 @@
       <c r="C27" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>910</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -17356,7 +17332,7 @@
       <c r="C28" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>850</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -17373,7 +17349,7 @@
       <c r="C29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>771</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -17390,7 +17366,7 @@
       <c r="C30" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>949</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -17407,7 +17383,7 @@
       <c r="C31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>793</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -17424,7 +17400,7 @@
       <c r="C32" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -17441,7 +17417,7 @@
       <c r="C33" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>820</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -17463,7 +17439,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -17519,13 +17495,13 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>755</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -17533,7 +17509,7 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -17939,7 +17915,7 @@
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:5">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -18141,7 +18117,7 @@
       <c r="B83" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>855</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -18323,7 +18299,7 @@
       <c r="B96" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>881</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -18345,7 +18321,7 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:5">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -19194,13 +19170,13 @@
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:3">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="15" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -19211,7 +19187,7 @@
       <c r="B165" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="15" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -19236,622 +19212,622 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.75" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="58.75" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="14" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -19875,10 +19851,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="45.125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="44.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="45.125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -20085,10 +20061,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="57" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="70.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="57" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="70.5" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -22029,1120 +22005,1120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="80.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="75.875" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="80.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="75.875" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1315</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>1321</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>1323</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1325</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>1327</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>1335</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>1341</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>1343</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>1345</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>1347</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>1349</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>1351</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>1353</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>1357</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>1359</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>1361</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>1363</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>1365</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>1367</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>1369</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>1371</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>1373</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>1375</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>1377</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>1379</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>1383</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>1391</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>1395</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>1397</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>1411</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="51" s="17" customFormat="1" spans="1:2">
-      <c r="A51" s="17" t="s">
+    <row r="51" s="16" customFormat="1" spans="1:2">
+      <c r="A51" s="16" t="s">
         <v>1413</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>1421</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>1423</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>1429</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>1433</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>1435</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>1437</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>1445</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>1451</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>1453</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>1455</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>1457</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>1459</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>1465</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>1469</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="81" s="17" customFormat="1" spans="1:2">
-      <c r="A81" s="17" t="s">
+    <row r="81" s="16" customFormat="1" spans="1:2">
+      <c r="A81" s="16" t="s">
         <v>1473</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>1481</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>1489</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>1491</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>1497</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>1499</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="98" s="17" customFormat="1" spans="1:2">
-      <c r="A98" s="17" t="s">
+    <row r="98" s="16" customFormat="1" spans="1:2">
+      <c r="A98" s="16" t="s">
         <v>1507</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>1509</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="100" s="17" customFormat="1" spans="1:2">
-      <c r="A100" s="17" t="s">
+    <row r="100" s="16" customFormat="1" spans="1:2">
+      <c r="A100" s="16" t="s">
         <v>1511</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="102" s="17" customFormat="1" spans="1:2">
-      <c r="A102" s="17" t="s">
+    <row r="102" s="16" customFormat="1" spans="1:2">
+      <c r="A102" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="105" s="17" customFormat="1" spans="1:2">
-      <c r="A105" s="17" t="s">
+    <row r="105" s="16" customFormat="1" spans="1:2">
+      <c r="A105" s="16" t="s">
         <v>1521</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>1523</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>1525</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="108" s="17" customFormat="1" spans="1:2">
-      <c r="A108" s="17" t="s">
+    <row r="108" s="16" customFormat="1" spans="1:2">
+      <c r="A108" s="16" t="s">
         <v>1527</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>1529</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="110" s="17" customFormat="1" spans="1:2">
-      <c r="A110" s="17" t="s">
+    <row r="110" s="16" customFormat="1" spans="1:2">
+      <c r="A110" s="16" t="s">
         <v>1531</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="14" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>1535</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="14" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>1539</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>1541</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="14" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>1545</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>1547</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>1549</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>1551</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>1555</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="14" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="14" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>1561</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>1563</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="127" s="17" customFormat="1" spans="1:2">
-      <c r="A127" s="17" t="s">
+    <row r="127" s="16" customFormat="1" spans="1:2">
+      <c r="A127" s="16" t="s">
         <v>1565</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>1567</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>1569</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="14" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="14" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="14" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="14" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="14" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="14" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="14" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="14" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="14" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -23163,15 +23139,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="36.25" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -23182,7 +23158,7 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -23193,7 +23169,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23204,7 +23180,7 @@
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -24663,10 +24639,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="40.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="11"/>
+    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="All" sheetId="9" r:id="rId10"/>
     <sheet name="规律" sheetId="12" r:id="rId11"/>
     <sheet name="完成度" sheetId="11" r:id="rId12"/>
+    <sheet name="问题" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="1621">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4997,16 +4998,25 @@
   <si>
     <t>还需解决shared_module作为参数的问题</t>
   </si>
+  <si>
+    <t>目前默认为nullptr 作为子对象VkAllocationCallbacks,如果此项为nullptr,则会自动找父对象的VkAllocationCallbacks. 当用户想要子对象为nullptr时,它却去找父对象的VkAllocationCallbacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::shared_ptr 和 引用 在运算符重载中的问题: operator&lt;&lt;(obj) 会返回自身以供下一次调用  </t>
+  </si>
+  <si>
+    <t>要做到对结构体输出详情</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5031,9 +5041,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5047,8 +5064,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5063,6 +5095,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5085,28 +5140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -5117,22 +5150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5147,17 +5165,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5230,7 +5240,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5242,157 +5402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5406,12 +5416,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5443,24 +5481,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5469,7 +5494,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5488,31 +5513,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5521,133 +5531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14889,7 +14899,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A30" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14999,8 +15009,8 @@
   <sheetPr/>
   <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="$A36:$XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -16527,6 +16537,41 @@
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="154.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1620</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22965" windowHeight="10545" tabRatio="858" activeTab="12"/>
+    <workbookView windowWidth="21600" windowHeight="10485" tabRatio="858" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="1634">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -4963,6 +4963,9 @@
     <t>一个接口需要你放入shared_ptr,这种情况下是因为它需要这个来管理这个对象的生命周期.</t>
   </si>
   <si>
+    <t>如果一个Array_value作为参数 没有默认为{} 则不应为空.(Array_value是个数组型元素的模板 保存连续内存首元素的原始指针 作为参数的作用是减少函数重载</t>
+  </si>
+  <si>
     <t>全局</t>
   </si>
   <si>
@@ -5049,45 +5052,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5101,7 +5074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5115,30 +5088,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5152,11 +5102,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5176,6 +5125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -5184,10 +5141,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5199,9 +5165,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5282,7 +5285,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5294,13 +5357,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5318,73 +5435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5396,55 +5447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5455,39 +5458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5532,11 +5502,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5555,16 +5543,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5573,133 +5576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5736,13 +5739,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6208,7 +6211,7 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6219,7 +6222,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6230,7 +6233,7 @@
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -6241,7 +6244,7 @@
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -10264,7 +10267,7 @@
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="16" t="s">
+      <c r="A397" s="14" t="s">
         <v>744</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -10319,18 +10322,18 @@
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="16" t="s">
+      <c r="A403" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="C403" s="16" t="s">
+      <c r="B403" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C403" s="14" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="16" t="s">
+      <c r="A404" s="14" t="s">
         <v>756</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -10374,9 +10377,9 @@
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="16"/>
-      <c r="B408" s="16"/>
-      <c r="C408" s="16"/>
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
     </row>
     <row r="409" s="18" customFormat="1" customHeight="1" spans="1:3">
       <c r="A409" s="18" t="s">
@@ -10742,7 +10745,7 @@
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="16" t="s">
+      <c r="A449" s="14" t="s">
         <v>824</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -10913,7 +10916,7 @@
       <c r="B468" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C468" s="16" t="s">
+      <c r="C468" s="14" t="s">
         <v>855</v>
       </c>
     </row>
@@ -11006,7 +11009,7 @@
       </c>
     </row>
     <row r="479" customHeight="1" spans="3:3">
-      <c r="C479" s="16"/>
+      <c r="C479" s="14"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
       <c r="A480" s="2" t="s">
@@ -11059,7 +11062,7 @@
       <c r="B485" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="16" t="s">
+      <c r="C485" s="14" t="s">
         <v>881</v>
       </c>
     </row>
@@ -11075,7 +11078,7 @@
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="16" t="s">
+      <c r="A487" s="14" t="s">
         <v>884</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -11977,13 +11980,13 @@
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="16" t="s">
+      <c r="A589" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C589" s="16" t="s">
+      <c r="C589" s="14" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11994,7 +11997,7 @@
       <c r="B590" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C590" s="16" t="s">
+      <c r="C590" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -12016,2917 +12019,2917 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="58.125" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="16" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="16" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="16" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="16" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="16" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="16" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="16" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="16" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="16" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="16" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="16" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="16" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="16" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="16" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="16" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="16" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="16" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="16" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="16" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="16" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="16" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="16" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="16" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="16" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="16" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="16" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="16" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="16" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="16" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="16" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="16" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="16" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="16" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="16" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="16" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="16" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="16" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="16" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="16" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="16" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="16" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="16" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="16" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="16" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="16" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="16" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="16" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="16" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="16" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="16" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="16" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="16" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="16" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="16" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="16" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="16" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="16" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="16" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="16" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="16" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="16" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="16" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="16" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="16" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="16" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="16" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="16" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="16" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="15" t="s">
+      <c r="A193" s="16" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="16" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="16" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="16" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="16" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="16" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="16" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="16" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="16" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="16" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="16" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="15" t="s">
+      <c r="A204" s="16" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="16" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="16" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="15" t="s">
+      <c r="A207" s="16" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="16" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="16" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="16" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="16" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="16" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="16" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="16" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="16" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="16" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="16" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="15" t="s">
+      <c r="A219" s="16" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="16" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="16" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="16" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="16" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="16" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="16" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="16" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="16" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="16" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="16" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="16" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="16" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="16" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="15" t="s">
+      <c r="A233" s="16" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="16" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="16" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="15" t="s">
+      <c r="A236" s="16" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="16" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="16" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="16" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="16" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="16" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="16" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="16" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="16" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="15" t="s">
+      <c r="A248" s="16" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="16" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="15" t="s">
+      <c r="A250" s="16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="16" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="16" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="16" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="15" t="s">
+      <c r="A254" s="16" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="16" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="16" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="16" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="16" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="16" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="16" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="16" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="16" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="16" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="15" t="s">
+      <c r="A264" s="16" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="16" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="16" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="16" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="16" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="15" t="s">
+      <c r="A270" s="16" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="16" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="15" t="s">
+      <c r="A272" s="16" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="16" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="15" t="s">
+      <c r="A274" s="16" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="15" t="s">
+      <c r="A275" s="16" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="15" t="s">
+      <c r="A276" s="16" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="15" t="s">
+      <c r="A277" s="16" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="16" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="16" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="15" t="s">
+      <c r="A280" s="16" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="15" t="s">
+      <c r="A281" s="16" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="16" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="16" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="16" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="16" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="15" t="s">
+      <c r="A286" s="16" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="16" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="16" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="16" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="16" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="16" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="16" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="15" t="s">
+      <c r="A293" s="16" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="16" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="15" t="s">
+      <c r="A295" s="16" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="15" t="s">
+      <c r="A296" s="16" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="15" t="s">
+      <c r="A297" s="16" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="15" t="s">
+      <c r="A298" s="16" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="16" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="15" t="s">
+      <c r="A300" s="16" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="16" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="15" t="s">
+      <c r="A302" s="16" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="16" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="16" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="15" t="s">
+      <c r="A305" s="16" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="16" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="15" t="s">
+      <c r="A307" s="16" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="15" t="s">
+      <c r="A308" s="16" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="16" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="16" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="15" t="s">
+      <c r="A311" s="16" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="16" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="16" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="16" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="16" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="16" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="15" t="s">
+      <c r="A317" s="16" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="16" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="15" t="s">
+      <c r="A319" s="16" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="16" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="15" t="s">
+      <c r="A321" s="16" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="15" t="s">
+      <c r="A322" s="16" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="15" t="s">
+      <c r="A323" s="16" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="15" t="s">
+      <c r="A324" s="16" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="15" t="s">
+      <c r="A325" s="16" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="15" t="s">
+      <c r="A326" s="16" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="15" t="s">
+      <c r="A327" s="16" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="16" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="15" t="s">
+      <c r="A329" s="16" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="16" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="15" t="s">
+      <c r="A331" s="16" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="16" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="15" t="s">
+      <c r="A333" s="16" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="15" t="s">
+      <c r="A334" s="16" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="15" t="s">
+      <c r="A335" s="16" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="15" t="s">
+      <c r="A336" s="16" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="15" t="s">
+      <c r="A337" s="16" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="15" t="s">
+      <c r="A338" s="16" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="15" t="s">
+      <c r="A339" s="16" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="15" t="s">
+      <c r="A340" s="16" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="15" t="s">
+      <c r="A341" s="16" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="15" t="s">
+      <c r="A342" s="16" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="15" t="s">
+      <c r="A343" s="16" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="16" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="15" t="s">
+      <c r="A345" s="16" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="15" t="s">
+      <c r="A346" s="16" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="15" t="s">
+      <c r="A347" s="16" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="16" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="15" t="s">
+      <c r="A349" s="16" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="15" t="s">
+      <c r="A350" s="16" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="15" t="s">
+      <c r="A351" s="16" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="15" t="s">
+      <c r="A352" s="16" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="15" t="s">
+      <c r="A353" s="16" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="15" t="s">
+      <c r="A354" s="16" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="15" t="s">
+      <c r="A355" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="15" t="s">
+      <c r="A356" s="16" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="15" t="s">
+      <c r="A357" s="16" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="15" t="s">
+      <c r="A358" s="16" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="15" t="s">
+      <c r="A359" s="16" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="15" t="s">
+      <c r="A360" s="16" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="15" t="s">
+      <c r="A361" s="16" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="15" t="s">
+      <c r="A362" s="16" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="15" t="s">
+      <c r="A363" s="16" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="15" t="s">
+      <c r="A364" s="16" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="15" t="s">
+      <c r="A365" s="16" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="15" t="s">
+      <c r="A366" s="16" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="15" t="s">
+      <c r="A367" s="16" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="15" t="s">
+      <c r="A368" s="16" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="16" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="15" t="s">
+      <c r="A370" s="16" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="15" t="s">
+      <c r="A371" s="16" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="15" t="s">
+      <c r="A372" s="16" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="15" t="s">
+      <c r="A373" s="16" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="15" t="s">
+      <c r="A374" s="16" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="15" t="s">
+      <c r="A375" s="16" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="15" t="s">
+      <c r="A376" s="16" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="15" t="s">
+      <c r="A377" s="16" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="15" t="s">
+      <c r="A378" s="16" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="15" t="s">
+      <c r="A379" s="16" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="15" t="s">
+      <c r="A380" s="16" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="15" t="s">
+      <c r="A381" s="16" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="15" t="s">
+      <c r="A382" s="16" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="15" t="s">
+      <c r="A383" s="16" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="15" t="s">
+      <c r="A384" s="16" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="15" t="s">
+      <c r="A385" s="16" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="15" t="s">
+      <c r="A386" s="16" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="15" t="s">
+      <c r="A387" s="16" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="15" t="s">
+      <c r="A388" s="16" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="15" t="s">
+      <c r="A389" s="16" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="15" t="s">
+      <c r="A390" s="16" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="15" t="s">
+      <c r="A391" s="16" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="15" t="s">
+      <c r="A392" s="16" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="15" t="s">
+      <c r="A393" s="16" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="15" t="s">
+      <c r="A394" s="16" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="15" t="s">
+      <c r="A395" s="16" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="15" t="s">
+      <c r="A396" s="16" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="15" t="s">
+      <c r="A397" s="16" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="15" t="s">
+      <c r="A398" s="16" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="15" t="s">
+      <c r="A399" s="16" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="15" t="s">
+      <c r="A400" s="16" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="15" t="s">
+      <c r="A401" s="16" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="16" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="15" t="s">
+      <c r="A403" s="16" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="15" t="s">
+      <c r="A404" s="16" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="15" t="s">
+      <c r="A405" s="16" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="15" t="s">
+      <c r="A406" s="16" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="15" t="s">
+      <c r="A407" s="16" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="15" t="s">
+      <c r="A408" s="16" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="15" t="s">
+      <c r="A409" s="16" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="15" t="s">
+      <c r="A410" s="16" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="15" t="s">
+      <c r="A411" s="16" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="15" t="s">
+      <c r="A412" s="16" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="15" t="s">
+      <c r="A413" s="16" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="15" t="s">
+      <c r="A414" s="16" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="15" t="s">
+      <c r="A415" s="16" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="15" t="s">
+      <c r="A416" s="16" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="15" t="s">
+      <c r="A417" s="16" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="15" t="s">
+      <c r="A418" s="16" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="15" t="s">
+      <c r="A419" s="16" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="15" t="s">
+      <c r="A420" s="16" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="15" t="s">
+      <c r="A421" s="16" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="15" t="s">
+      <c r="A422" s="16" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="15" t="s">
+      <c r="A423" s="16" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="15" t="s">
+      <c r="A424" s="16" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="15" t="s">
+      <c r="A425" s="16" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="15" t="s">
+      <c r="A426" s="16" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="15" t="s">
+      <c r="A427" s="16" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="15" t="s">
+      <c r="A428" s="16" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="15" t="s">
+      <c r="A429" s="16" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="15" t="s">
+      <c r="A430" s="16" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="15" t="s">
+      <c r="A431" s="16" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="15" t="s">
+      <c r="A432" s="16" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="15" t="s">
+      <c r="A433" s="16" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="15" t="s">
+      <c r="A434" s="16" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="15" t="s">
+      <c r="A435" s="16" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="15" t="s">
+      <c r="A436" s="16" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="15" t="s">
+      <c r="A437" s="16" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="15" t="s">
+      <c r="A438" s="16" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="15" t="s">
+      <c r="A439" s="16" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="15" t="s">
+      <c r="A440" s="16" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="15" t="s">
+      <c r="A441" s="16" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="15" t="s">
+      <c r="A442" s="16" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="15" t="s">
+      <c r="A443" s="16" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="15" t="s">
+      <c r="A444" s="16" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="15" t="s">
+      <c r="A445" s="16" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="15" t="s">
+      <c r="A446" s="16" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="15" t="s">
+      <c r="A447" s="16" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="15" t="s">
+      <c r="A448" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="15" t="s">
+      <c r="A449" s="16" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="15" t="s">
+      <c r="A450" s="16" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="15" t="s">
+      <c r="A451" s="16" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="15" t="s">
+      <c r="A452" s="16" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="15" t="s">
+      <c r="A453" s="16" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="15" t="s">
+      <c r="A454" s="16" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="15" t="s">
+      <c r="A455" s="16" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="15" t="s">
+      <c r="A456" s="16" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="15" t="s">
+      <c r="A457" s="16" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="15" t="s">
+      <c r="A458" s="16" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="15" t="s">
+      <c r="A459" s="16" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="15" t="s">
+      <c r="A460" s="16" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="15" t="s">
+      <c r="A461" s="16" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="15" t="s">
+      <c r="A462" s="16" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="15" t="s">
+      <c r="A463" s="16" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="15" t="s">
+      <c r="A464" s="16" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="15" t="s">
+      <c r="A465" s="16" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="15" t="s">
+      <c r="A466" s="16" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="15" t="s">
+      <c r="A467" s="16" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="15" t="s">
+      <c r="A468" s="16" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="15" t="s">
+      <c r="A469" s="16" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="15" t="s">
+      <c r="A470" s="16" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="15" t="s">
+      <c r="A471" s="16" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="15" t="s">
+      <c r="A472" s="16" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="15" t="s">
+      <c r="A473" s="16" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="15" t="s">
+      <c r="A474" s="16" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="15" t="s">
+      <c r="A475" s="16" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="15" t="s">
+      <c r="A476" s="16" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="15" t="s">
+      <c r="A477" s="16" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="15" t="s">
+      <c r="A478" s="16" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="15" t="s">
+      <c r="A479" s="16" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="15" t="s">
+      <c r="A480" s="16" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="15" t="s">
+      <c r="A481" s="16" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="15" t="s">
+      <c r="A482" s="16" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="15" t="s">
+      <c r="A483" s="16" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="15" t="s">
+      <c r="A484" s="16" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="15" t="s">
+      <c r="A485" s="16" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="15" t="s">
+      <c r="A486" s="16" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="15" t="s">
+      <c r="A487" s="16" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="15" t="s">
+      <c r="A488" s="16" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="15" t="s">
+      <c r="A489" s="16" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="15" t="s">
+      <c r="A490" s="16" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="15" t="s">
+      <c r="A491" s="16" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="15" t="s">
+      <c r="A492" s="16" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="15" t="s">
+      <c r="A493" s="16" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="15" t="s">
+      <c r="A494" s="16" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="15" t="s">
+      <c r="A495" s="16" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="15" t="s">
+      <c r="A496" s="16" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="15" t="s">
+      <c r="A497" s="16" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="15" t="s">
+      <c r="A498" s="16" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="15" t="s">
+      <c r="A499" s="16" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="15" t="s">
+      <c r="A500" s="16" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="15" t="s">
+      <c r="A501" s="16" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="15" t="s">
+      <c r="A502" s="16" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="15" t="s">
+      <c r="A503" s="16" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="15" t="s">
+      <c r="A504" s="16" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="15" t="s">
+      <c r="A505" s="16" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="15" t="s">
+      <c r="A506" s="16" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="15" t="s">
+      <c r="A507" s="16" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="15" t="s">
+      <c r="A508" s="16" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="15" t="s">
+      <c r="A509" s="16" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="15" t="s">
+      <c r="A510" s="16" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="15" t="s">
+      <c r="A511" s="16" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="15" t="s">
+      <c r="A512" s="16" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="15" t="s">
+      <c r="A513" s="16" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="15" t="s">
+      <c r="A514" s="16" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="15" t="s">
+      <c r="A515" s="16" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="15" t="s">
+      <c r="A516" s="16" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="15" t="s">
+      <c r="A517" s="16" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="15" t="s">
+      <c r="A518" s="16" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="15" t="s">
+      <c r="A519" s="16" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="15" t="s">
+      <c r="A520" s="16" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="15" t="s">
+      <c r="A521" s="16" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="15" t="s">
+      <c r="A522" s="16" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="15" t="s">
+      <c r="A523" s="16" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="15" t="s">
+      <c r="A524" s="16" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="15" t="s">
+      <c r="A525" s="16" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="15" t="s">
+      <c r="A526" s="16" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="15" t="s">
+      <c r="A527" s="16" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="15" t="s">
+      <c r="A528" s="16" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="15" t="s">
+      <c r="A529" s="16" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="15" t="s">
+      <c r="A530" s="16" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="15" t="s">
+      <c r="A531" s="16" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="15" t="s">
+      <c r="A532" s="16" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="15" t="s">
+      <c r="A533" s="16" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="15" t="s">
+      <c r="A534" s="16" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="15" t="s">
+      <c r="A535" s="16" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="15" t="s">
+      <c r="A536" s="16" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="15" t="s">
+      <c r="A537" s="16" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="15" t="s">
+      <c r="A538" s="16" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="15" t="s">
+      <c r="A539" s="16" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="15" t="s">
+      <c r="A540" s="16" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="15" t="s">
+      <c r="A541" s="16" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="15" t="s">
+      <c r="A542" s="16" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="15" t="s">
+      <c r="A543" s="16" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="15" t="s">
+      <c r="A544" s="16" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="15" t="s">
+      <c r="A545" s="16" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="15" t="s">
+      <c r="A546" s="16" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="15" t="s">
+      <c r="A547" s="16" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="15" t="s">
+      <c r="A548" s="16" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="15" t="s">
+      <c r="A549" s="16" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="15" t="s">
+      <c r="A550" s="16" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="15" t="s">
+      <c r="A551" s="16" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="15" t="s">
+      <c r="A552" s="16" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="15" t="s">
+      <c r="A553" s="16" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="15" t="s">
+      <c r="A554" s="16" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="15" t="s">
+      <c r="A555" s="16" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="15" t="s">
+      <c r="A556" s="16" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="15" t="s">
+      <c r="A557" s="16" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="15" t="s">
+      <c r="A558" s="16" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="15" t="s">
+      <c r="A559" s="16" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="15" t="s">
+      <c r="A560" s="16" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="15" t="s">
+      <c r="A561" s="16" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="15" t="s">
+      <c r="A562" s="16" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="15" t="s">
+      <c r="A563" s="16" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="15" t="s">
+      <c r="A564" s="16" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="15" t="s">
+      <c r="A565" s="16" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="15" t="s">
+      <c r="A566" s="16" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="15" t="s">
+      <c r="A567" s="16" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="15" t="s">
+      <c r="A568" s="16" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="15" t="s">
+      <c r="A569" s="16" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="15" t="s">
+      <c r="A570" s="16" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="15" t="s">
+      <c r="A571" s="16" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="15" t="s">
+      <c r="A572" s="16" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="15" t="s">
+      <c r="A573" s="16" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="15" t="s">
+      <c r="A574" s="16" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="15" t="s">
+      <c r="A575" s="16" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="15" t="s">
+      <c r="A576" s="16" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="15" t="s">
+      <c r="A577" s="16" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="15" t="s">
+      <c r="A578" s="16" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="15" t="s">
+      <c r="A579" s="16" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="15" t="s">
+      <c r="A580" s="16" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="15" t="s">
+      <c r="A581" s="16" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="15" t="s">
+      <c r="A582" s="16" t="s">
         <v>991</v>
       </c>
     </row>
@@ -14939,10 +14942,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A29:A30"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15041,6 +15044,11 @@
         <v>1605</v>
       </c>
     </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1606</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -15050,10 +15058,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15069,7 +15077,7 @@
         <v>622</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>619</v>
@@ -15081,7 +15089,7 @@
         <v>625</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>728</v>
@@ -15093,7 +15101,7 @@
         <v>633</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>763</v>
@@ -15105,7 +15113,7 @@
         <v>631</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>637</v>
@@ -15117,7 +15125,7 @@
         <v>629</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>748</v>
@@ -15129,7 +15137,7 @@
         <v>627</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>772</v>
@@ -15141,7 +15149,7 @@
         <v>639</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>778</v>
@@ -15153,7 +15161,7 @@
         <v>641</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>794</v>
@@ -15165,7 +15173,7 @@
         <v>643</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>800</v>
@@ -15177,7 +15185,7 @@
         <v>645</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1045</v>
@@ -15189,7 +15197,7 @@
         <v>647</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>975</v>
@@ -15201,7 +15209,7 @@
         <v>649</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>981</v>
@@ -15213,7 +15221,7 @@
         <v>651</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>993</v>
@@ -15225,7 +15233,7 @@
         <v>653</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>806</v>
@@ -15237,7 +15245,7 @@
         <v>656</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>822</v>
@@ -15249,7 +15257,7 @@
         <v>659</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>812</v>
@@ -15261,7 +15269,7 @@
         <v>662</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>927</v>
@@ -15273,7 +15281,7 @@
         <v>665</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>935</v>
@@ -15285,7 +15293,7 @@
         <v>668</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>943</v>
@@ -15297,7 +15305,7 @@
         <v>671</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>951</v>
@@ -15309,7 +15317,7 @@
         <v>655</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>959</v>
@@ -15321,13 +15329,13 @@
         <v>658</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>969</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -15335,7 +15343,7 @@
         <v>661</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1005</v>
@@ -15347,7 +15355,7 @@
         <v>664</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1013</v>
@@ -15359,7 +15367,7 @@
         <v>667</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1019</v>
@@ -15371,7 +15379,7 @@
         <v>670</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1029</v>
@@ -15383,13 +15391,13 @@
         <v>673</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -15411,13 +15419,17 @@
         <v>949</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="3" t="s">
+        <v>622</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="11"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>625</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
@@ -15425,9 +15437,11 @@
         <v>732</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>1613</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>631</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4">
@@ -15435,9 +15449,11 @@
         <v>734</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>1614</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>627</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
@@ -15445,14 +15461,18 @@
         <v>736</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>1613</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>629</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
@@ -15460,7 +15480,9 @@
         <v>737</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="3" t="s">
+        <v>639</v>
+      </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
@@ -15468,8 +15490,8 @@
         <v>739</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="12" t="s">
-        <v>937</v>
+      <c r="C37" s="3" t="s">
+        <v>641</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -15478,10 +15500,10 @@
         <v>937</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>939</v>
+        <v>1615</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>643</v>
       </c>
       <c r="D38" s="4"/>
     </row>
@@ -15490,10 +15512,10 @@
         <v>939</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>830</v>
+        <v>1615</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -15502,8 +15524,8 @@
         <v>941</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="12" t="s">
-        <v>838</v>
+      <c r="C40" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -15512,8 +15534,8 @@
         <v>742</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="12" t="s">
-        <v>864</v>
+      <c r="C41" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -15522,10 +15544,10 @@
         <v>746</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>866</v>
+        <v>1614</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -15534,10 +15556,10 @@
         <v>750</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>868</v>
+        <v>1616</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -15546,8 +15568,8 @@
         <v>752</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="12" t="s">
-        <v>870</v>
+      <c r="C44" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -15556,8 +15578,8 @@
         <v>754</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="9" t="s">
-        <v>884</v>
+      <c r="C45" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="D45" s="4"/>
     </row>
@@ -15566,8 +15588,8 @@
         <v>756</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="12" t="s">
-        <v>882</v>
+      <c r="C46" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -15576,8 +15598,8 @@
         <v>758</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="12" t="s">
-        <v>886</v>
+      <c r="C47" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -15586,8 +15608,8 @@
         <v>759</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="12" t="s">
-        <v>919</v>
+      <c r="C48" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="D48" s="4"/>
     </row>
@@ -15596,8 +15618,8 @@
         <v>761</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="12" t="s">
-        <v>925</v>
+      <c r="C49" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="D49" s="4"/>
     </row>
@@ -15606,8 +15628,8 @@
         <v>765</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="12" t="s">
-        <v>933</v>
+      <c r="C50" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -15616,8 +15638,8 @@
         <v>767</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="12" t="s">
-        <v>965</v>
+      <c r="C51" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -15626,8 +15648,8 @@
         <v>769</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="12" t="s">
-        <v>967</v>
+      <c r="C52" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="D52" s="4"/>
     </row>
@@ -15636,8 +15658,8 @@
         <v>771</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="12" t="s">
-        <v>1025</v>
+      <c r="C53" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -15646,8 +15668,8 @@
         <v>774</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="12" t="s">
-        <v>1027</v>
+      <c r="C54" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="D54" s="4"/>
     </row>
@@ -15656,7 +15678,9 @@
         <v>776</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4">
@@ -15664,7 +15688,9 @@
         <v>780</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4">
@@ -15672,7 +15698,9 @@
         <v>782</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="2" t="s">
+        <v>732</v>
+      </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4">
@@ -15680,7 +15708,9 @@
         <v>796</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="C58" s="2" t="s">
+        <v>734</v>
+      </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4">
@@ -15688,7 +15718,9 @@
         <v>798</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="2" t="s">
+        <v>736</v>
+      </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4">
@@ -15696,7 +15728,9 @@
         <v>784</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="C60" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4">
@@ -15704,7 +15738,9 @@
         <v>786</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="C61" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4">
@@ -15712,7 +15748,9 @@
         <v>787</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
@@ -15720,7 +15758,9 @@
         <v>789</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="C63" s="2" t="s">
+        <v>742</v>
+      </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4">
@@ -15728,7 +15768,9 @@
         <v>790</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="14" t="s">
+        <v>744</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4">
@@ -15736,7 +15778,9 @@
         <v>792</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4">
@@ -15744,7 +15788,9 @@
         <v>793</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4">
@@ -15752,7 +15798,9 @@
         <v>802</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="2" t="s">
+        <v>752</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
@@ -15760,7 +15808,9 @@
         <v>804</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="C68" s="14" t="s">
+        <v>754</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4">
@@ -15768,7 +15818,9 @@
         <v>808</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="C69" s="14" t="s">
+        <v>756</v>
+      </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4">
@@ -15776,7 +15828,9 @@
         <v>810</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="2" t="s">
+        <v>758</v>
+      </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4">
@@ -15784,7 +15838,9 @@
         <v>814</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4">
@@ -15792,7 +15848,9 @@
         <v>816</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="C72" s="2" t="s">
+        <v>761</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4">
@@ -15800,7 +15858,9 @@
         <v>818</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4">
@@ -15808,7 +15868,9 @@
         <v>820</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
@@ -15816,7 +15878,9 @@
         <v>824</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="C75" s="2" t="s">
+        <v>769</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
@@ -15824,7 +15888,9 @@
         <v>826</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4">
@@ -15832,7 +15898,9 @@
         <v>828</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="C77" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4">
@@ -15840,9 +15908,11 @@
         <v>830</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>776</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4">
@@ -15850,7 +15920,9 @@
         <v>834</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="C79" s="2" t="s">
+        <v>780</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4">
@@ -15858,7 +15930,9 @@
         <v>836</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4">
@@ -15866,9 +15940,11 @@
         <v>838</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4">
@@ -15876,7 +15952,9 @@
         <v>840</v>
       </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4">
@@ -15884,7 +15962,9 @@
         <v>842</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4">
@@ -15892,7 +15972,9 @@
         <v>844</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="2" t="s">
+        <v>789</v>
+      </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
@@ -15900,7 +15982,9 @@
         <v>846</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="2" t="s">
+        <v>790</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4">
@@ -15908,7 +15992,9 @@
         <v>848</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4">
@@ -15916,7 +16002,9 @@
         <v>850</v>
       </c>
       <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="2" t="s">
+        <v>793</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4">
@@ -15924,7 +16012,9 @@
         <v>852</v>
       </c>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4">
@@ -15932,7 +16022,9 @@
         <v>854</v>
       </c>
       <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="2" t="s">
+        <v>798</v>
+      </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4">
@@ -15940,7 +16032,9 @@
         <v>856</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4">
@@ -15948,7 +16042,9 @@
         <v>858</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="2" t="s">
+        <v>804</v>
+      </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4">
@@ -15956,7 +16052,9 @@
         <v>860</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="2" t="s">
+        <v>808</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4">
@@ -15964,7 +16062,9 @@
         <v>862</v>
       </c>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="2" t="s">
+        <v>810</v>
+      </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4">
@@ -15972,7 +16072,9 @@
         <v>864</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="2" t="s">
+        <v>814</v>
+      </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4">
@@ -15980,7 +16082,9 @@
         <v>866</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="2" t="s">
+        <v>816</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4">
@@ -15988,7 +16092,9 @@
         <v>868</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="2" t="s">
+        <v>818</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4">
@@ -15996,7 +16102,9 @@
         <v>870</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="2" t="s">
+        <v>820</v>
+      </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4">
@@ -16004,7 +16112,9 @@
         <v>872</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="14" t="s">
+        <v>824</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4">
@@ -16012,7 +16122,9 @@
         <v>874</v>
       </c>
       <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4">
@@ -16020,7 +16132,9 @@
         <v>876</v>
       </c>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="2" t="s">
+        <v>828</v>
+      </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4">
@@ -16028,7 +16142,9 @@
         <v>878</v>
       </c>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="2" t="s">
+        <v>830</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4">
@@ -16036,7 +16152,9 @@
         <v>880</v>
       </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="2" t="s">
+        <v>834</v>
+      </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4">
@@ -16044,9 +16162,11 @@
         <v>884</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C103" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>836</v>
+      </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4">
@@ -16054,9 +16174,11 @@
         <v>882</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C104" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>838</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4">
@@ -16064,9 +16186,11 @@
         <v>886</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C105" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>840</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4">
@@ -16074,7 +16198,9 @@
         <v>888</v>
       </c>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4">
@@ -16082,7 +16208,9 @@
         <v>890</v>
       </c>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4">
@@ -16090,7 +16218,9 @@
         <v>892</v>
       </c>
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="2" t="s">
+        <v>846</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4">
@@ -16098,7 +16228,9 @@
         <v>894</v>
       </c>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="2" t="s">
+        <v>848</v>
+      </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4">
@@ -16106,7 +16238,9 @@
         <v>896</v>
       </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="2" t="s">
+        <v>850</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4">
@@ -16114,7 +16248,9 @@
         <v>898</v>
       </c>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="2" t="s">
+        <v>852</v>
+      </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:4">
@@ -16122,7 +16258,9 @@
         <v>900</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="2" t="s">
+        <v>854</v>
+      </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4">
@@ -16130,7 +16268,9 @@
         <v>902</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="2" t="s">
+        <v>856</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4">
@@ -16138,7 +16278,9 @@
         <v>904</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4">
@@ -16146,7 +16288,9 @@
         <v>906</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="2" t="s">
+        <v>860</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4">
@@ -16154,7 +16298,9 @@
         <v>908</v>
       </c>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="2" t="s">
+        <v>862</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4">
@@ -16162,7 +16308,9 @@
         <v>910</v>
       </c>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="2" t="s">
+        <v>864</v>
+      </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4">
@@ -16170,7 +16318,9 @@
         <v>911</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="2" t="s">
+        <v>866</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4">
@@ -16178,7 +16328,9 @@
         <v>913</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="2" t="s">
+        <v>868</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4">
@@ -16186,7 +16338,9 @@
         <v>915</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4">
@@ -16194,7 +16348,9 @@
         <v>917</v>
       </c>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="2" t="s">
+        <v>872</v>
+      </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4">
@@ -16202,9 +16358,11 @@
         <v>919</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C122" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4">
@@ -16212,7 +16370,9 @@
         <v>921</v>
       </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="2" t="s">
+        <v>876</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4">
@@ -16220,7 +16380,9 @@
         <v>923</v>
       </c>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="2" t="s">
+        <v>878</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4">
@@ -16228,9 +16390,11 @@
         <v>925</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C125" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>880</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4">
@@ -16238,7 +16402,9 @@
         <v>929</v>
       </c>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="2" t="s">
+        <v>882</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4">
@@ -16246,7 +16412,9 @@
         <v>931</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="C127" s="14" t="s">
+        <v>884</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4">
@@ -16254,9 +16422,11 @@
         <v>933</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C128" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>886</v>
+      </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4">
@@ -16264,7 +16434,9 @@
         <v>945</v>
       </c>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="2" t="s">
+        <v>888</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4">
@@ -16272,7 +16444,9 @@
         <v>947</v>
       </c>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="C130" s="2" t="s">
+        <v>890</v>
+      </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4">
@@ -16280,7 +16454,9 @@
         <v>953</v>
       </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4">
@@ -16288,7 +16464,9 @@
         <v>955</v>
       </c>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4">
@@ -16296,7 +16474,9 @@
         <v>957</v>
       </c>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="2" t="s">
+        <v>896</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4">
@@ -16304,7 +16484,9 @@
         <v>961</v>
       </c>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="2" t="s">
+        <v>898</v>
+      </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4">
@@ -16312,7 +16494,9 @@
         <v>963</v>
       </c>
       <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="C135" s="2" t="s">
+        <v>900</v>
+      </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4">
@@ -16320,9 +16504,11 @@
         <v>965</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>902</v>
+      </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4">
@@ -16330,9 +16516,11 @@
         <v>967</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C137" s="4"/>
+        <v>1617</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>904</v>
+      </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4">
@@ -16340,9 +16528,11 @@
         <v>971</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C138" s="4"/>
+        <v>1610</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>906</v>
+      </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4">
@@ -16350,9 +16540,11 @@
         <v>973</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C139" s="4"/>
+        <v>1610</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>908</v>
+      </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4">
@@ -16360,7 +16552,9 @@
         <v>977</v>
       </c>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="2" t="s">
+        <v>910</v>
+      </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4">
@@ -16368,7 +16562,9 @@
         <v>979</v>
       </c>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="2" t="s">
+        <v>911</v>
+      </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4">
@@ -16376,7 +16572,9 @@
         <v>983</v>
       </c>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="2" t="s">
+        <v>913</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4">
@@ -16384,7 +16582,9 @@
         <v>985</v>
       </c>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="2" t="s">
+        <v>915</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4">
@@ -16392,7 +16592,9 @@
         <v>987</v>
       </c>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="2" t="s">
+        <v>917</v>
+      </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4">
@@ -16400,7 +16602,9 @@
         <v>989</v>
       </c>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="2" t="s">
+        <v>919</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:4">
@@ -16408,7 +16612,9 @@
         <v>991</v>
       </c>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="C146" s="2" t="s">
+        <v>921</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4">
@@ -16416,7 +16622,9 @@
         <v>995</v>
       </c>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="2" t="s">
+        <v>923</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4">
@@ -16424,7 +16632,9 @@
         <v>997</v>
       </c>
       <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="2" t="s">
+        <v>925</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4">
@@ -16432,7 +16642,9 @@
         <v>999</v>
       </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:4">
@@ -16440,7 +16652,9 @@
         <v>1001</v>
       </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="2" t="s">
+        <v>931</v>
+      </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4">
@@ -16448,7 +16662,9 @@
         <v>1003</v>
       </c>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="1:4">
@@ -16456,7 +16672,9 @@
         <v>1007</v>
       </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="2" t="s">
+        <v>937</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:4">
@@ -16464,7 +16682,9 @@
         <v>1009</v>
       </c>
       <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="2" t="s">
+        <v>939</v>
+      </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4">
@@ -16472,7 +16692,9 @@
         <v>1011</v>
       </c>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="2" t="s">
+        <v>941</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4">
@@ -16480,7 +16702,9 @@
         <v>1015</v>
       </c>
       <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="2" t="s">
+        <v>945</v>
+      </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="1:4">
@@ -16488,7 +16712,9 @@
         <v>1017</v>
       </c>
       <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="1:4">
@@ -16496,7 +16722,9 @@
         <v>1021</v>
       </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4">
@@ -16504,7 +16732,9 @@
         <v>1023</v>
       </c>
       <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="1:4">
@@ -16512,7 +16742,9 @@
         <v>1025</v>
       </c>
       <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="C159" s="2" t="s">
+        <v>955</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="1:4">
@@ -16520,7 +16752,9 @@
         <v>1027</v>
       </c>
       <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="C160" s="2" t="s">
+        <v>957</v>
+      </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="1:4">
@@ -16528,7 +16762,9 @@
         <v>1031</v>
       </c>
       <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="C161" s="2" t="s">
+        <v>961</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="1:4">
@@ -16536,7 +16772,9 @@
         <v>1033</v>
       </c>
       <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="C162" s="2" t="s">
+        <v>963</v>
+      </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="1:4">
@@ -16544,25 +16782,31 @@
         <v>1037</v>
       </c>
       <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="C163" s="2" t="s">
+        <v>965</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="15" t="s">
         <v>1039</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C164" s="4"/>
+        <v>1618</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>967</v>
+      </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="15" t="s">
         <v>1041</v>
       </c>
       <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="C165" s="2" t="s">
+        <v>971</v>
+      </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="1:4">
@@ -16570,7 +16814,9 @@
         <v>1047</v>
       </c>
       <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="C166" s="2" t="s">
+        <v>973</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="1:4">
@@ -16578,8 +16824,145 @@
         <v>1049</v>
       </c>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="2" t="s">
+        <v>977</v>
+      </c>
       <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" s="2" t="s">
+        <v>1049</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16592,8 +16975,8 @@
   <sheetPr/>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16603,77 +16986,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
   </sheetData>
@@ -16693,10 +17076,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="46.75" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="31" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="46.75" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -16711,7 +17094,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -16722,7 +17105,7 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>728</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -16733,7 +17116,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>748</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -16821,7 +17204,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>822</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -16989,10 +17372,10 @@
       <c r="A27" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -17008,7 +17391,7 @@
   <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A165" sqref="A1:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -17031,10 +17414,10 @@
       <c r="C1" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -17096,7 +17479,7 @@
       <c r="C5" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -17113,7 +17496,7 @@
       <c r="C6" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -17130,7 +17513,7 @@
       <c r="C7" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>651</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -17147,7 +17530,7 @@
       <c r="C8" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>655</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -17164,7 +17547,7 @@
       <c r="C9" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -17181,7 +17564,7 @@
       <c r="C10" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>661</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -17198,7 +17581,7 @@
       <c r="C11" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>664</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -17215,7 +17598,7 @@
       <c r="C12" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>667</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -17232,7 +17615,7 @@
       <c r="C13" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>670</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -17249,7 +17632,7 @@
       <c r="C14" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>673</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -17280,7 +17663,7 @@
       <c r="C16" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>744</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -17297,7 +17680,7 @@
       <c r="C17" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -17314,7 +17697,7 @@
       <c r="C18" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2" t="s">
         <v>1069</v>
       </c>
@@ -17329,7 +17712,7 @@
       <c r="C19" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>971</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -17346,7 +17729,7 @@
       <c r="C20" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>967</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -17363,7 +17746,7 @@
       <c r="C21" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>973</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -17380,7 +17763,7 @@
       <c r="C22" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -17397,7 +17780,7 @@
       <c r="C23" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>1049</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -17414,7 +17797,7 @@
       <c r="C24" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="2" t="s">
         <v>1075</v>
       </c>
@@ -17429,7 +17812,7 @@
       <c r="C25" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>758</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -17446,7 +17829,7 @@
       <c r="C26" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>786</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -17463,7 +17846,7 @@
       <c r="C27" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>910</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -17480,7 +17863,7 @@
       <c r="C28" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>850</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -17497,7 +17880,7 @@
       <c r="C29" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>771</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -17514,7 +17897,7 @@
       <c r="C30" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>949</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -17531,7 +17914,7 @@
       <c r="C31" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>793</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -17548,7 +17931,7 @@
       <c r="C32" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -17565,7 +17948,7 @@
       <c r="C33" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="14" t="s">
         <v>820</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -17587,7 +17970,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>744</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -17643,13 +18026,13 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>755</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -17657,7 +18040,7 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="14" t="s">
         <v>756</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -18063,7 +18446,7 @@
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:5">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="14" t="s">
         <v>824</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -18265,7 +18648,7 @@
       <c r="B83" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="14" t="s">
         <v>855</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -18447,7 +18830,7 @@
       <c r="B96" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="14" t="s">
         <v>881</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -18469,7 +18852,7 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:5">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="14" t="s">
         <v>884</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -19318,13 +19701,13 @@
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:3">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="14" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -19335,7 +19718,7 @@
       <c r="B165" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -19360,622 +19743,622 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.75" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="58.75" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="16" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="16" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="16" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="16" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="16" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="16" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -19999,10 +20382,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="45.125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="44.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="45.125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -20209,10 +20592,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="57" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="70.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="57" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="70.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
@@ -22153,408 +22536,408 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="80.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="75.875" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="80.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="75.875" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1315</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>1319</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>1321</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>1323</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>1325</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>1327</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>1329</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>1331</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>1333</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>1335</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>1337</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>1341</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>1343</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>1345</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>1347</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>1349</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>1351</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>1353</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>1357</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>1359</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>1361</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>1363</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>1365</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>1367</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>1369</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>1371</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>1377</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>1379</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>1381</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>1383</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>1385</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>1387</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>1389</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>1391</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>1395</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>1397</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>1399</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>1401</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>1403</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>1405</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>1407</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>1409</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>1411</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>1412</v>
       </c>
     </row>
@@ -22562,239 +22945,239 @@
       <c r="A51" s="17" t="s">
         <v>1413</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>1415</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>1417</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>1419</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>1421</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>1423</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="16" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>1425</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>1427</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="16" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>1429</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>1431</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="16" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>1433</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>1435</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="16" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>1437</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="16" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>1439</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="16" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>1441</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="16" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>1443</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="16" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>1445</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>1447</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>1449</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="16" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>1451</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="16" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>1453</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="16" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>1455</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="16" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>1457</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="16" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>1459</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="16" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>1461</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="16" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>1463</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="16" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>1465</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="16" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>1467</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="16" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>1469</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="16" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>1471</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="16" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -22802,135 +23185,135 @@
       <c r="A81" s="17" t="s">
         <v>1473</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="16" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>1475</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="16" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>1477</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="16" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>1479</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="16" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>1481</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="16" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>1483</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="16" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>1485</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="16" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>1487</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="16" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="16" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>1491</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="16" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>1493</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="16" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>1495</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="16" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>1497</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="16" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>1499</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="16" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>1501</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="16" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>1503</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="16" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>1505</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="16" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -22938,15 +23321,15 @@
       <c r="A98" s="17" t="s">
         <v>1507</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="16" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>1509</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="16" t="s">
         <v>1510</v>
       </c>
     </row>
@@ -22954,15 +23337,15 @@
       <c r="A100" s="17" t="s">
         <v>1511</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="16" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="16" t="s">
         <v>1513</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="16" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -22970,23 +23353,23 @@
       <c r="A102" s="17" t="s">
         <v>1515</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="16" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>1517</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="16" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>1519</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="16" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -22994,23 +23377,23 @@
       <c r="A105" s="17" t="s">
         <v>1521</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="16" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>1523</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="16" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="16" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -23018,15 +23401,15 @@
       <c r="A108" s="17" t="s">
         <v>1527</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="16" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>1529</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="16" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -23034,135 +23417,135 @@
       <c r="A110" s="17" t="s">
         <v>1531</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="16" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="16" t="s">
         <v>1533</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="16" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>1535</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="16" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>1537</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="16" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>1539</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="16" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>1541</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="16" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>1543</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="16" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>1545</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="16" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>1547</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="16" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>1549</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="16" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>1551</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="16" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>1553</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="16" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>1555</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="16" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="16" t="s">
         <v>1557</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="16" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>1559</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="16" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>1561</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="16" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>1563</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="16" t="s">
         <v>1564</v>
       </c>
     </row>
@@ -23170,103 +23553,103 @@
       <c r="A127" s="17" t="s">
         <v>1565</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="16" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="16" t="s">
         <v>1567</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="16" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="16" t="s">
         <v>1569</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="16" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="16" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="16" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="16" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="16" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="16" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="16" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="16" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="16" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="16" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="16" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="16" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="16" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="16" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="16" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="16" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="16" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -23287,15 +23670,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="36.25" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -23306,7 +23689,7 @@
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -23317,7 +23700,7 @@
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -23328,7 +23711,7 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -24787,10 +25170,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="40.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -5052,15 +5052,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5074,21 +5103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5096,6 +5111,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5109,86 +5132,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5204,7 +5149,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5285,55 +5285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5357,6 +5315,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5369,43 +5381,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5423,7 +5429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5435,19 +5447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5458,6 +5458,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5494,52 +5518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5558,16 +5538,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5576,133 +5576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5736,13 +5736,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -6211,7 +6211,7 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6222,7 +6222,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6233,7 +6233,7 @@
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -6244,7 +6244,7 @@
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -10267,7 +10267,7 @@
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="14" t="s">
+      <c r="A397" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -10322,18 +10322,18 @@
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="14" t="s">
+      <c r="A403" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C403" s="14" t="s">
+      <c r="B403" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C403" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="14" t="s">
+      <c r="A404" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -10377,9 +10377,9 @@
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="14"/>
-      <c r="B408" s="14"/>
-      <c r="C408" s="14"/>
+      <c r="A408" s="15"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="15"/>
     </row>
     <row r="409" s="18" customFormat="1" customHeight="1" spans="1:3">
       <c r="A409" s="18" t="s">
@@ -10745,7 +10745,7 @@
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="14" t="s">
+      <c r="A449" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -10916,7 +10916,7 @@
       <c r="B468" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C468" s="14" t="s">
+      <c r="C468" s="15" t="s">
         <v>855</v>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
     </row>
     <row r="479" customHeight="1" spans="3:3">
-      <c r="C479" s="14"/>
+      <c r="C479" s="15"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
       <c r="A480" s="2" t="s">
@@ -11062,7 +11062,7 @@
       <c r="B485" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C485" s="14" t="s">
+      <c r="C485" s="15" t="s">
         <v>881</v>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -11980,13 +11980,13 @@
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="14" t="s">
+      <c r="A589" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C589" s="14" t="s">
+      <c r="C589" s="15" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -11997,7 +11997,7 @@
       <c r="B590" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C590" s="14" t="s">
+      <c r="C590" s="15" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -15060,8 +15060,8 @@
   <sheetPr/>
   <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -15524,7 +15524,7 @@
         <v>941</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="13" t="s">
         <v>647</v>
       </c>
       <c r="D40" s="4"/>
@@ -15534,7 +15534,7 @@
         <v>742</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="13" t="s">
         <v>649</v>
       </c>
       <c r="D41" s="4"/>
@@ -15546,7 +15546,7 @@
       <c r="B42" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="13" t="s">
         <v>651</v>
       </c>
       <c r="D42" s="4"/>
@@ -15558,7 +15558,7 @@
       <c r="B43" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>653</v>
       </c>
       <c r="D43" s="4"/>
@@ -15578,13 +15578,13 @@
         <v>754</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>656</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>756</v>
       </c>
       <c r="B46" s="4"/>
@@ -15608,7 +15608,7 @@
         <v>759</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="13" t="s">
         <v>661</v>
       </c>
       <c r="D48" s="4"/>
@@ -15618,7 +15618,7 @@
         <v>761</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>662</v>
       </c>
       <c r="D49" s="4"/>
@@ -15638,7 +15638,7 @@
         <v>767</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>665</v>
       </c>
       <c r="D51" s="4"/>
@@ -15658,7 +15658,7 @@
         <v>771</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>668</v>
       </c>
       <c r="D53" s="4"/>
@@ -15768,7 +15768,7 @@
         <v>790</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="15" t="s">
         <v>744</v>
       </c>
       <c r="D64" s="4"/>
@@ -15808,7 +15808,7 @@
         <v>804</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="15" t="s">
         <v>754</v>
       </c>
       <c r="D68" s="4"/>
@@ -15818,7 +15818,7 @@
         <v>808</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="15" t="s">
         <v>756</v>
       </c>
       <c r="D69" s="4"/>
@@ -15874,7 +15874,7 @@
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>824</v>
       </c>
       <c r="B75" s="4"/>
@@ -16112,7 +16112,7 @@
         <v>872</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="15" t="s">
         <v>824</v>
       </c>
       <c r="D98" s="4"/>
@@ -16412,7 +16412,7 @@
         <v>931</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="15" t="s">
         <v>884</v>
       </c>
       <c r="D127" s="4"/>
@@ -16788,7 +16788,7 @@
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="13" t="s">
         <v>1039</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -16800,7 +16800,7 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="13" t="s">
         <v>1041</v>
       </c>
       <c r="B165" s="4"/>
@@ -16810,7 +16810,7 @@
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="B166" s="4"/>
@@ -16955,7 +16955,7 @@
       </c>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="14" t="s">
+      <c r="C193" s="15" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>637</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -17105,7 +17105,7 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>728</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -17116,7 +17116,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>748</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -17204,7 +17204,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>822</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -17372,10 +17372,10 @@
       <c r="A27" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -17414,10 +17414,10 @@
       <c r="C1" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -17479,7 +17479,7 @@
       <c r="C5" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -17496,7 +17496,7 @@
       <c r="C6" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -17513,7 +17513,7 @@
       <c r="C7" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>651</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -17530,7 +17530,7 @@
       <c r="C8" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>655</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -17547,7 +17547,7 @@
       <c r="C9" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -17564,7 +17564,7 @@
       <c r="C10" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>661</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -17581,7 +17581,7 @@
       <c r="C11" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>664</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -17598,7 +17598,7 @@
       <c r="C12" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>667</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -17615,7 +17615,7 @@
       <c r="C13" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>670</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -17632,7 +17632,7 @@
       <c r="C14" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>673</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -17663,7 +17663,7 @@
       <c r="C16" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>744</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -17680,7 +17680,7 @@
       <c r="C17" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -17697,7 +17697,7 @@
       <c r="C18" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="2" t="s">
         <v>1069</v>
       </c>
@@ -17712,7 +17712,7 @@
       <c r="C19" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>971</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -17729,7 +17729,7 @@
       <c r="C20" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>967</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -17746,7 +17746,7 @@
       <c r="C21" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>973</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -17763,7 +17763,7 @@
       <c r="C22" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -17780,7 +17780,7 @@
       <c r="C23" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>1049</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -17797,7 +17797,7 @@
       <c r="C24" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="2" t="s">
         <v>1075</v>
       </c>
@@ -17812,7 +17812,7 @@
       <c r="C25" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>758</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -17829,7 +17829,7 @@
       <c r="C26" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>786</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -17846,7 +17846,7 @@
       <c r="C27" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>910</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -17863,7 +17863,7 @@
       <c r="C28" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>850</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -17880,7 +17880,7 @@
       <c r="C29" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>771</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -17897,7 +17897,7 @@
       <c r="C30" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>949</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -17914,7 +17914,7 @@
       <c r="C31" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>793</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -17931,7 +17931,7 @@
       <c r="C32" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="15" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -17948,7 +17948,7 @@
       <c r="C33" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="15" t="s">
         <v>820</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -17970,7 +17970,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:5">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>744</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -18026,13 +18026,13 @@
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:5">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>755</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -18040,7 +18040,7 @@
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:5">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>756</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -18446,7 +18446,7 @@
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:5">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>824</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -18648,7 +18648,7 @@
       <c r="B83" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="15" t="s">
         <v>855</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -18830,7 +18830,7 @@
       <c r="B96" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="15" t="s">
         <v>881</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -18852,7 +18852,7 @@
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:5">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>884</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -19701,13 +19701,13 @@
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:3">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="15" t="s">
         <v>1047</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="15" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -19718,7 +19718,7 @@
       <c r="B165" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="15" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -23678,7 +23678,7 @@
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -23689,7 +23689,7 @@
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -23700,7 +23700,7 @@
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -23711,7 +23711,7 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="12"/>
+    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="完成度" sheetId="11" r:id="rId12"/>
     <sheet name="pnext struct整理" sheetId="14" r:id="rId13"/>
     <sheet name="问题" sheetId="13" r:id="rId14"/>
+    <sheet name="1.1.85" sheetId="15" r:id="rId15"/>
+    <sheet name="sub" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5087" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="1737">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -5086,6 +5088,276 @@
   <si>
     <t>*/</t>
   </si>
+  <si>
+    <t>VkPhysicalDeviceVulkanMemoryModelFeaturesKHR</t>
+  </si>
+  <si>
+    <t>VkDebugMarkerObjectNameInfoEXT</t>
+  </si>
+  <si>
+    <t>VkDebugMarkerObjectTagInfoEXT</t>
+  </si>
+  <si>
+    <t>VkDebugUtilsObjectNameInfoEXT</t>
+  </si>
+  <si>
+    <t>VkDebugUtilsObjectTagInfoEXT</t>
+  </si>
+  <si>
+    <t>VkDescriptorPoolInlineUniformBlockCreateInfoEXT</t>
+  </si>
+  <si>
+    <t>VkImageViewASTCDecodeModeEXT</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceASTCDecodeFeaturesEXT</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceInlineUniformBlockFeaturesEXT</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceInlineUniformBlockPropertiesEXT</t>
+  </si>
+  <si>
+    <t>vkDebugMarkerSetObjectNameEXT</t>
+  </si>
+  <si>
+    <t>vkDebugMarkerSetObjectTagEXT</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceVertexAttributeDivisorFeaturesEXT</t>
+  </si>
+  <si>
+    <t>vkSetDebugUtilsObjectNameEXT</t>
+  </si>
+  <si>
+    <t>vkSetDebugUtilsObjectTagEXT</t>
+  </si>
+  <si>
+    <t>VkWriteDescriptorSetInlineUniformBlockEXT</t>
+  </si>
+  <si>
+    <t>VkAccelerationStructureCreateInfoNVX</t>
+  </si>
+  <si>
+    <t>vkBindAccelerationStructureMemoryNVX</t>
+  </si>
+  <si>
+    <t>VkAccelerationStructureMemoryRequirementsInfoNVX</t>
+  </si>
+  <si>
+    <t>vkCmdBuildAccelerationStructureNVX</t>
+  </si>
+  <si>
+    <t>VkBindAccelerationStructureMemoryInfoNVX</t>
+  </si>
+  <si>
+    <t>vkCmdCopyAccelerationStructureNVX</t>
+  </si>
+  <si>
+    <t>VkDescriptorAccelerationStructureInfoNVX</t>
+  </si>
+  <si>
+    <t>vkCmdTraceRaysNVX</t>
+  </si>
+  <si>
+    <t>vkCmdWriteAccelerationStructurePropertiesNVX</t>
+  </si>
+  <si>
+    <t>vkCompileDeferredNVX</t>
+  </si>
+  <si>
+    <t>VkGeometryAABBNVX</t>
+  </si>
+  <si>
+    <t>vkCreateAccelerationStructureNVX</t>
+  </si>
+  <si>
+    <t>VkGeometryDataNVX</t>
+  </si>
+  <si>
+    <t>VkGeometryNVX</t>
+  </si>
+  <si>
+    <t>vkCreateObjectTableNVX</t>
+  </si>
+  <si>
+    <t>VkGeometryTrianglesNVX</t>
+  </si>
+  <si>
+    <t>vkCreateRaytracingPipelinesNVX</t>
+  </si>
+  <si>
+    <t>vkDestroyAccelerationStructureNVX</t>
+  </si>
+  <si>
+    <t>vkDestroyObjectTableNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTableCreateInfoNVX</t>
+  </si>
+  <si>
+    <t>vkGetAccelerationStructureHandleNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTableDescriptorSetEntryNVX</t>
+  </si>
+  <si>
+    <t>vkGetAccelerationStructureMemoryRequirementsNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTableEntryNVX</t>
+  </si>
+  <si>
+    <t>vkGetAccelerationStructureScratchMemoryRequirementsNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTableIndexBufferEntryNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTablePipelineEntryNVX</t>
+  </si>
+  <si>
+    <t>vkGetRaytracingShaderHandlesNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTablePushConstantEntryNVX</t>
+  </si>
+  <si>
+    <t>vkRegisterObjectsNVX</t>
+  </si>
+  <si>
+    <t>VkObjectTableVertexBufferEntryNVX</t>
+  </si>
+  <si>
+    <t>vkUnregisterObjectsNVX</t>
+  </si>
+  <si>
+    <t>vkCmdBindShadingRateImageNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceRaytracingPropertiesNVX</t>
+  </si>
+  <si>
+    <t>vkCmdDrawMeshTasksIndirectCountNV</t>
+  </si>
+  <si>
+    <t>VkRaytracingPipelineCreateInfoNVX</t>
+  </si>
+  <si>
+    <t>vkCmdDrawMeshTasksIndirectNV</t>
+  </si>
+  <si>
+    <t>vkCmdDrawMeshTasksNV</t>
+  </si>
+  <si>
+    <t>VkCoarseSampleLocationNV</t>
+  </si>
+  <si>
+    <t>VkCoarseSampleOrderCustomNV</t>
+  </si>
+  <si>
+    <t>vkCmdSetCoarseSampleOrderNV</t>
+  </si>
+  <si>
+    <t>vkCmdSetExclusiveScissorNV</t>
+  </si>
+  <si>
+    <t>vkCmdSetViewportShadingRatePaletteNV</t>
+  </si>
+  <si>
+    <t>VkDrawMeshTasksIndirectCommandNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceComputeShaderDerivativesFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceCornerSampledImageFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceExclusiveScissorFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceFragmentShaderBarycentricFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceMeshShaderFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceMeshShaderPropertiesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceRepresentativeFragmentTestFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceShaderImageFootprintFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceShadingRateImageFeaturesNV</t>
+  </si>
+  <si>
+    <t>VkPhysicalDeviceShadingRateImagePropertiesNV</t>
+  </si>
+  <si>
+    <t>VkPipelineRepresentativeFragmentTestStateCreateInfoNV</t>
+  </si>
+  <si>
+    <t>VkPipelineViewportCoarseSampleOrderStateCreateInfoNV</t>
+  </si>
+  <si>
+    <t>VkPipelineViewportExclusiveScissorStateCreateInfoNV</t>
+  </si>
+  <si>
+    <t>VkPipelineViewportShadingRateImageStateCreateInfoNV</t>
+  </si>
+  <si>
+    <t>VkQueueFamilyCheckpointPropertiesNV</t>
+  </si>
+  <si>
+    <t>VkShadingRatePaletteNV</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>VK_VERSION_1_1</t>
+  </si>
+  <si>
+    <t>VK_NV_mesh_shader</t>
+  </si>
+  <si>
+    <t>VK_NVX_raytracing</t>
+  </si>
+  <si>
+    <t>VK_NV_shading_rate_image</t>
+  </si>
+  <si>
+    <t>VK_NV_scissor_exclusive</t>
+  </si>
+  <si>
+    <t>VK_NV_compute_shader_derivatives</t>
+  </si>
+  <si>
+    <t>VK_NV_corner_sampled_image</t>
+  </si>
+  <si>
+    <t>VK_EXT_inline_uniform_block</t>
+  </si>
+  <si>
+    <t>VK_NV_representative_fragment_test</t>
+  </si>
+  <si>
+    <t>VK_NV_fragment_shader_barycentric</t>
+  </si>
+  <si>
+    <t>VK_KHR_vulkan_memory_model</t>
+  </si>
+  <si>
+    <t>VK_NV_shader_image_footprint</t>
+  </si>
+  <si>
+    <t>VK_EXT_astc_decode_mode</t>
+  </si>
 </sst>
 </file>
 
@@ -5093,9 +5365,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5106,25 +5378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5145,16 +5400,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5168,8 +5461,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5182,32 +5492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5220,31 +5506,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5325,7 +5597,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5337,31 +5741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5373,121 +5759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5498,6 +5770,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5516,35 +5823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5556,6 +5834,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5583,31 +5870,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5616,133 +5888,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17031,8 +17303,8 @@
   <sheetPr/>
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -17162,7 +17434,6 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>680</v>
       </c>
@@ -17343,84 +17614,72 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5"/>
-      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5"/>
-      <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5"/>
-      <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5"/>
-      <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5"/>
-      <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5"/>
-      <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5"/>
-      <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5"/>
-      <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5"/>
-      <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5"/>
-      <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5"/>
-      <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
         <v>402</v>
       </c>
@@ -18575,6 +18834,3179 @@
     <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>1646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B331"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B621" workbookViewId="0">
+      <selection activeCell="C639" sqref="C1:F639"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
+    <col min="7" max="7" width="52.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>872</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>884</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>836</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>842</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>902</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>896</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>898</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>900</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>892</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>894</v>
+      </c>
+      <c r="B20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>904</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>906</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>878</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>910</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>864</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>866</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>868</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>870</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>876</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>886</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>880</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>890</v>
+      </c>
+      <c r="B34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>882</v>
+      </c>
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>919</v>
+      </c>
+      <c r="B36" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>915</v>
+      </c>
+      <c r="B37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>923</v>
+      </c>
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>874</v>
+      </c>
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>917</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>844</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>846</v>
+      </c>
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>848</v>
+      </c>
+      <c r="B43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>850</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>921</v>
+      </c>
+      <c r="B45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>852</v>
+      </c>
+      <c r="B46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>854</v>
+      </c>
+      <c r="B47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>856</v>
+      </c>
+      <c r="B48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>858</v>
+      </c>
+      <c r="B49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>860</v>
+      </c>
+      <c r="B50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>862</v>
+      </c>
+      <c r="B51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>888</v>
+      </c>
+      <c r="B52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>925</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>913</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>765</v>
+      </c>
+      <c r="B56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>774</v>
+      </c>
+      <c r="B57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>814</v>
+      </c>
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>953</v>
+      </c>
+      <c r="B60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>945</v>
+      </c>
+      <c r="B61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>971</v>
+      </c>
+      <c r="B62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>732</v>
+      </c>
+      <c r="B63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>995</v>
+      </c>
+      <c r="B64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>983</v>
+      </c>
+      <c r="B65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>808</v>
+      </c>
+      <c r="B66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>780</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>796</v>
+      </c>
+      <c r="B69" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>622</v>
+      </c>
+      <c r="B70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B72" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>929</v>
+      </c>
+      <c r="B73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B74" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>802</v>
+      </c>
+      <c r="B75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B76" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>977</v>
+      </c>
+      <c r="B77" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B78" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>767</v>
+      </c>
+      <c r="B79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>776</v>
+      </c>
+      <c r="B80" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>816</v>
+      </c>
+      <c r="B81" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>955</v>
+      </c>
+      <c r="B82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>947</v>
+      </c>
+      <c r="B83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>973</v>
+      </c>
+      <c r="B84" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>734</v>
+      </c>
+      <c r="B85" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>997</v>
+      </c>
+      <c r="B86" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>985</v>
+      </c>
+      <c r="B87" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>810</v>
+      </c>
+      <c r="B88" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>782</v>
+      </c>
+      <c r="B89" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>798</v>
+      </c>
+      <c r="B90" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>625</v>
+      </c>
+      <c r="B91" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B93" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B94" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>931</v>
+      </c>
+      <c r="B95" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B96" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>804</v>
+      </c>
+      <c r="B97" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B98" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>979</v>
+      </c>
+      <c r="B99" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B100" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>746</v>
+      </c>
+      <c r="B101" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>834</v>
+      </c>
+      <c r="B102" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>643</v>
+      </c>
+      <c r="B103" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>645</v>
+      </c>
+      <c r="B104" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>627</v>
+      </c>
+      <c r="B105" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>629</v>
+      </c>
+      <c r="B106" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>631</v>
+      </c>
+      <c r="B107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>639</v>
+      </c>
+      <c r="B108" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>641</v>
+      </c>
+      <c r="B109" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>740</v>
+      </c>
+      <c r="B110" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>826</v>
+      </c>
+      <c r="B111" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>963</v>
+      </c>
+      <c r="B112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>752</v>
+      </c>
+      <c r="B113" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>769</v>
+      </c>
+      <c r="B114" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>771</v>
+      </c>
+      <c r="B115" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>949</v>
+      </c>
+      <c r="B116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>744</v>
+      </c>
+      <c r="B117" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>754</v>
+      </c>
+      <c r="B118" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>736</v>
+      </c>
+      <c r="B119" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>737</v>
+      </c>
+      <c r="B120" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>739</v>
+      </c>
+      <c r="B121" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B122" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B123" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>989</v>
+      </c>
+      <c r="B124" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>792</v>
+      </c>
+      <c r="B125" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>793</v>
+      </c>
+      <c r="B126" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>787</v>
+      </c>
+      <c r="B127" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>789</v>
+      </c>
+      <c r="B128" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>790</v>
+      </c>
+      <c r="B129" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>633</v>
+      </c>
+      <c r="B130" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>647</v>
+      </c>
+      <c r="B131" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>649</v>
+      </c>
+      <c r="B132" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>651</v>
+      </c>
+      <c r="B133" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>653</v>
+      </c>
+      <c r="B134" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>655</v>
+      </c>
+      <c r="B135" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>656</v>
+      </c>
+      <c r="B136" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>658</v>
+      </c>
+      <c r="B137" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>659</v>
+      </c>
+      <c r="B138" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>661</v>
+      </c>
+      <c r="B139" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>662</v>
+      </c>
+      <c r="B140" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>664</v>
+      </c>
+      <c r="B141" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>665</v>
+      </c>
+      <c r="B142" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>667</v>
+      </c>
+      <c r="B143" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>668</v>
+      </c>
+      <c r="B144" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>670</v>
+      </c>
+      <c r="B145" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>671</v>
+      </c>
+      <c r="B146" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>673</v>
+      </c>
+      <c r="B147" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B148" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>933</v>
+      </c>
+      <c r="B149" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>742</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>759</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>937</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>939</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>941</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>828</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>818</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>957</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>999</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>987</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>820</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>761</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>965</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>967</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>991</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E1:E316">
+    <sortCondition ref="E1:E316"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="59.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -22104,8 +25536,8 @@
   <sheetPr/>
   <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="1796">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -5062,6 +5062,9 @@
     <t>pNext可指向的struct</t>
   </si>
   <si>
+    <t xml:space="preserve">    VkApplicationInfo</t>
+  </si>
+  <si>
     <t xml:space="preserve">VkDebugUtilsMessengerCreateInfoEXT </t>
   </si>
   <si>
@@ -5092,61 +5095,172 @@
     <t>vector&lt;VkMappedMemoryRange&gt;</t>
   </si>
   <si>
+    <t>vector&lt;VkBindBufferMemoryInfo&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkBindImageMemoryInfo&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkSparseImageMemoryRequirements&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkSparseImageMemoryRequirements2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkComponentMapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkImageSubresourceRange</t>
+  </si>
+  <si>
+    <t>vector&lt;VkViewport&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkBufferCopy&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkBufferImageCopy&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkClearAttachment&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkClearRect&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkClearColorValue&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkImageSubresourceRange&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkImageBlit&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkImageSubresourceLayers</t>
+  </si>
+  <si>
+    <t>vector&lt;VkMemoryBarrier&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkBufferMemoryBarrier&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkImageMemoryBarrier&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkSparseBufferMemoryBindInfo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkSparseBufferMemoryBindInfo</t>
+  </si>
+  <si>
+    <t>vector&lt;VkSparseImageOpaqueMemoryBindInfo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkSparseMemoryBind&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkSparseImageMemoryBindInfo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkSparseImageMemoryBind&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        VkImageSubresource</t>
+  </si>
+  <si>
+    <t>vector&lt;VkSubmitInfo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkDescriptorSetLayoutBinding&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkDescriptorPoolSize&gt;</t>
+  </si>
+  <si>
+    <t>vector&lt;VkWriteDescriptorSet&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkDescriptorImageInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkDescriptorBufferInfo</t>
+  </si>
+  <si>
+    <t>vector&lt;VkCopyDescriptorSet&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkDescriptorUpdateTemplateEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkAttachmentDescription&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkSubpassDescription&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        VkAttachmentReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkSubpassDependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;VkPushConstantRange&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineShaderStageCreateInfo</t>
+  </si>
+  <si>
+    <t>vector&lt;VkGraphicsPipelineCreateInfo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        VkSpecializationInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            VkSpecializationMapEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineVertexInputStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;VkVertexInputBindingDescription&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;VkVertexInputAttributeDescription&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineInputAssemblyStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineTessellationStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineViewportStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;VkViewport&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;VkRect2D&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineRasterizationStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineMultisampleStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VkPipelineDepthStencilStateCreateInfo</t>
+  </si>
+  <si>
     <t xml:space="preserve">VkPipelineViewportSwizzleStateCreateInfoNV </t>
   </si>
   <si>
-    <t>vector&lt;VkBindBufferMemoryInfo&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkBindImageMemoryInfo&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkSparseImageMemoryRequirements&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkSparseImageMemoryRequirements2&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkViewport&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkBufferCopy&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkBufferImageCopy&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkClearAttachment&gt;</t>
-  </si>
-  <si>
-    <t>vector&lt;VkClearRect&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineShaderStageCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineVertexInputStateCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineInputAssemblyStateCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineTessellationStateCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineViewportStateCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineRasterizationStateCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineMultisampleStateCreateInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VkPipelineDepthStencilStateCreateInfo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    VkPipelineColorBlendStateCreateInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;VkPipelineColorBlendAttachmentState&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">    VkPipelineDynamicStateCreateInfo</t>
@@ -5428,9 +5542,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5455,32 +5569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5509,8 +5600,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5538,9 +5653,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5559,29 +5696,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5660,7 +5774,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5672,13 +5834,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5696,43 +5864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5750,7 +5882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5762,13 +5894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5780,7 +5906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5792,37 +5936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5833,6 +5947,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5866,30 +6015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5903,17 +6028,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5939,10 +6053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5954,127 +6068,127 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17459,16 +17573,16 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="45.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.125" style="1" customWidth="1"/>
@@ -17477,7 +17591,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>1634</v>
       </c>
@@ -17490,14 +17604,8 @@
       <c r="E1" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>622</v>
       </c>
@@ -17507,173 +17615,97 @@
       <c r="D2" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1638</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>625</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>631</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>627</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>633</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="F10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>641</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>643</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>645</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>647</v>
       </c>
@@ -17686,14 +17718,8 @@
       <c r="D15" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>649</v>
       </c>
@@ -17706,14 +17732,8 @@
       <c r="D16" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>651</v>
       </c>
@@ -17726,14 +17746,8 @@
       <c r="D17" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>653</v>
       </c>
@@ -17741,14 +17755,8 @@
       <c r="C18" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>655</v>
       </c>
@@ -17756,14 +17764,8 @@
       <c r="C19" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>656</v>
       </c>
@@ -17771,14 +17773,8 @@
       <c r="C20" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>658</v>
       </c>
@@ -17786,14 +17782,8 @@
       <c r="C21" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>659</v>
       </c>
@@ -17801,14 +17791,8 @@
       <c r="C22" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>661</v>
       </c>
@@ -17821,27 +17805,15 @@
       <c r="D23" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="E24" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>662</v>
       </c>
@@ -17849,14 +17821,8 @@
       <c r="C25" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>664</v>
       </c>
@@ -17864,14 +17830,8 @@
       <c r="C26" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>665</v>
       </c>
@@ -17879,14 +17839,8 @@
       <c r="C27" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>667</v>
       </c>
@@ -17894,59 +17848,35 @@
       <c r="C28" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>668</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>670</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>671</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>673</v>
       </c>
@@ -17954,19 +17884,13 @@
         <v>718</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>732</v>
       </c>
@@ -17976,273 +17900,150 @@
       <c r="D33" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="E35" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="E36" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="E37" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="E38" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="E39" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="E40" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="E41" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="E42" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="E43" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="D44" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="E45" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>734</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="F46" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
         <v>736</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="F47" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
         <v>737</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="F48" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>740</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="F50" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
         <v>742</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>744</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="F52" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>746</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="G53" s="1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>750</v>
       </c>
@@ -18252,166 +18053,115 @@
       <c r="D54" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="E55" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="E56" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="E57" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="E58" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="E59" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="E60" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="E61" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="E62" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="E63" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="E64" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="E65" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="E66" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
         <v>752</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="G67" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>754</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="G68" s="1" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>756</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="G69" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -18641,14 +18391,18 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>1653</v>
+      </c>
       <c r="E98" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>1654</v>
+      </c>
       <c r="E99" s="1" t="s">
         <v>528</v>
       </c>
@@ -18853,7 +18607,9 @@
       <c r="A127" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="B127" s="3"/>
+      <c r="B127" s="3" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
@@ -18878,7 +18634,7 @@
         <v>862</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -18989,7 +18745,7 @@
         <v>892</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -18997,7 +18753,7 @@
         <v>894</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -19005,700 +18761,964 @@
         <v>896</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="B152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="B153" s="3"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="B154" s="3"/>
+        <v>900</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="B155" s="3"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="B156" s="3"/>
+        <v>902</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="B158" s="3"/>
+        <v>906</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1657</v>
+      </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="B159" s="3"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>1663</v>
+      </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="3" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="3" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="3" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="D167" s="1" t="s">
-        <v>487</v>
+        <v>919</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="B168" s="3"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3" t="s">
+        <v>1666</v>
+      </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="B170" s="3"/>
-      <c r="D170" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>923</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="E171" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B172" s="3"/>
-      <c r="D172" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="E173" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="B171" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="E174" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="B174" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="E175" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="E176" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="B177" s="3"/>
-      <c r="E177" s="1" t="s">
-        <v>1583</v>
-      </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B178" s="3"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="B179" s="3"/>
+        <v>937</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D179" s="1" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="3" t="s">
+        <v>1667</v>
+      </c>
       <c r="E180" s="1" t="s">
-        <v>1366</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="D182" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="E183" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="D184" s="1" t="s">
-        <v>203</v>
+      <c r="B183" s="3" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="B185" s="3"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="B186" s="3"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3" t="s">
+        <v>1673</v>
+      </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B187" s="3"/>
+        <v>939</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>1674</v>
+      </c>
       <c r="D187" s="1" t="s">
-        <v>207</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="E188" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="3" t="s">
-        <v>963</v>
-      </c>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="3" t="s">
-        <v>965</v>
-      </c>
+      <c r="E189" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="3" t="s">
-        <v>967</v>
-      </c>
+      <c r="E190" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="3" t="s">
-        <v>971</v>
-      </c>
+      <c r="E191" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="D192" s="1" t="s">
-        <v>221</v>
+      <c r="E192" s="1" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="3" t="s">
-        <v>973</v>
+        <v>941</v>
       </c>
       <c r="B193" s="3"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="B194" s="3"/>
+        <v>945</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="D194" s="1" t="s">
-        <v>534</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="B195" s="3" t="s">
+        <v>1675</v>
+      </c>
       <c r="E195" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="3"/>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="B196" s="3"/>
-      <c r="E196" s="1" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="B198" s="3"/>
-      <c r="D198" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="E199" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>949</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="E200" s="1" t="s">
-        <v>1408</v>
+      <c r="B200" s="3" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="3" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3" t="s">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="B203" s="3"/>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="3" t="s">
-        <v>991</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" s="3" t="s">
-        <v>995</v>
+        <v>963</v>
       </c>
       <c r="B205" s="3"/>
-      <c r="D205" s="1" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="B206" s="3"/>
+        <v>965</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>1677</v>
+      </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="B207" s="3"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3" t="s">
+        <v>1678</v>
+      </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B208" s="3"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3" t="s">
+        <v>1679</v>
+      </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B209" s="3"/>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
       <c r="B210" s="3"/>
-      <c r="D210" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="E211" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="E212" s="1" t="s">
-        <v>510</v>
+      <c r="B212" s="3" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="3" t="s">
-        <v>1009</v>
+        <v>973</v>
       </c>
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="3" t="s">
-        <v>1015</v>
-      </c>
+        <v>977</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="D215" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="3" t="s">
-        <v>1017</v>
-      </c>
+      <c r="E215" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" s="3" t="s">
-        <v>1021</v>
+        <v>979</v>
       </c>
       <c r="B217" s="3"/>
-      <c r="D217" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="3" t="s">
-        <v>1025</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="3" t="s">
-        <v>1027</v>
-      </c>
+      <c r="E219" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" s="3" t="s">
-        <v>1031</v>
+        <v>985</v>
       </c>
       <c r="B221" s="3"/>
-      <c r="D221" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="3"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="3" t="s">
+        <v>987</v>
+      </c>
       <c r="B222" s="3"/>
-      <c r="E222" s="1" t="s">
-        <v>1558</v>
-      </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="3" t="s">
-        <v>1033</v>
+        <v>989</v>
       </c>
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:2">
       <c r="A224" s="3" t="s">
-        <v>1037</v>
+        <v>991</v>
       </c>
       <c r="B224" s="3"/>
-      <c r="D224" s="1" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
+      <c r="A225" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="D225" s="1" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="3" t="s">
-        <v>1039</v>
+        <v>997</v>
       </c>
       <c r="B226" s="3"/>
-      <c r="D226" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="3"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="B227" s="3"/>
-      <c r="D227" s="1" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="3"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="B228" s="3"/>
-      <c r="D228" s="1" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="3"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="3" t="s">
+        <v>1003</v>
+      </c>
       <c r="B229" s="3"/>
-      <c r="E229" s="1" t="s">
-        <v>1530</v>
-      </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>506</v>
+      </c>
       <c r="D230" s="1" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="D231" s="1" t="s">
-        <v>1661</v>
+      <c r="B231" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
+      <c r="B232" s="3" t="s">
+        <v>1683</v>
+      </c>
       <c r="E232" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="D233" s="1" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="B233" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="E234" s="1" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="3"/>
+      <c r="B234" s="3" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="3" t="s">
+        <v>1009</v>
+      </c>
       <c r="B235" s="3"/>
-      <c r="E235" s="1" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="D236" s="1" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="E237" s="1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="E238" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="3" t="s">
+        <v>1017</v>
+      </c>
       <c r="B239" s="3"/>
-      <c r="D239" s="1" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="E240" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="3"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="3" t="s">
+        <v>1023</v>
+      </c>
       <c r="B241" s="3"/>
-      <c r="E241" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="3"/>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="3" t="s">
+        <v>1025</v>
+      </c>
       <c r="B242" s="3"/>
-      <c r="E242" s="1" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="3"/>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="3" t="s">
+        <v>1027</v>
+      </c>
       <c r="B243" s="3"/>
-      <c r="D243" s="1" t="s">
-        <v>1665</v>
-      </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="D244" s="1" t="s">
-        <v>1666</v>
+        <v>540</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="E245" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="D248" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="E267" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="E268" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="D269" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="E270" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+      <c r="E271" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="E272" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="D273" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="D274" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="E275" s="1" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="D246" s="1" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="3" t="s">
+    <row r="276" spans="1:4">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="D276" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="B247" s="3"/>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="4" t="s">
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="B248" s="4"/>
-      <c r="D248" s="1" t="s">
+      <c r="B278" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
-      <c r="E249" s="1" t="s">
+      <c r="D278" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="E279" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="3" t="s">
+    <row r="280" spans="1:2">
+      <c r="A280" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="B250" s="3"/>
+      <c r="B280" s="3"/>
     </row>
   </sheetData>
   <sortState ref="G1:G248">
@@ -19714,8 +19734,8 @@
   <sheetPr/>
   <dimension ref="A1:B331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -21222,7 +21242,7 @@
         <v>1209</v>
       </c>
       <c r="B187" t="s">
-        <v>1668</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -21422,7 +21442,7 @@
         <v>1235</v>
       </c>
       <c r="B212" t="s">
-        <v>1669</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -21430,7 +21450,7 @@
         <v>1236</v>
       </c>
       <c r="B213" t="s">
-        <v>1670</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -21470,7 +21490,7 @@
         <v>1241</v>
       </c>
       <c r="B218" t="s">
-        <v>1671</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -21478,7 +21498,7 @@
         <v>1242</v>
       </c>
       <c r="B219" t="s">
-        <v>1672</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -21486,7 +21506,7 @@
         <v>1243</v>
       </c>
       <c r="B220" t="s">
-        <v>1673</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -21550,7 +21570,7 @@
         <v>1252</v>
       </c>
       <c r="B228" t="s">
-        <v>1674</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -21582,7 +21602,7 @@
         <v>1256</v>
       </c>
       <c r="B232" t="s">
-        <v>1675</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -21654,7 +21674,7 @@
         <v>1268</v>
       </c>
       <c r="B241" t="s">
-        <v>1676</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -21662,7 +21682,7 @@
         <v>1269</v>
       </c>
       <c r="B242" t="s">
-        <v>1677</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -21675,7 +21695,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>1678</v>
+        <v>1716</v>
       </c>
       <c r="B244" t="s">
         <v>1508</v>
@@ -21683,10 +21703,10 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>1679</v>
+        <v>1717</v>
       </c>
       <c r="B245" t="s">
-        <v>1680</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -21803,7 +21823,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>1681</v>
+        <v>1719</v>
       </c>
       <c r="B260" t="s">
         <v>1577</v>
@@ -21811,7 +21831,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>1682</v>
+        <v>1720</v>
       </c>
       <c r="B261" t="s">
         <v>1578</v>
@@ -21822,7 +21842,7 @@
         <v>1286</v>
       </c>
       <c r="B262" t="s">
-        <v>1683</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -21830,28 +21850,28 @@
         <v>1287</v>
       </c>
       <c r="B263" t="s">
-        <v>1684</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>1685</v>
+        <v>1723</v>
       </c>
       <c r="B264" t="s">
-        <v>1686</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>1687</v>
+        <v>1725</v>
       </c>
       <c r="B265" t="s">
-        <v>1688</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>1689</v>
+        <v>1727</v>
       </c>
       <c r="B266" t="s">
         <v>1332</v>
@@ -21870,12 +21890,12 @@
         <v>1298</v>
       </c>
       <c r="B268" t="s">
-        <v>1690</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>1691</v>
+        <v>1729</v>
       </c>
       <c r="B269" t="s">
         <v>1374</v>
@@ -21883,7 +21903,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>1692</v>
+        <v>1730</v>
       </c>
       <c r="B270" t="s">
         <v>1376</v>
@@ -21891,18 +21911,18 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>1693</v>
+        <v>1731</v>
       </c>
       <c r="B271" t="s">
-        <v>1694</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>1695</v>
+        <v>1733</v>
       </c>
       <c r="B272" t="s">
-        <v>1696</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -21910,20 +21930,20 @@
         <v>1299</v>
       </c>
       <c r="B273" t="s">
-        <v>1697</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>1698</v>
+        <v>1736</v>
       </c>
       <c r="B274" t="s">
-        <v>1699</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>1700</v>
+        <v>1738</v>
       </c>
       <c r="B275" t="s">
         <v>1450</v>
@@ -21931,7 +21951,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>1701</v>
+        <v>1739</v>
       </c>
       <c r="B276" t="s">
         <v>1452</v>
@@ -21947,34 +21967,34 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>1702</v>
+        <v>1740</v>
       </c>
       <c r="B278" t="s">
-        <v>1703</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>1704</v>
+        <v>1742</v>
       </c>
       <c r="B279" t="s">
-        <v>1705</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>1706</v>
+        <v>1744</v>
       </c>
       <c r="B280" t="s">
-        <v>1707</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>1708</v>
+        <v>1746</v>
       </c>
       <c r="B281" t="s">
-        <v>1709</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -21982,28 +22002,28 @@
         <v>1303</v>
       </c>
       <c r="B282" t="s">
-        <v>1710</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>1711</v>
+        <v>1749</v>
       </c>
       <c r="B283" t="s">
-        <v>1712</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>1713</v>
+        <v>1751</v>
       </c>
       <c r="B284" t="s">
-        <v>1714</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>1715</v>
+        <v>1753</v>
       </c>
       <c r="B285" t="s">
         <v>1502</v>
@@ -22011,23 +22031,23 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>1716</v>
+        <v>1754</v>
       </c>
       <c r="B286" t="s">
-        <v>1717</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>1718</v>
+        <v>1756</v>
       </c>
       <c r="B287" t="s">
-        <v>1719</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>1720</v>
+        <v>1758</v>
       </c>
       <c r="B288" t="s">
         <v>1330</v>
@@ -22035,10 +22055,10 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>1721</v>
+        <v>1759</v>
       </c>
       <c r="B289" t="s">
-        <v>1722</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -22046,12 +22066,12 @@
         <v>1292</v>
       </c>
       <c r="B290" t="s">
-        <v>1723</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>1724</v>
+        <v>1762</v>
       </c>
       <c r="B291" t="s">
         <v>1360</v>
@@ -22059,7 +22079,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>1725</v>
+        <v>1763</v>
       </c>
       <c r="B292" t="s">
         <v>1362</v>
@@ -22067,7 +22087,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>1726</v>
+        <v>1764</v>
       </c>
       <c r="B293" t="s">
         <v>1364</v>
@@ -22078,7 +22098,7 @@
         <v>1293</v>
       </c>
       <c r="B294" t="s">
-        <v>1727</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -22118,7 +22138,7 @@
         <v>1289</v>
       </c>
       <c r="B299" t="s">
-        <v>1728</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -22126,7 +22146,7 @@
         <v>1290</v>
       </c>
       <c r="B300" t="s">
-        <v>1729</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -22134,7 +22154,7 @@
         <v>1291</v>
       </c>
       <c r="B301" t="s">
-        <v>1730</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -22142,7 +22162,7 @@
         <v>1306</v>
       </c>
       <c r="B302" t="s">
-        <v>1731</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -22150,7 +22170,7 @@
         <v>1307</v>
       </c>
       <c r="B303" t="s">
-        <v>1732</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -22158,7 +22178,7 @@
         <v>1308</v>
       </c>
       <c r="B304" t="s">
-        <v>1733</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -22166,7 +22186,7 @@
         <v>1309</v>
       </c>
       <c r="B305" t="s">
-        <v>1734</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -22174,7 +22194,7 @@
         <v>1310</v>
       </c>
       <c r="B306" t="s">
-        <v>1735</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -22182,7 +22202,7 @@
         <v>1311</v>
       </c>
       <c r="B307" t="s">
-        <v>1736</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -22190,7 +22210,7 @@
         <v>1312</v>
       </c>
       <c r="B308" t="s">
-        <v>1737</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="309" spans="2:2">
@@ -22205,22 +22225,22 @@
     </row>
     <row r="311" spans="2:2">
       <c r="B311" t="s">
-        <v>1738</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" t="s">
-        <v>1739</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" t="s">
-        <v>1740</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" t="s">
-        <v>1741</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="315" spans="2:2">
@@ -22235,12 +22255,12 @@
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>1742</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>1743</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="319" spans="2:2">
@@ -22333,7 +22353,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1744</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -22343,7 +22363,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1745</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -22383,7 +22403,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1746</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -22463,7 +22483,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1747</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -22478,7 +22498,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1748</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -22503,7 +22523,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1749</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -22538,7 +22558,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1750</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -22563,7 +22583,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1751</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -22583,7 +22603,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1752</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -22713,7 +22733,7 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1753</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -22738,7 +22758,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1754</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -22768,7 +22788,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1755</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -22783,7 +22803,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1756</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -22808,7 +22828,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1757</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="97" spans="1:1">

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22965" windowHeight="10965" tabRatio="858" activeTab="13"/>
+    <workbookView windowWidth="21330" windowHeight="10215" tabRatio="858" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="1796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6143" uniqueCount="1796">
   <si>
     <t>VK_API_VERSION</t>
   </si>
@@ -5556,6 +5556,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5563,15 +5570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5594,23 +5593,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5623,16 +5606,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5654,32 +5661,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5692,10 +5684,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5774,7 +5774,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5786,7 +5894,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5798,145 +5930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5952,11 +5952,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5976,11 +5974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6000,26 +6004,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6047,16 +6038,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6065,133 +6065,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17573,91 +17573,108 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="45.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="45.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>1634</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>622</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="F4" s="1" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>625</v>
       </c>
       <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>631</v>
       </c>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>627</v>
       </c>
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>629</v>
       </c>
@@ -17665,14 +17682,20 @@
       <c r="C9" s="1" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>633</v>
       </c>
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>639</v>
       </c>
@@ -17680,14 +17703,20 @@
       <c r="C11" s="1" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>641</v>
       </c>
       <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>643</v>
       </c>
@@ -17695,8 +17724,11 @@
       <c r="C13" s="1" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>645</v>
       </c>
@@ -17704,8 +17736,11 @@
       <c r="C14" s="1" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>647</v>
       </c>
@@ -17715,11 +17750,14 @@
       <c r="C15" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>649</v>
       </c>
@@ -17729,11 +17767,14 @@
       <c r="C16" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>651</v>
       </c>
@@ -17743,11 +17784,14 @@
       <c r="C17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>653</v>
       </c>
@@ -17755,8 +17799,11 @@
       <c r="C18" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>655</v>
       </c>
@@ -17764,8 +17811,11 @@
       <c r="C19" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>656</v>
       </c>
@@ -17773,8 +17823,11 @@
       <c r="C20" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>658</v>
       </c>
@@ -17782,8 +17835,11 @@
       <c r="C21" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>659</v>
       </c>
@@ -17791,8 +17847,11 @@
       <c r="C22" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>661</v>
       </c>
@@ -17802,18 +17861,22 @@
       <c r="C23" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="F24" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>662</v>
       </c>
@@ -17821,8 +17884,11 @@
       <c r="C25" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>664</v>
       </c>
@@ -17830,8 +17896,11 @@
       <c r="C26" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>665</v>
       </c>
@@ -17839,8 +17908,11 @@
       <c r="C27" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>667</v>
       </c>
@@ -17848,8 +17920,11 @@
       <c r="C28" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>668</v>
       </c>
@@ -17857,8 +17932,11 @@
       <c r="C29" s="1" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>670</v>
       </c>
@@ -17866,8 +17944,11 @@
       <c r="C30" s="1" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>671</v>
       </c>
@@ -17875,8 +17956,11 @@
       <c r="C31" s="1" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>673</v>
       </c>
@@ -17886,435 +17970,547 @@
       <c r="C32" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>732</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>1647</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="3"/>
+      <c r="F34" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="3"/>
+      <c r="F35" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="3"/>
+      <c r="F36" s="1" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="3"/>
+      <c r="F37" s="1" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="3"/>
+      <c r="F38" s="1" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="3"/>
+      <c r="F39" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="3"/>
+      <c r="F40" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="3"/>
+      <c r="F41" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="3"/>
+      <c r="F42" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="3"/>
+      <c r="F43" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="3"/>
+      <c r="F45" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>734</v>
       </c>
       <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>736</v>
       </c>
       <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>737</v>
       </c>
       <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>739</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>740</v>
       </c>
       <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>742</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>744</v>
       </c>
       <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>746</v>
       </c>
       <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>750</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="3"/>
+      <c r="F55" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="3"/>
+      <c r="F56" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="3"/>
+      <c r="F57" s="1" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="3"/>
+      <c r="F58" s="1" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="3"/>
+      <c r="F59" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="3"/>
+      <c r="F60" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="3"/>
+      <c r="F61" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="3"/>
+      <c r="F62" s="1" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="3"/>
+      <c r="F63" s="1" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="3"/>
+      <c r="F64" s="1" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="3"/>
+      <c r="F65" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="3"/>
+      <c r="F66" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>752</v>
       </c>
       <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>754</v>
       </c>
       <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>756</v>
       </c>
       <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>759</v>
       </c>
       <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="D71" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>761</v>
       </c>
       <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>765</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="3"/>
+      <c r="F74" s="1" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="3"/>
+      <c r="F75" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>767</v>
       </c>
       <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>769</v>
       </c>
       <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>771</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>774</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>776</v>
       </c>
       <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>780</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="3"/>
+      <c r="F82" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="3"/>
+      <c r="F83" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="3"/>
+      <c r="F84" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="3"/>
+      <c r="F85" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="3"/>
+      <c r="F86" s="1" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="3"/>
+      <c r="F87" s="1" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>782</v>
       </c>
       <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>784</v>
       </c>
       <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="D89" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>786</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>787</v>
       </c>
@@ -18322,8 +18518,11 @@
       <c r="C91" s="1" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="D91" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>789</v>
       </c>
@@ -18333,11 +18532,14 @@
       <c r="C92" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>790</v>
       </c>
@@ -18347,8 +18549,11 @@
       <c r="C93" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>792</v>
       </c>
@@ -18356,8 +18561,11 @@
       <c r="C94" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="D94" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>793</v>
       </c>
@@ -18367,1362 +18575,1764 @@
       <c r="C95" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="E96" s="1" t="s">
+      <c r="D96" s="3"/>
+      <c r="F96" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>796</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="D98" s="3"/>
+      <c r="F98" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="D99" s="3"/>
+      <c r="F99" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>798</v>
       </c>
       <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
         <v>802</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="E102" s="1" t="s">
+      <c r="D102" s="3"/>
+      <c r="F102" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="E103" s="1" t="s">
+      <c r="D103" s="3"/>
+      <c r="F103" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>804</v>
       </c>
       <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="D104" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>808</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>810</v>
       </c>
       <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="D106" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>814</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
         <v>816</v>
       </c>
       <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="D108" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
         <v>818</v>
       </c>
       <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="D109" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>820</v>
       </c>
       <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="D110" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
         <v>824</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>826</v>
       </c>
       <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="D112" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>828</v>
       </c>
       <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="D113" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>830</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="E116" s="1" t="s">
+      <c r="D116" s="3"/>
+      <c r="F116" s="1" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
         <v>834</v>
       </c>
       <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="D117" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>836</v>
       </c>
       <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="D118" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
         <v>838</v>
       </c>
       <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="D119" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>840</v>
       </c>
       <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="D120" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>842</v>
       </c>
       <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="D121" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>844</v>
       </c>
       <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="D122" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="D123" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>848</v>
       </c>
       <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="D124" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
         <v>850</v>
       </c>
       <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="D125" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="3" t="s">
         <v>852</v>
       </c>
       <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="D126" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="3" t="s">
         <v>854</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="D127" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
         <v>856</v>
       </c>
       <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="D128" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
         <v>858</v>
       </c>
       <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="D129" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="3" t="s">
         <v>860</v>
       </c>
       <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="D130" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="3" t="s">
         <v>862</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="D131" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="3" t="s">
         <v>864</v>
       </c>
       <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="D132" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="3" t="s">
         <v>866</v>
       </c>
       <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="D133" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
         <v>868</v>
       </c>
       <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="D134" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="3" t="s">
         <v>870</v>
       </c>
       <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="D135" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
         <v>872</v>
       </c>
       <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="D136" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
         <v>874</v>
       </c>
       <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="D137" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="3" t="s">
         <v>876</v>
       </c>
       <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="D138" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
         <v>878</v>
       </c>
       <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="D139" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
         <v>880</v>
       </c>
       <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="D140" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="3" t="s">
         <v>882</v>
       </c>
       <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="D141" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
         <v>884</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="E143" s="1" t="s">
+      <c r="D143" s="4"/>
+      <c r="F143" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="E144" s="1" t="s">
+      <c r="D144" s="4"/>
+      <c r="F144" s="1" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
         <v>886</v>
       </c>
       <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="D145" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="3" t="s">
         <v>888</v>
       </c>
       <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="D146" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
         <v>890</v>
       </c>
       <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="D147" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="3" t="s">
         <v>892</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="D148" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="3" t="s">
         <v>894</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="D149" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="3" t="s">
         <v>896</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="D150" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="3" t="s">
         <v>898</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="D152" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="3" t="s">
         <v>900</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="D154" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="3" t="s">
         <v>902</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="D156" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="3" t="s">
         <v>904</v>
       </c>
       <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="D157" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="3" t="s">
         <v>906</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="D158" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="3" t="s">
         <v>908</v>
       </c>
       <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="D160" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="3" t="s">
         <v>910</v>
       </c>
       <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="D161" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="3" t="s">
         <v>911</v>
       </c>
       <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="D162" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="3" t="s">
         <v>913</v>
       </c>
       <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="D163" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
         <v>915</v>
       </c>
       <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="D164" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="3" t="s">
         <v>917</v>
       </c>
       <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="D165" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="3" t="s">
         <v>919</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="D166" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="3" t="s">
         <v>921</v>
       </c>
       <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="D169" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="3" t="s">
         <v>923</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="D170" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="3" t="s">
         <v>925</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="D173" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="3" t="s">
         <v>929</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
         <v>931</v>
       </c>
       <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="D177" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="3" t="s">
         <v>933</v>
       </c>
       <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="D178" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="3" t="s">
         <v>937</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="D180" s="3"/>
+      <c r="F180" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:4">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>939</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>1674</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="E188" s="1" t="s">
+      <c r="D188" s="3"/>
+      <c r="F188" s="1" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="E189" s="1" t="s">
+      <c r="D189" s="3"/>
+      <c r="F189" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="E190" s="1" t="s">
+      <c r="D190" s="3"/>
+      <c r="F190" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="E191" s="1" t="s">
+      <c r="D191" s="3"/>
+      <c r="F191" s="1" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="E192" s="1" t="s">
+      <c r="D192" s="3"/>
+      <c r="F192" s="1" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:4">
       <c r="A193" s="3" t="s">
         <v>941</v>
       </c>
       <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="D193" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="3" t="s">
         <v>945</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:6">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>1675</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="D195" s="3"/>
+      <c r="F195" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
         <v>947</v>
       </c>
       <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="D196" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="3" t="s">
         <v>949</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>1675</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="D198" s="3"/>
+      <c r="F198" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5">
       <c r="A199" s="3" t="s">
         <v>953</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:4">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
         <v>955</v>
       </c>
       <c r="B201" s="3"/>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="D201" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
         <v>957</v>
       </c>
       <c r="B202" s="3"/>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="D202" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="3" t="s">
         <v>961</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="E204" s="1" t="s">
+      <c r="D204" s="3"/>
+      <c r="F204" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>963</v>
       </c>
       <c r="B205" s="3"/>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="D205" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
         <v>965</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="D206" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="3" t="s">
         <v>967</v>
       </c>
       <c r="B210" s="3"/>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="D210" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="3" t="s">
         <v>971</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:4">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="3" t="s">
         <v>973</v>
       </c>
       <c r="B213" s="3"/>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="D213" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="3" t="s">
         <v>977</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:6">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="E215" s="1" t="s">
+      <c r="D215" s="3"/>
+      <c r="F215" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:6">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-      <c r="E216" s="1" t="s">
+      <c r="D216" s="3"/>
+      <c r="F216" s="1" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:4">
       <c r="A217" s="3" t="s">
         <v>979</v>
       </c>
       <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="D217" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="3" t="s">
         <v>983</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:6">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-      <c r="E219" s="1" t="s">
+      <c r="D219" s="3"/>
+      <c r="F219" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:6">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-      <c r="E220" s="1" t="s">
+      <c r="D220" s="3"/>
+      <c r="F220" s="1" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:4">
       <c r="A221" s="3" t="s">
         <v>985</v>
       </c>
       <c r="B221" s="3"/>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="D221" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="3" t="s">
         <v>987</v>
       </c>
       <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="D222" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="3" t="s">
         <v>989</v>
       </c>
       <c r="B223" s="3"/>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="D223" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
         <v>991</v>
       </c>
       <c r="B224" s="3"/>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="D224" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="3" t="s">
         <v>995</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:4">
       <c r="A226" s="3" t="s">
         <v>997</v>
       </c>
       <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="D226" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
         <v>999</v>
       </c>
       <c r="B227" s="3"/>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="D227" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="B228" s="3"/>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="D228" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="B229" s="3"/>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="D229" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:6">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="D231" s="3"/>
+      <c r="F231" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:6">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="D232" s="3"/>
+      <c r="F232" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:4">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="3" t="s">
         <v>1009</v>
       </c>
       <c r="B235" s="3"/>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="D235" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="D236" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:4">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
         <v>1017</v>
       </c>
       <c r="B239" s="3"/>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="D239" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:4">
       <c r="A241" s="3" t="s">
         <v>1023</v>
       </c>
       <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="D241" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="3" t="s">
         <v>1025</v>
       </c>
       <c r="B242" s="3"/>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="D242" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="3" t="s">
         <v>1027</v>
       </c>
       <c r="B243" s="3"/>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="D243" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:6">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
-      <c r="E245" s="1" t="s">
+      <c r="D245" s="3"/>
+      <c r="F245" s="1" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:4">
       <c r="A246" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="B246" s="3"/>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="D246" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="3" t="s">
         <v>1037</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:5">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="3"/>
+      <c r="E248" s="1" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:5">
       <c r="A249" s="3" t="s">
         <v>1039</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>1688</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:5">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="3"/>
+      <c r="E250" s="1" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:4">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" s="3"/>
+      <c r="E253" s="1" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:4">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
         <v>1694</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="D256" s="3"/>
+      <c r="F256" s="1" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:5">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="3"/>
+      <c r="E257" s="1" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:5">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
         <v>1696</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="3"/>
+      <c r="E258" s="1" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:4">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="D260" s="3"/>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="D261" s="3"/>
+      <c r="F261" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:5">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
         <v>1700</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" s="3"/>
+      <c r="E262" s="1" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:6">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="D263" s="3"/>
+      <c r="F263" s="1" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:6">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
         <v>1703</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="D264" s="3"/>
+      <c r="F264" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:4">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
         <v>1705</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" s="3"/>
+      <c r="E266" s="1" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:6">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="E267" s="1" t="s">
+      <c r="D267" s="3"/>
+      <c r="F267" s="1" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:6">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="E268" s="1" t="s">
+      <c r="D268" s="3"/>
+      <c r="F268" s="1" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:5">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="3"/>
+      <c r="E269" s="1" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:6">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="E270" s="1" t="s">
+      <c r="D270" s="3"/>
+      <c r="F270" s="1" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:6">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="E271" s="1" t="s">
+      <c r="D271" s="3"/>
+      <c r="F271" s="1" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:6">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
-      <c r="E272" s="1" t="s">
+      <c r="D272" s="3"/>
+      <c r="F272" s="1" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:5">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
-      <c r="D273" s="1" t="s">
+      <c r="D273" s="3"/>
+      <c r="E273" s="1" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:5">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
-      <c r="D274" s="1" t="s">
+      <c r="D274" s="3"/>
+      <c r="E274" s="1" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:6">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
-      <c r="E275" s="1" t="s">
+      <c r="D275" s="3"/>
+      <c r="F275" s="1" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:5">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
-      <c r="D276" s="1" t="s">
+      <c r="D276" s="3"/>
+      <c r="E276" s="1" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:4">
       <c r="A277" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="B277" s="3"/>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="D277" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D278" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:6">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
-      <c r="E279" s="1" t="s">
+      <c r="D279" s="4"/>
+      <c r="F279" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:4">
       <c r="A280" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="B280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>1049</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="G1:G248">
-    <sortCondition ref="G1"/>
+  <sortState ref="H1:H248">
+    <sortCondition ref="H1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/laka_vulkan/vk.xlsx
+++ b/laka_vulkan/vk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="10215" tabRatio="858" activeTab="13"/>
+    <workbookView windowWidth="25095" windowHeight="12615" tabRatio="858" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -5541,10 +5541,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5556,12 +5556,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5570,44 +5571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5637,9 +5601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5661,7 +5632,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5677,7 +5648,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5694,6 +5665,35 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5774,7 +5774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5786,19 +5786,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5816,7 +5840,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5828,31 +5894,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5864,79 +5930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5952,39 +5952,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6000,17 +5972,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6039,11 +6000,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6053,10 +6053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6065,31 +6065,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6098,100 +6101,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17576,7 +17576,7 @@
   <dimension ref="A1:F280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -17599,7 +17599,6 @@
       <c r="C1" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>1636</v>
       </c>
